--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -32,7 +32,7 @@
     <numFmt numFmtId="167" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -103,6 +103,11 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -581,7 +586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -1219,6 +1224,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2690,9 +2704,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -8472,7 +8486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -8645,22 +8659,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="104" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="104" t="inlineStr">
         <is>
           <t>rs</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="104" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
       <c r="D9" s="231" t="inlineStr">
+        <is>
+          <t>22-Jun-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="104" t="inlineStr">
+        <is>
+          <t>bv</t>
+        </is>
+      </c>
+      <c r="B10" s="104" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="C10" s="104" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="D10" s="231" t="inlineStr">
         <is>
           <t>22-Jun-2024</t>
         </is>
@@ -8679,7 +8715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
@@ -8958,6 +8994,134 @@
       <c r="D19" s="215" t="n"/>
       <c r="E19" s="216" t="n"/>
       <c r="F19" s="216" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="231" t="inlineStr">
+        <is>
+          <t>22-Jun-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C20" s="104" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D20" s="104" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="E20" s="104" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="F20" s="104" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="231" t="inlineStr">
+        <is>
+          <t>22-Jun-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C21" s="104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D21" s="104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E21" s="104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F21" s="104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="232" t="inlineStr">
+        <is>
+          <t>22-Jun-2024</t>
+        </is>
+      </c>
+      <c r="B22" s="233" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C22" s="233" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D22" s="233" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E22" s="234" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F22" s="234" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="231" t="inlineStr">
+        <is>
+          <t>22-Jun-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>gsdfdf</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fdg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>fdgs</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sdfg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sdfg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -32,7 +32,7 @@
     <numFmt numFmtId="167" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -111,9 +111,6 @@
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -208,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -580,12 +577,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -599,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -1258,12 +1249,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3057,9 +3042,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -3296,1845 +3281,1103 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="110">
-      <c r="A1" s="239" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="239" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="240" t="inlineStr">
-        <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D1" s="240" t="inlineStr">
-        <is>
-          <t>01/02/2024</t>
-        </is>
-      </c>
-      <c r="E1" s="240" t="inlineStr">
-        <is>
-          <t>01/03/2024</t>
-        </is>
-      </c>
-      <c r="F1" s="240" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="G1" s="240" t="inlineStr">
-        <is>
-          <t>01/05/2024</t>
-        </is>
-      </c>
-      <c r="H1" s="240" t="inlineStr">
-        <is>
-          <t>01/06/2024</t>
-        </is>
-      </c>
-      <c r="I1" s="240" t="inlineStr">
-        <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="J1" s="240" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="K1" s="240" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="L1" s="240" t="inlineStr">
-        <is>
-          <t>01/10/2024</t>
-        </is>
-      </c>
-      <c r="M1" s="240" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="N1" s="240" t="inlineStr">
-        <is>
-          <t>01/12/2024</t>
-        </is>
-      </c>
-      <c r="O1" s="240" t="inlineStr">
-        <is>
-          <t>01/13/2024</t>
-        </is>
-      </c>
-      <c r="P1" s="240" t="inlineStr">
-        <is>
-          <t>01/14/2024</t>
-        </is>
-      </c>
-      <c r="Q1" s="240" t="inlineStr">
-        <is>
-          <t>01/15/2024</t>
-        </is>
-      </c>
-      <c r="R1" s="240" t="inlineStr">
-        <is>
-          <t>01/16/2024</t>
-        </is>
-      </c>
-      <c r="S1" s="240" t="inlineStr">
-        <is>
-          <t>01/17/2024</t>
-        </is>
-      </c>
-      <c r="T1" s="240" t="inlineStr">
-        <is>
-          <t>01/18/2024</t>
-        </is>
-      </c>
-      <c r="U1" s="240" t="inlineStr">
-        <is>
-          <t>01/19/2024</t>
-        </is>
-      </c>
-      <c r="V1" s="240" t="inlineStr">
-        <is>
-          <t>01/20/2024</t>
-        </is>
-      </c>
-      <c r="W1" s="240" t="inlineStr">
-        <is>
-          <t>01/21/2024</t>
-        </is>
-      </c>
-      <c r="X1" s="240" t="inlineStr">
-        <is>
-          <t>01/22/2024</t>
-        </is>
-      </c>
-      <c r="Y1" s="240" t="inlineStr">
-        <is>
-          <t>01/23/2024</t>
-        </is>
-      </c>
-      <c r="Z1" s="240" t="inlineStr">
-        <is>
-          <t>01/24/2024</t>
-        </is>
-      </c>
-      <c r="AA1" s="240" t="inlineStr">
-        <is>
-          <t>01/25/2024</t>
-        </is>
-      </c>
-      <c r="AB1" s="240" t="inlineStr">
-        <is>
-          <t>01/26/2024</t>
-        </is>
-      </c>
-      <c r="AC1" s="240" t="inlineStr">
-        <is>
-          <t>01/27/2024</t>
-        </is>
-      </c>
-      <c r="AD1" s="240" t="inlineStr">
-        <is>
-          <t>01/28/2024</t>
-        </is>
-      </c>
-      <c r="AE1" s="240" t="inlineStr">
-        <is>
-          <t>01/29/2024</t>
-        </is>
-      </c>
-      <c r="AF1" s="240" t="inlineStr">
-        <is>
-          <t>01/30/2024</t>
-        </is>
-      </c>
-      <c r="AG1" s="240" t="inlineStr">
-        <is>
-          <t>01/31/2024</t>
-        </is>
-      </c>
-      <c r="AH1" s="240" t="inlineStr">
-        <is>
-          <t>02/01/2024</t>
-        </is>
-      </c>
-      <c r="AI1" s="240" t="inlineStr">
-        <is>
-          <t>02/02/2024</t>
-        </is>
-      </c>
-      <c r="AJ1" s="240" t="inlineStr">
-        <is>
-          <t>02/03/2024</t>
-        </is>
-      </c>
-      <c r="AK1" s="240" t="inlineStr">
-        <is>
-          <t>02/04/2024</t>
-        </is>
-      </c>
-      <c r="AL1" s="240" t="inlineStr">
-        <is>
-          <t>02/05/2024</t>
-        </is>
-      </c>
-      <c r="AM1" s="240" t="inlineStr">
-        <is>
-          <t>02/06/2024</t>
-        </is>
-      </c>
-      <c r="AN1" s="240" t="inlineStr">
-        <is>
-          <t>02/07/2024</t>
-        </is>
-      </c>
-      <c r="AO1" s="240" t="inlineStr">
-        <is>
-          <t>02/08/2024</t>
-        </is>
-      </c>
-      <c r="AP1" s="240" t="inlineStr">
-        <is>
-          <t>02/09/2024</t>
-        </is>
-      </c>
-      <c r="AQ1" s="240" t="inlineStr">
-        <is>
-          <t>02/10/2024</t>
-        </is>
-      </c>
-      <c r="AR1" s="240" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="AS1" s="240" t="inlineStr">
-        <is>
-          <t>02/12/2024</t>
-        </is>
-      </c>
-      <c r="AT1" s="240" t="inlineStr">
-        <is>
-          <t>02/13/2024</t>
-        </is>
-      </c>
-      <c r="AU1" s="240" t="inlineStr">
-        <is>
-          <t>02/14/2024</t>
-        </is>
-      </c>
-      <c r="AV1" s="240" t="inlineStr">
-        <is>
-          <t>02/15/2024</t>
-        </is>
-      </c>
-      <c r="AW1" s="240" t="inlineStr">
-        <is>
-          <t>02/16/2024</t>
-        </is>
-      </c>
-      <c r="AX1" s="240" t="inlineStr">
-        <is>
-          <t>02/17/2024</t>
-        </is>
-      </c>
-      <c r="AY1" s="240" t="inlineStr">
-        <is>
-          <t>02/18/2024</t>
-        </is>
-      </c>
-      <c r="AZ1" s="240" t="inlineStr">
-        <is>
-          <t>02/19/2024</t>
-        </is>
-      </c>
-      <c r="BA1" s="240" t="inlineStr">
-        <is>
-          <t>02/20/2024</t>
-        </is>
-      </c>
-      <c r="BB1" s="240" t="inlineStr">
-        <is>
-          <t>02/21/2024</t>
-        </is>
-      </c>
-      <c r="BC1" s="240" t="inlineStr">
-        <is>
-          <t>02/22/2024</t>
-        </is>
-      </c>
-      <c r="BD1" s="240" t="inlineStr">
-        <is>
-          <t>02/23/2024</t>
-        </is>
-      </c>
-      <c r="BE1" s="240" t="inlineStr">
-        <is>
-          <t>02/24/2024</t>
-        </is>
-      </c>
-      <c r="BF1" s="240" t="inlineStr">
-        <is>
-          <t>02/25/2024</t>
-        </is>
-      </c>
-      <c r="BG1" s="240" t="inlineStr">
-        <is>
-          <t>02/26/2024</t>
-        </is>
-      </c>
-      <c r="BH1" s="240" t="inlineStr">
-        <is>
-          <t>02/27/2024</t>
-        </is>
-      </c>
-      <c r="BI1" s="240" t="inlineStr">
-        <is>
-          <t>02/28/2024</t>
-        </is>
-      </c>
-      <c r="BJ1" s="240" t="inlineStr">
-        <is>
-          <t>02/29/2024</t>
-        </is>
-      </c>
-      <c r="BK1" s="240" t="inlineStr">
-        <is>
-          <t>03/01/2024</t>
-        </is>
-      </c>
-      <c r="BL1" s="240" t="inlineStr">
-        <is>
-          <t>03/02/2024</t>
-        </is>
-      </c>
-      <c r="BM1" s="240" t="inlineStr">
-        <is>
-          <t>03/03/2024</t>
-        </is>
-      </c>
-      <c r="BN1" s="240" t="inlineStr">
-        <is>
-          <t>03/04/2024</t>
-        </is>
-      </c>
-      <c r="BO1" s="240" t="inlineStr">
-        <is>
-          <t>03/05/2024</t>
-        </is>
-      </c>
-      <c r="BP1" s="240" t="inlineStr">
-        <is>
-          <t>03/06/2024</t>
-        </is>
-      </c>
-      <c r="BQ1" s="240" t="inlineStr">
-        <is>
-          <t>03/07/2024</t>
-        </is>
-      </c>
-      <c r="BR1" s="240" t="inlineStr">
-        <is>
-          <t>03/08/2024</t>
-        </is>
-      </c>
-      <c r="BS1" s="240" t="inlineStr">
-        <is>
-          <t>03/09/2024</t>
-        </is>
-      </c>
-      <c r="BT1" s="240" t="inlineStr">
-        <is>
-          <t>03/10/2024</t>
-        </is>
-      </c>
-      <c r="BU1" s="240" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="BV1" s="240" t="inlineStr">
-        <is>
-          <t>03/12/2024</t>
-        </is>
-      </c>
-      <c r="BW1" s="240" t="inlineStr">
-        <is>
-          <t>03/13/2024</t>
-        </is>
-      </c>
-      <c r="BX1" s="240" t="inlineStr">
-        <is>
-          <t>03/14/2024</t>
-        </is>
-      </c>
-      <c r="BY1" s="240" t="inlineStr">
-        <is>
-          <t>03/15/2024</t>
-        </is>
-      </c>
-      <c r="BZ1" s="240" t="inlineStr">
-        <is>
-          <t>03/16/2024</t>
-        </is>
-      </c>
-      <c r="CA1" s="240" t="inlineStr">
-        <is>
-          <t>03/17/2024</t>
-        </is>
-      </c>
-      <c r="CB1" s="240" t="inlineStr">
-        <is>
-          <t>03/18/2024</t>
-        </is>
-      </c>
-      <c r="CC1" s="240" t="inlineStr">
-        <is>
-          <t>03/19/2024</t>
-        </is>
-      </c>
-      <c r="CD1" s="240" t="inlineStr">
-        <is>
-          <t>03/20/2024</t>
-        </is>
-      </c>
-      <c r="CE1" s="240" t="inlineStr">
-        <is>
-          <t>03/21/2024</t>
-        </is>
-      </c>
-      <c r="CF1" s="240" t="inlineStr">
-        <is>
-          <t>03/22/2024</t>
-        </is>
-      </c>
-      <c r="CG1" s="240" t="inlineStr">
-        <is>
-          <t>03/23/2024</t>
-        </is>
-      </c>
-      <c r="CH1" s="240" t="inlineStr">
-        <is>
-          <t>03/24/2024</t>
-        </is>
-      </c>
-      <c r="CI1" s="240" t="inlineStr">
-        <is>
-          <t>03/25/2024</t>
-        </is>
-      </c>
-      <c r="CJ1" s="240" t="inlineStr">
-        <is>
-          <t>03/26/2024</t>
-        </is>
-      </c>
-      <c r="CK1" s="240" t="inlineStr">
-        <is>
-          <t>03/27/2024</t>
-        </is>
-      </c>
-      <c r="CL1" s="240" t="inlineStr">
-        <is>
-          <t>03/28/2024</t>
-        </is>
-      </c>
-      <c r="CM1" s="240" t="inlineStr">
-        <is>
-          <t>03/29/2024</t>
-        </is>
-      </c>
-      <c r="CN1" s="240" t="inlineStr">
-        <is>
-          <t>03/30/2024</t>
-        </is>
-      </c>
-      <c r="CO1" s="240" t="inlineStr">
-        <is>
-          <t>03/31/2024</t>
-        </is>
-      </c>
-      <c r="CP1" s="240" t="inlineStr">
-        <is>
-          <t>04/01/2024</t>
-        </is>
-      </c>
-      <c r="CQ1" s="240" t="inlineStr">
-        <is>
-          <t>04/02/2024</t>
-        </is>
-      </c>
-      <c r="CR1" s="240" t="inlineStr">
-        <is>
-          <t>04/03/2024</t>
-        </is>
-      </c>
-      <c r="CS1" s="240" t="inlineStr">
-        <is>
-          <t>04/04/2024</t>
-        </is>
-      </c>
-      <c r="CT1" s="240" t="inlineStr">
-        <is>
-          <t>04/05/2024</t>
-        </is>
-      </c>
-      <c r="CU1" s="240" t="inlineStr">
-        <is>
-          <t>04/06/2024</t>
-        </is>
-      </c>
-      <c r="CV1" s="240" t="inlineStr">
-        <is>
-          <t>04/07/2024</t>
-        </is>
-      </c>
-      <c r="CW1" s="240" t="inlineStr">
-        <is>
-          <t>04/08/2024</t>
-        </is>
-      </c>
-      <c r="CX1" s="240" t="inlineStr">
-        <is>
-          <t>04/09/2024</t>
-        </is>
-      </c>
-      <c r="CY1" s="240" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
-      </c>
-      <c r="CZ1" s="240" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="DA1" s="240" t="inlineStr">
-        <is>
-          <t>04/12/2024</t>
-        </is>
-      </c>
-      <c r="DB1" s="240" t="inlineStr">
-        <is>
-          <t>04/13/2024</t>
-        </is>
-      </c>
-      <c r="DC1" s="240" t="inlineStr">
-        <is>
-          <t>04/14/2024</t>
-        </is>
-      </c>
-      <c r="DD1" s="240" t="inlineStr">
-        <is>
-          <t>04/15/2024</t>
-        </is>
-      </c>
-      <c r="DE1" s="240" t="inlineStr">
-        <is>
-          <t>04/16/2024</t>
-        </is>
-      </c>
-      <c r="DF1" s="240" t="inlineStr">
-        <is>
-          <t>04/17/2024</t>
-        </is>
-      </c>
-      <c r="DG1" s="240" t="inlineStr">
-        <is>
-          <t>04/18/2024</t>
-        </is>
-      </c>
-      <c r="DH1" s="240" t="inlineStr">
-        <is>
-          <t>04/19/2024</t>
-        </is>
-      </c>
-      <c r="DI1" s="240" t="inlineStr">
-        <is>
-          <t>04/20/2024</t>
-        </is>
-      </c>
-      <c r="DJ1" s="240" t="inlineStr">
-        <is>
-          <t>04/21/2024</t>
-        </is>
-      </c>
-      <c r="DK1" s="240" t="inlineStr">
-        <is>
-          <t>04/22/2024</t>
-        </is>
-      </c>
-      <c r="DL1" s="240" t="inlineStr">
-        <is>
-          <t>04/23/2024</t>
-        </is>
-      </c>
-      <c r="DM1" s="240" t="inlineStr">
-        <is>
-          <t>04/24/2024</t>
-        </is>
-      </c>
-      <c r="DN1" s="240" t="inlineStr">
-        <is>
-          <t>04/25/2024</t>
-        </is>
-      </c>
-      <c r="DO1" s="240" t="inlineStr">
-        <is>
-          <t>04/26/2024</t>
-        </is>
-      </c>
-      <c r="DP1" s="240" t="inlineStr">
-        <is>
-          <t>04/27/2024</t>
-        </is>
-      </c>
-      <c r="DQ1" s="240" t="inlineStr">
-        <is>
-          <t>04/28/2024</t>
-        </is>
-      </c>
-      <c r="DR1" s="240" t="inlineStr">
-        <is>
-          <t>04/29/2024</t>
-        </is>
-      </c>
-      <c r="DS1" s="240" t="inlineStr">
-        <is>
-          <t>04/30/2024</t>
-        </is>
-      </c>
-      <c r="DT1" s="240" t="inlineStr">
-        <is>
-          <t>05/01/2024</t>
-        </is>
-      </c>
-      <c r="DU1" s="240" t="inlineStr">
-        <is>
-          <t>05/02/2024</t>
-        </is>
-      </c>
-      <c r="DV1" s="240" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="DW1" s="240" t="inlineStr">
-        <is>
-          <t>05/04/2024</t>
-        </is>
-      </c>
-      <c r="DX1" s="240" t="inlineStr">
-        <is>
-          <t>05/05/2024</t>
-        </is>
-      </c>
-      <c r="DY1" s="240" t="inlineStr">
-        <is>
-          <t>05/06/2024</t>
-        </is>
-      </c>
-      <c r="DZ1" s="240" t="inlineStr">
-        <is>
-          <t>05/07/2024</t>
-        </is>
-      </c>
-      <c r="EA1" s="240" t="inlineStr">
-        <is>
-          <t>05/08/2024</t>
-        </is>
-      </c>
-      <c r="EB1" s="240" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
-      <c r="EC1" s="240" t="inlineStr">
-        <is>
-          <t>05/10/2024</t>
-        </is>
-      </c>
-      <c r="ED1" s="240" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="EE1" s="240" t="inlineStr">
-        <is>
-          <t>05/12/2024</t>
-        </is>
-      </c>
-      <c r="EF1" s="240" t="inlineStr">
-        <is>
-          <t>05/13/2024</t>
-        </is>
-      </c>
-      <c r="EG1" s="240" t="inlineStr">
-        <is>
-          <t>05/14/2024</t>
-        </is>
-      </c>
-      <c r="EH1" s="240" t="inlineStr">
-        <is>
-          <t>05/15/2024</t>
-        </is>
-      </c>
-      <c r="EI1" s="240" t="inlineStr">
-        <is>
-          <t>05/16/2024</t>
-        </is>
-      </c>
-      <c r="EJ1" s="240" t="inlineStr">
-        <is>
-          <t>05/17/2024</t>
-        </is>
-      </c>
-      <c r="EK1" s="240" t="inlineStr">
-        <is>
-          <t>05/18/2024</t>
-        </is>
-      </c>
-      <c r="EL1" s="240" t="inlineStr">
-        <is>
-          <t>05/19/2024</t>
-        </is>
-      </c>
-      <c r="EM1" s="240" t="inlineStr">
-        <is>
-          <t>05/20/2024</t>
-        </is>
-      </c>
-      <c r="EN1" s="240" t="inlineStr">
-        <is>
-          <t>05/21/2024</t>
-        </is>
-      </c>
-      <c r="EO1" s="240" t="inlineStr">
-        <is>
-          <t>05/22/2024</t>
-        </is>
-      </c>
-      <c r="EP1" s="240" t="inlineStr">
-        <is>
-          <t>05/23/2024</t>
-        </is>
-      </c>
-      <c r="EQ1" s="240" t="inlineStr">
-        <is>
-          <t>05/24/2024</t>
-        </is>
-      </c>
-      <c r="ER1" s="240" t="inlineStr">
-        <is>
-          <t>05/25/2024</t>
-        </is>
-      </c>
-      <c r="ES1" s="240" t="inlineStr">
-        <is>
-          <t>05/26/2024</t>
-        </is>
-      </c>
-      <c r="ET1" s="240" t="inlineStr">
-        <is>
-          <t>05/27/2024</t>
-        </is>
-      </c>
-      <c r="EU1" s="240" t="inlineStr">
-        <is>
-          <t>05/28/2024</t>
-        </is>
-      </c>
-      <c r="EV1" s="240" t="inlineStr">
-        <is>
-          <t>05/29/2024</t>
-        </is>
-      </c>
-      <c r="EW1" s="240" t="inlineStr">
-        <is>
-          <t>05/30/2024</t>
-        </is>
-      </c>
-      <c r="EX1" s="240" t="inlineStr">
-        <is>
-          <t>05/31/2024</t>
-        </is>
-      </c>
-      <c r="EY1" s="240" t="inlineStr">
-        <is>
-          <t>06/01/2024</t>
-        </is>
-      </c>
-      <c r="EZ1" s="240" t="inlineStr">
-        <is>
-          <t>06/02/2024</t>
-        </is>
-      </c>
-      <c r="FA1" s="240" t="inlineStr">
-        <is>
-          <t>06/03/2024</t>
-        </is>
-      </c>
-      <c r="FB1" s="240" t="inlineStr">
-        <is>
-          <t>06/04/2024</t>
-        </is>
-      </c>
-      <c r="FC1" s="240" t="inlineStr">
-        <is>
-          <t>06/05/2024</t>
-        </is>
-      </c>
-      <c r="FD1" s="240" t="inlineStr">
-        <is>
-          <t>06/06/2024</t>
-        </is>
-      </c>
-      <c r="FE1" s="240" t="inlineStr">
-        <is>
-          <t>06/07/2024</t>
-        </is>
-      </c>
-      <c r="FF1" s="240" t="inlineStr">
-        <is>
-          <t>06/08/2024</t>
-        </is>
-      </c>
-      <c r="FG1" s="240" t="inlineStr">
-        <is>
-          <t>06/09/2024</t>
-        </is>
-      </c>
-      <c r="FH1" s="240" t="inlineStr">
-        <is>
-          <t>06/10/2024</t>
-        </is>
-      </c>
-      <c r="FI1" s="240" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="FJ1" s="240" t="inlineStr">
-        <is>
-          <t>06/12/2024</t>
-        </is>
-      </c>
-      <c r="FK1" s="240" t="inlineStr">
-        <is>
-          <t>06/13/2024</t>
-        </is>
-      </c>
-      <c r="FL1" s="240" t="inlineStr">
-        <is>
-          <t>06/14/2024</t>
-        </is>
-      </c>
-      <c r="FM1" s="240" t="inlineStr">
-        <is>
-          <t>06/15/2024</t>
-        </is>
-      </c>
-      <c r="FN1" s="240" t="inlineStr">
-        <is>
-          <t>06/16/2024</t>
-        </is>
-      </c>
-      <c r="FO1" s="240" t="inlineStr">
-        <is>
-          <t>06/17/2024</t>
-        </is>
-      </c>
-      <c r="FP1" s="240" t="inlineStr">
-        <is>
-          <t>06/18/2024</t>
-        </is>
-      </c>
-      <c r="FQ1" s="240" t="inlineStr">
-        <is>
-          <t>06/19/2024</t>
-        </is>
-      </c>
-      <c r="FR1" s="240" t="inlineStr">
-        <is>
-          <t>06/20/2024</t>
-        </is>
-      </c>
-      <c r="FS1" s="240" t="inlineStr">
-        <is>
-          <t>06/21/2024</t>
-        </is>
-      </c>
-      <c r="FT1" s="240" t="inlineStr">
-        <is>
-          <t>06/22/2024</t>
-        </is>
-      </c>
-      <c r="FU1" s="240" t="inlineStr">
-        <is>
-          <t>06/23/2024</t>
-        </is>
-      </c>
-      <c r="FV1" s="240" t="inlineStr">
-        <is>
-          <t>06/24/2024</t>
-        </is>
-      </c>
-      <c r="FW1" s="240" t="inlineStr">
-        <is>
-          <t>06/25/2024</t>
-        </is>
-      </c>
-      <c r="FX1" s="240" t="inlineStr">
-        <is>
-          <t>06/26/2024</t>
-        </is>
-      </c>
-      <c r="FY1" s="240" t="inlineStr">
-        <is>
-          <t>06/27/2024</t>
-        </is>
-      </c>
-      <c r="FZ1" s="240" t="inlineStr">
-        <is>
-          <t>06/28/2024</t>
-        </is>
-      </c>
-      <c r="GA1" s="240" t="inlineStr">
-        <is>
-          <t>06/29/2024</t>
-        </is>
-      </c>
-      <c r="GB1" s="240" t="inlineStr">
-        <is>
-          <t>06/30/2024</t>
-        </is>
-      </c>
-      <c r="GC1" s="240" t="inlineStr">
-        <is>
-          <t>07/01/2024</t>
-        </is>
-      </c>
-      <c r="GD1" s="240" t="inlineStr">
-        <is>
-          <t>07/02/2024</t>
-        </is>
-      </c>
-      <c r="GE1" s="240" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
-      </c>
-      <c r="GF1" s="240" t="inlineStr">
-        <is>
-          <t>07/04/2024</t>
-        </is>
-      </c>
-      <c r="GG1" s="240" t="inlineStr">
-        <is>
-          <t>07/05/2024</t>
-        </is>
-      </c>
-      <c r="GH1" s="240" t="inlineStr">
-        <is>
-          <t>07/06/2024</t>
-        </is>
-      </c>
-      <c r="GI1" s="240" t="inlineStr">
-        <is>
-          <t>07/07/2024</t>
-        </is>
-      </c>
-      <c r="GJ1" s="240" t="inlineStr">
-        <is>
-          <t>07/08/2024</t>
-        </is>
-      </c>
-      <c r="GK1" s="240" t="inlineStr">
-        <is>
-          <t>07/09/2024</t>
-        </is>
-      </c>
-      <c r="GL1" s="240" t="inlineStr">
-        <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="GM1" s="240" t="inlineStr">
-        <is>
-          <t>07/11/2024</t>
-        </is>
-      </c>
-      <c r="GN1" s="240" t="inlineStr">
-        <is>
-          <t>07/12/2024</t>
-        </is>
-      </c>
-      <c r="GO1" s="240" t="inlineStr">
-        <is>
-          <t>07/13/2024</t>
-        </is>
-      </c>
-      <c r="GP1" s="240" t="inlineStr">
-        <is>
-          <t>07/14/2024</t>
-        </is>
-      </c>
-      <c r="GQ1" s="240" t="inlineStr">
-        <is>
-          <t>07/15/2024</t>
-        </is>
-      </c>
-      <c r="GR1" s="240" t="inlineStr">
-        <is>
-          <t>07/16/2024</t>
-        </is>
-      </c>
-      <c r="GS1" s="240" t="inlineStr">
-        <is>
-          <t>07/17/2024</t>
-        </is>
-      </c>
-      <c r="GT1" s="240" t="inlineStr">
-        <is>
-          <t>07/18/2024</t>
-        </is>
-      </c>
-      <c r="GU1" s="240" t="inlineStr">
-        <is>
-          <t>07/19/2024</t>
-        </is>
-      </c>
-      <c r="GV1" s="240" t="inlineStr">
-        <is>
-          <t>07/20/2024</t>
-        </is>
-      </c>
-      <c r="GW1" s="240" t="inlineStr">
-        <is>
-          <t>07/21/2024</t>
-        </is>
-      </c>
-      <c r="GX1" s="240" t="inlineStr">
-        <is>
-          <t>07/22/2024</t>
-        </is>
-      </c>
-      <c r="GY1" s="240" t="inlineStr">
-        <is>
-          <t>07/23/2024</t>
-        </is>
-      </c>
-      <c r="GZ1" s="240" t="inlineStr">
-        <is>
-          <t>07/24/2024</t>
-        </is>
-      </c>
-      <c r="HA1" s="240" t="inlineStr">
-        <is>
-          <t>07/25/2024</t>
-        </is>
-      </c>
-      <c r="HB1" s="240" t="inlineStr">
-        <is>
-          <t>07/26/2024</t>
-        </is>
-      </c>
-      <c r="HC1" s="240" t="inlineStr">
-        <is>
-          <t>07/27/2024</t>
-        </is>
-      </c>
-      <c r="HD1" s="240" t="inlineStr">
-        <is>
-          <t>07/28/2024</t>
-        </is>
-      </c>
-      <c r="HE1" s="240" t="inlineStr">
-        <is>
-          <t>07/29/2024</t>
-        </is>
-      </c>
-      <c r="HF1" s="240" t="inlineStr">
-        <is>
-          <t>07/30/2024</t>
-        </is>
-      </c>
-      <c r="HG1" s="240" t="inlineStr">
-        <is>
-          <t>07/31/2024</t>
-        </is>
-      </c>
-      <c r="HH1" s="240" t="inlineStr">
-        <is>
-          <t>08/01/2024</t>
-        </is>
-      </c>
-      <c r="HI1" s="240" t="inlineStr">
-        <is>
-          <t>08/02/2024</t>
-        </is>
-      </c>
-      <c r="HJ1" s="240" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
-      </c>
-      <c r="HK1" s="240" t="inlineStr">
-        <is>
-          <t>08/04/2024</t>
-        </is>
-      </c>
-      <c r="HL1" s="240" t="inlineStr">
-        <is>
-          <t>08/05/2024</t>
-        </is>
-      </c>
-      <c r="HM1" s="240" t="inlineStr">
-        <is>
-          <t>08/06/2024</t>
-        </is>
-      </c>
-      <c r="HN1" s="240" t="inlineStr">
-        <is>
-          <t>08/07/2024</t>
-        </is>
-      </c>
-      <c r="HO1" s="240" t="inlineStr">
-        <is>
-          <t>08/08/2024</t>
-        </is>
-      </c>
-      <c r="HP1" s="240" t="inlineStr">
-        <is>
-          <t>08/09/2024</t>
-        </is>
-      </c>
-      <c r="HQ1" s="240" t="inlineStr">
-        <is>
-          <t>08/10/2024</t>
-        </is>
-      </c>
-      <c r="HR1" s="240" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="HS1" s="240" t="inlineStr">
-        <is>
-          <t>08/12/2024</t>
-        </is>
-      </c>
-      <c r="HT1" s="240" t="inlineStr">
-        <is>
-          <t>08/13/2024</t>
-        </is>
-      </c>
-      <c r="HU1" s="240" t="inlineStr">
-        <is>
-          <t>08/14/2024</t>
-        </is>
-      </c>
-      <c r="HV1" s="240" t="inlineStr">
-        <is>
-          <t>08/15/2024</t>
-        </is>
-      </c>
-      <c r="HW1" s="240" t="inlineStr">
-        <is>
-          <t>08/16/2024</t>
-        </is>
-      </c>
-      <c r="HX1" s="240" t="inlineStr">
-        <is>
-          <t>08/17/2024</t>
-        </is>
-      </c>
-      <c r="HY1" s="240" t="inlineStr">
-        <is>
-          <t>08/18/2024</t>
-        </is>
-      </c>
-      <c r="HZ1" s="240" t="inlineStr">
-        <is>
-          <t>08/19/2024</t>
-        </is>
-      </c>
-      <c r="IA1" s="240" t="inlineStr">
-        <is>
-          <t>08/20/2024</t>
-        </is>
-      </c>
-      <c r="IB1" s="240" t="inlineStr">
-        <is>
-          <t>08/21/2024</t>
-        </is>
-      </c>
-      <c r="IC1" s="240" t="inlineStr">
-        <is>
-          <t>08/22/2024</t>
-        </is>
-      </c>
-      <c r="ID1" s="240" t="inlineStr">
-        <is>
-          <t>08/23/2024</t>
-        </is>
-      </c>
-      <c r="IE1" s="240" t="inlineStr">
-        <is>
-          <t>08/24/2024</t>
-        </is>
-      </c>
-      <c r="IF1" s="240" t="inlineStr">
-        <is>
-          <t>08/25/2024</t>
-        </is>
-      </c>
-      <c r="IG1" s="240" t="inlineStr">
-        <is>
-          <t>08/26/2024</t>
-        </is>
-      </c>
-      <c r="IH1" s="240" t="inlineStr">
-        <is>
-          <t>08/27/2024</t>
-        </is>
-      </c>
-      <c r="II1" s="240" t="inlineStr">
-        <is>
-          <t>08/28/2024</t>
-        </is>
-      </c>
-      <c r="IJ1" s="240" t="inlineStr">
-        <is>
-          <t>08/29/2024</t>
-        </is>
-      </c>
-      <c r="IK1" s="240" t="inlineStr">
-        <is>
-          <t>08/30/2024</t>
-        </is>
-      </c>
-      <c r="IL1" s="240" t="inlineStr">
-        <is>
-          <t>08/31/2024</t>
-        </is>
-      </c>
-      <c r="IM1" s="240" t="inlineStr">
-        <is>
-          <t>09/01/2024</t>
-        </is>
-      </c>
-      <c r="IN1" s="240" t="inlineStr">
-        <is>
-          <t>09/02/2024</t>
-        </is>
-      </c>
-      <c r="IO1" s="240" t="inlineStr">
-        <is>
-          <t>09/03/2024</t>
-        </is>
-      </c>
-      <c r="IP1" s="240" t="inlineStr">
-        <is>
-          <t>09/04/2024</t>
-        </is>
-      </c>
-      <c r="IQ1" s="240" t="inlineStr">
-        <is>
-          <t>09/05/2024</t>
-        </is>
-      </c>
-      <c r="IR1" s="240" t="inlineStr">
-        <is>
-          <t>09/06/2024</t>
-        </is>
-      </c>
-      <c r="IS1" s="240" t="inlineStr">
-        <is>
-          <t>09/07/2024</t>
-        </is>
-      </c>
-      <c r="IT1" s="240" t="inlineStr">
-        <is>
-          <t>09/08/2024</t>
-        </is>
-      </c>
-      <c r="IU1" s="240" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
-      </c>
-      <c r="IV1" s="240" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
-        </is>
-      </c>
-      <c r="IW1" s="240" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="IX1" s="240" t="inlineStr">
-        <is>
-          <t>09/12/2024</t>
-        </is>
-      </c>
-      <c r="IY1" s="240" t="inlineStr">
-        <is>
-          <t>09/13/2024</t>
-        </is>
-      </c>
-      <c r="IZ1" s="240" t="inlineStr">
-        <is>
-          <t>09/14/2024</t>
-        </is>
-      </c>
-      <c r="JA1" s="240" t="inlineStr">
-        <is>
-          <t>09/15/2024</t>
-        </is>
-      </c>
-      <c r="JB1" s="240" t="inlineStr">
-        <is>
-          <t>09/16/2024</t>
-        </is>
-      </c>
-      <c r="JC1" s="240" t="inlineStr">
-        <is>
-          <t>09/17/2024</t>
-        </is>
-      </c>
-      <c r="JD1" s="240" t="inlineStr">
-        <is>
-          <t>09/18/2024</t>
-        </is>
-      </c>
-      <c r="JE1" s="240" t="inlineStr">
-        <is>
-          <t>09/19/2024</t>
-        </is>
-      </c>
-      <c r="JF1" s="240" t="inlineStr">
-        <is>
-          <t>09/20/2024</t>
-        </is>
-      </c>
-      <c r="JG1" s="240" t="inlineStr">
-        <is>
-          <t>09/21/2024</t>
-        </is>
-      </c>
-      <c r="JH1" s="240" t="inlineStr">
-        <is>
-          <t>09/22/2024</t>
-        </is>
-      </c>
-      <c r="JI1" s="240" t="inlineStr">
-        <is>
-          <t>09/23/2024</t>
-        </is>
-      </c>
-      <c r="JJ1" s="240" t="inlineStr">
-        <is>
-          <t>09/24/2024</t>
-        </is>
-      </c>
-      <c r="JK1" s="240" t="inlineStr">
-        <is>
-          <t>09/25/2024</t>
-        </is>
-      </c>
-      <c r="JL1" s="240" t="inlineStr">
-        <is>
-          <t>09/26/2024</t>
-        </is>
-      </c>
-      <c r="JM1" s="240" t="inlineStr">
-        <is>
-          <t>09/27/2024</t>
-        </is>
-      </c>
-      <c r="JN1" s="240" t="inlineStr">
-        <is>
-          <t>09/28/2024</t>
-        </is>
-      </c>
-      <c r="JO1" s="240" t="inlineStr">
-        <is>
-          <t>09/29/2024</t>
-        </is>
-      </c>
-      <c r="JP1" s="240" t="inlineStr">
-        <is>
-          <t>09/30/2024</t>
-        </is>
-      </c>
-      <c r="JQ1" s="240" t="inlineStr">
-        <is>
-          <t>10/01/2024</t>
-        </is>
-      </c>
-      <c r="JR1" s="240" t="inlineStr">
-        <is>
-          <t>10/02/2024</t>
-        </is>
-      </c>
-      <c r="JS1" s="240" t="inlineStr">
-        <is>
-          <t>10/03/2024</t>
-        </is>
-      </c>
-      <c r="JT1" s="240" t="inlineStr">
-        <is>
-          <t>10/04/2024</t>
-        </is>
-      </c>
-      <c r="JU1" s="240" t="inlineStr">
-        <is>
-          <t>10/05/2024</t>
-        </is>
-      </c>
-      <c r="JV1" s="240" t="inlineStr">
-        <is>
-          <t>10/06/2024</t>
-        </is>
-      </c>
-      <c r="JW1" s="240" t="inlineStr">
-        <is>
-          <t>10/07/2024</t>
-        </is>
-      </c>
-      <c r="JX1" s="240" t="inlineStr">
-        <is>
-          <t>10/08/2024</t>
-        </is>
-      </c>
-      <c r="JY1" s="240" t="inlineStr">
-        <is>
-          <t>10/09/2024</t>
-        </is>
-      </c>
-      <c r="JZ1" s="240" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-      <c r="KA1" s="240" t="inlineStr">
-        <is>
-          <t>10/11/2024</t>
-        </is>
-      </c>
-      <c r="KB1" s="240" t="inlineStr">
-        <is>
-          <t>10/12/2024</t>
-        </is>
-      </c>
-      <c r="KC1" s="240" t="inlineStr">
-        <is>
-          <t>10/13/2024</t>
-        </is>
-      </c>
-      <c r="KD1" s="240" t="inlineStr">
-        <is>
-          <t>10/14/2024</t>
-        </is>
-      </c>
-      <c r="KE1" s="240" t="inlineStr">
-        <is>
-          <t>10/15/2024</t>
-        </is>
-      </c>
-      <c r="KF1" s="240" t="inlineStr">
-        <is>
-          <t>10/16/2024</t>
-        </is>
-      </c>
-      <c r="KG1" s="240" t="inlineStr">
-        <is>
-          <t>10/17/2024</t>
-        </is>
-      </c>
-      <c r="KH1" s="240" t="inlineStr">
-        <is>
-          <t>10/18/2024</t>
-        </is>
-      </c>
-      <c r="KI1" s="240" t="inlineStr">
-        <is>
-          <t>10/19/2024</t>
-        </is>
-      </c>
-      <c r="KJ1" s="240" t="inlineStr">
-        <is>
-          <t>10/20/2024</t>
-        </is>
-      </c>
-      <c r="KK1" s="240" t="inlineStr">
-        <is>
-          <t>10/21/2024</t>
-        </is>
-      </c>
-      <c r="KL1" s="240" t="inlineStr">
-        <is>
-          <t>10/22/2024</t>
-        </is>
-      </c>
-      <c r="KM1" s="240" t="inlineStr">
-        <is>
-          <t>10/23/2024</t>
-        </is>
-      </c>
-      <c r="KN1" s="240" t="inlineStr">
-        <is>
-          <t>10/24/2024</t>
-        </is>
-      </c>
-      <c r="KO1" s="240" t="inlineStr">
-        <is>
-          <t>10/25/2024</t>
-        </is>
-      </c>
-      <c r="KP1" s="240" t="inlineStr">
-        <is>
-          <t>10/26/2024</t>
-        </is>
-      </c>
-      <c r="KQ1" s="240" t="inlineStr">
-        <is>
-          <t>10/27/2024</t>
-        </is>
-      </c>
-      <c r="KR1" s="240" t="inlineStr">
-        <is>
-          <t>10/28/2024</t>
-        </is>
-      </c>
-      <c r="KS1" s="240" t="inlineStr">
-        <is>
-          <t>10/29/2024</t>
-        </is>
-      </c>
-      <c r="KT1" s="240" t="inlineStr">
-        <is>
-          <t>10/30/2024</t>
-        </is>
-      </c>
-      <c r="KU1" s="240" t="inlineStr">
-        <is>
-          <t>10/31/2024</t>
-        </is>
-      </c>
-      <c r="KV1" s="240" t="inlineStr">
-        <is>
-          <t>11/01/2024</t>
-        </is>
-      </c>
-      <c r="KW1" s="240" t="inlineStr">
-        <is>
-          <t>11/02/2024</t>
-        </is>
-      </c>
-      <c r="KX1" s="240" t="inlineStr">
-        <is>
-          <t>11/03/2024</t>
-        </is>
-      </c>
-      <c r="KY1" s="240" t="inlineStr">
-        <is>
-          <t>11/04/2024</t>
-        </is>
-      </c>
-      <c r="KZ1" s="240" t="inlineStr">
-        <is>
-          <t>11/05/2024</t>
-        </is>
-      </c>
-      <c r="LA1" s="240" t="inlineStr">
-        <is>
-          <t>11/06/2024</t>
-        </is>
-      </c>
-      <c r="LB1" s="240" t="inlineStr">
-        <is>
-          <t>11/07/2024</t>
-        </is>
-      </c>
-      <c r="LC1" s="240" t="inlineStr">
-        <is>
-          <t>11/08/2024</t>
-        </is>
-      </c>
-      <c r="LD1" s="240" t="inlineStr">
-        <is>
-          <t>11/09/2024</t>
-        </is>
-      </c>
-      <c r="LE1" s="240" t="inlineStr">
-        <is>
-          <t>11/10/2024</t>
-        </is>
-      </c>
-      <c r="LF1" s="240" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="LG1" s="240" t="inlineStr">
-        <is>
-          <t>11/12/2024</t>
-        </is>
-      </c>
-      <c r="LH1" s="240" t="inlineStr">
-        <is>
-          <t>11/13/2024</t>
-        </is>
-      </c>
-      <c r="LI1" s="240" t="inlineStr">
-        <is>
-          <t>11/14/2024</t>
-        </is>
-      </c>
-      <c r="LJ1" s="240" t="inlineStr">
-        <is>
-          <t>11/15/2024</t>
-        </is>
-      </c>
-      <c r="LK1" s="240" t="inlineStr">
-        <is>
-          <t>11/16/2024</t>
-        </is>
-      </c>
-      <c r="LL1" s="240" t="inlineStr">
-        <is>
-          <t>11/17/2024</t>
-        </is>
-      </c>
-      <c r="LM1" s="240" t="inlineStr">
-        <is>
-          <t>11/18/2024</t>
-        </is>
-      </c>
-      <c r="LN1" s="240" t="inlineStr">
-        <is>
-          <t>11/19/2024</t>
-        </is>
-      </c>
-      <c r="LO1" s="240" t="inlineStr">
-        <is>
-          <t>11/20/2024</t>
-        </is>
-      </c>
-      <c r="LP1" s="240" t="inlineStr">
-        <is>
-          <t>11/21/2024</t>
-        </is>
-      </c>
-      <c r="LQ1" s="240" t="inlineStr">
-        <is>
-          <t>11/22/2024</t>
-        </is>
-      </c>
-      <c r="LR1" s="240" t="inlineStr">
-        <is>
-          <t>11/23/2024</t>
-        </is>
-      </c>
-      <c r="LS1" s="240" t="inlineStr">
-        <is>
-          <t>11/24/2024</t>
-        </is>
-      </c>
-      <c r="LT1" s="240" t="inlineStr">
-        <is>
-          <t>11/25/2024</t>
-        </is>
-      </c>
-      <c r="LU1" s="240" t="inlineStr">
-        <is>
-          <t>11/26/2024</t>
-        </is>
-      </c>
-      <c r="LV1" s="240" t="inlineStr">
-        <is>
-          <t>11/27/2024</t>
-        </is>
-      </c>
-      <c r="LW1" s="240" t="inlineStr">
-        <is>
-          <t>11/28/2024</t>
-        </is>
-      </c>
-      <c r="LX1" s="240" t="inlineStr">
-        <is>
-          <t>11/29/2024</t>
-        </is>
-      </c>
-      <c r="LY1" s="240" t="inlineStr">
-        <is>
-          <t>11/30/2024</t>
-        </is>
-      </c>
-      <c r="LZ1" s="240" t="inlineStr">
-        <is>
-          <t>12/01/2024</t>
-        </is>
-      </c>
-      <c r="MA1" s="240" t="inlineStr">
-        <is>
-          <t>12/02/2024</t>
-        </is>
-      </c>
-      <c r="MB1" s="240" t="inlineStr">
-        <is>
-          <t>12/03/2024</t>
-        </is>
-      </c>
-      <c r="MC1" s="240" t="inlineStr">
-        <is>
-          <t>12/04/2024</t>
-        </is>
-      </c>
-      <c r="MD1" s="240" t="inlineStr">
-        <is>
-          <t>12/05/2024</t>
-        </is>
-      </c>
-      <c r="ME1" s="240" t="inlineStr">
-        <is>
-          <t>12/06/2024</t>
-        </is>
-      </c>
-      <c r="MF1" s="240" t="inlineStr">
-        <is>
-          <t>12/07/2024</t>
-        </is>
-      </c>
-      <c r="MG1" s="240" t="inlineStr">
-        <is>
-          <t>12/08/2024</t>
-        </is>
-      </c>
-      <c r="MH1" s="240" t="inlineStr">
-        <is>
-          <t>12/09/2024</t>
-        </is>
-      </c>
-      <c r="MI1" s="240" t="inlineStr">
-        <is>
-          <t>12/10/2024</t>
-        </is>
-      </c>
-      <c r="MJ1" s="240" t="inlineStr">
-        <is>
-          <t>12/11/2024</t>
-        </is>
-      </c>
-      <c r="MK1" s="240" t="inlineStr">
-        <is>
-          <t>12/12/2024</t>
-        </is>
-      </c>
-      <c r="ML1" s="240" t="inlineStr">
-        <is>
-          <t>12/13/2024</t>
-        </is>
-      </c>
-      <c r="MM1" s="240" t="inlineStr">
-        <is>
-          <t>12/14/2024</t>
-        </is>
-      </c>
-      <c r="MN1" s="240" t="inlineStr">
-        <is>
-          <t>12/15/2024</t>
-        </is>
-      </c>
-      <c r="MO1" s="240" t="inlineStr">
-        <is>
-          <t>12/16/2024</t>
-        </is>
-      </c>
-      <c r="MP1" s="240" t="inlineStr">
-        <is>
-          <t>12/17/2024</t>
-        </is>
-      </c>
-      <c r="MQ1" s="240" t="inlineStr">
-        <is>
-          <t>12/18/2024</t>
-        </is>
-      </c>
-      <c r="MR1" s="240" t="inlineStr">
-        <is>
-          <t>12/19/2024</t>
-        </is>
-      </c>
-      <c r="MS1" s="240" t="inlineStr">
-        <is>
-          <t>12/20/2024</t>
-        </is>
-      </c>
-      <c r="MT1" s="240" t="inlineStr">
-        <is>
-          <t>12/21/2024</t>
-        </is>
-      </c>
-      <c r="MU1" s="240" t="inlineStr">
-        <is>
-          <t>12/22/2024</t>
-        </is>
-      </c>
-      <c r="MV1" s="240" t="inlineStr">
-        <is>
-          <t>12/23/2024</t>
-        </is>
-      </c>
-      <c r="MW1" s="240" t="inlineStr">
-        <is>
-          <t>12/24/2024</t>
-        </is>
-      </c>
-      <c r="MX1" s="240" t="inlineStr">
-        <is>
-          <t>12/25/2024</t>
-        </is>
-      </c>
-      <c r="MY1" s="240" t="inlineStr">
-        <is>
-          <t>12/26/2024</t>
-        </is>
-      </c>
-      <c r="MZ1" s="240" t="inlineStr">
-        <is>
-          <t>12/27/2024</t>
-        </is>
-      </c>
-      <c r="NA1" s="240" t="inlineStr">
-        <is>
-          <t>12/28/2024</t>
-        </is>
-      </c>
-      <c r="NB1" s="240" t="inlineStr">
-        <is>
-          <t>12/29/2024</t>
-        </is>
-      </c>
-      <c r="NC1" s="240" t="inlineStr">
-        <is>
-          <t>12/30/2024</t>
-        </is>
-      </c>
-      <c r="ND1" s="240" t="inlineStr">
-        <is>
-          <t>12/31/2024</t>
-        </is>
+      <c r="C1" s="202" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D1" s="202" t="n">
+        <v>45293</v>
+      </c>
+      <c r="E1" s="202" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F1" s="202" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G1" s="202" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H1" s="202" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I1" s="202" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J1" s="202" t="n">
+        <v>45299</v>
+      </c>
+      <c r="K1" s="202" t="n">
+        <v>45300</v>
+      </c>
+      <c r="L1" s="202" t="n">
+        <v>45301</v>
+      </c>
+      <c r="M1" s="202" t="n">
+        <v>45302</v>
+      </c>
+      <c r="N1" s="202" t="n">
+        <v>45303</v>
+      </c>
+      <c r="O1" s="202" t="n">
+        <v>45304</v>
+      </c>
+      <c r="P1" s="202" t="n">
+        <v>45305</v>
+      </c>
+      <c r="Q1" s="202" t="n">
+        <v>45306</v>
+      </c>
+      <c r="R1" s="202" t="n">
+        <v>45307</v>
+      </c>
+      <c r="S1" s="202" t="n">
+        <v>45308</v>
+      </c>
+      <c r="T1" s="202" t="n">
+        <v>45309</v>
+      </c>
+      <c r="U1" s="202" t="n">
+        <v>45310</v>
+      </c>
+      <c r="V1" s="202" t="n">
+        <v>45311</v>
+      </c>
+      <c r="W1" s="202" t="n">
+        <v>45312</v>
+      </c>
+      <c r="X1" s="202" t="n">
+        <v>45313</v>
+      </c>
+      <c r="Y1" s="202" t="n">
+        <v>45314</v>
+      </c>
+      <c r="Z1" s="202" t="n">
+        <v>45315</v>
+      </c>
+      <c r="AA1" s="202" t="n">
+        <v>45316</v>
+      </c>
+      <c r="AB1" s="202" t="n">
+        <v>45317</v>
+      </c>
+      <c r="AC1" s="202" t="n">
+        <v>45318</v>
+      </c>
+      <c r="AD1" s="202" t="n">
+        <v>45319</v>
+      </c>
+      <c r="AE1" s="202" t="n">
+        <v>45320</v>
+      </c>
+      <c r="AF1" s="202" t="n">
+        <v>45321</v>
+      </c>
+      <c r="AG1" s="202" t="n">
+        <v>45322</v>
+      </c>
+      <c r="AH1" s="202" t="n">
+        <v>45323</v>
+      </c>
+      <c r="AI1" s="202" t="n">
+        <v>45324</v>
+      </c>
+      <c r="AJ1" s="202" t="n">
+        <v>45325</v>
+      </c>
+      <c r="AK1" s="202" t="n">
+        <v>45326</v>
+      </c>
+      <c r="AL1" s="202" t="n">
+        <v>45327</v>
+      </c>
+      <c r="AM1" s="202" t="n">
+        <v>45328</v>
+      </c>
+      <c r="AN1" s="202" t="n">
+        <v>45329</v>
+      </c>
+      <c r="AO1" s="202" t="n">
+        <v>45330</v>
+      </c>
+      <c r="AP1" s="202" t="n">
+        <v>45331</v>
+      </c>
+      <c r="AQ1" s="202" t="n">
+        <v>45332</v>
+      </c>
+      <c r="AR1" s="202" t="n">
+        <v>45333</v>
+      </c>
+      <c r="AS1" s="202" t="n">
+        <v>45334</v>
+      </c>
+      <c r="AT1" s="202" t="n">
+        <v>45335</v>
+      </c>
+      <c r="AU1" s="202" t="n">
+        <v>45336</v>
+      </c>
+      <c r="AV1" s="202" t="n">
+        <v>45337</v>
+      </c>
+      <c r="AW1" s="202" t="n">
+        <v>45338</v>
+      </c>
+      <c r="AX1" s="202" t="n">
+        <v>45339</v>
+      </c>
+      <c r="AY1" s="202" t="n">
+        <v>45340</v>
+      </c>
+      <c r="AZ1" s="202" t="n">
+        <v>45341</v>
+      </c>
+      <c r="BA1" s="202" t="n">
+        <v>45342</v>
+      </c>
+      <c r="BB1" s="202" t="n">
+        <v>45343</v>
+      </c>
+      <c r="BC1" s="202" t="n">
+        <v>45344</v>
+      </c>
+      <c r="BD1" s="202" t="n">
+        <v>45345</v>
+      </c>
+      <c r="BE1" s="202" t="n">
+        <v>45346</v>
+      </c>
+      <c r="BF1" s="202" t="n">
+        <v>45347</v>
+      </c>
+      <c r="BG1" s="202" t="n">
+        <v>45348</v>
+      </c>
+      <c r="BH1" s="202" t="n">
+        <v>45349</v>
+      </c>
+      <c r="BI1" s="202" t="n">
+        <v>45350</v>
+      </c>
+      <c r="BJ1" s="202" t="n">
+        <v>45351</v>
+      </c>
+      <c r="BK1" s="202" t="n">
+        <v>45352</v>
+      </c>
+      <c r="BL1" s="202" t="n">
+        <v>45353</v>
+      </c>
+      <c r="BM1" s="202" t="n">
+        <v>45354</v>
+      </c>
+      <c r="BN1" s="202" t="n">
+        <v>45355</v>
+      </c>
+      <c r="BO1" s="202" t="n">
+        <v>45356</v>
+      </c>
+      <c r="BP1" s="202" t="n">
+        <v>45357</v>
+      </c>
+      <c r="BQ1" s="202" t="n">
+        <v>45358</v>
+      </c>
+      <c r="BR1" s="202" t="n">
+        <v>45359</v>
+      </c>
+      <c r="BS1" s="202" t="n">
+        <v>45360</v>
+      </c>
+      <c r="BT1" s="202" t="n">
+        <v>45361</v>
+      </c>
+      <c r="BU1" s="202" t="n">
+        <v>45362</v>
+      </c>
+      <c r="BV1" s="202" t="n">
+        <v>45363</v>
+      </c>
+      <c r="BW1" s="202" t="n">
+        <v>45364</v>
+      </c>
+      <c r="BX1" s="202" t="n">
+        <v>45365</v>
+      </c>
+      <c r="BY1" s="202" t="n">
+        <v>45366</v>
+      </c>
+      <c r="BZ1" s="202" t="n">
+        <v>45367</v>
+      </c>
+      <c r="CA1" s="202" t="n">
+        <v>45368</v>
+      </c>
+      <c r="CB1" s="202" t="n">
+        <v>45369</v>
+      </c>
+      <c r="CC1" s="202" t="n">
+        <v>45370</v>
+      </c>
+      <c r="CD1" s="202" t="n">
+        <v>45371</v>
+      </c>
+      <c r="CE1" s="202" t="n">
+        <v>45372</v>
+      </c>
+      <c r="CF1" s="202" t="n">
+        <v>45373</v>
+      </c>
+      <c r="CG1" s="202" t="n">
+        <v>45374</v>
+      </c>
+      <c r="CH1" s="202" t="n">
+        <v>45375</v>
+      </c>
+      <c r="CI1" s="202" t="n">
+        <v>45376</v>
+      </c>
+      <c r="CJ1" s="202" t="n">
+        <v>45377</v>
+      </c>
+      <c r="CK1" s="202" t="n">
+        <v>45378</v>
+      </c>
+      <c r="CL1" s="202" t="n">
+        <v>45379</v>
+      </c>
+      <c r="CM1" s="202" t="n">
+        <v>45380</v>
+      </c>
+      <c r="CN1" s="202" t="n">
+        <v>45381</v>
+      </c>
+      <c r="CO1" s="202" t="n">
+        <v>45382</v>
+      </c>
+      <c r="CP1" s="202" t="n">
+        <v>45383</v>
+      </c>
+      <c r="CQ1" s="202" t="n">
+        <v>45384</v>
+      </c>
+      <c r="CR1" s="202" t="n">
+        <v>45385</v>
+      </c>
+      <c r="CS1" s="202" t="n">
+        <v>45386</v>
+      </c>
+      <c r="CT1" s="202" t="n">
+        <v>45387</v>
+      </c>
+      <c r="CU1" s="202" t="n">
+        <v>45388</v>
+      </c>
+      <c r="CV1" s="202" t="n">
+        <v>45389</v>
+      </c>
+      <c r="CW1" s="202" t="n">
+        <v>45390</v>
+      </c>
+      <c r="CX1" s="202" t="n">
+        <v>45391</v>
+      </c>
+      <c r="CY1" s="202" t="n">
+        <v>45392</v>
+      </c>
+      <c r="CZ1" s="202" t="n">
+        <v>45393</v>
+      </c>
+      <c r="DA1" s="202" t="n">
+        <v>45394</v>
+      </c>
+      <c r="DB1" s="202" t="n">
+        <v>45395</v>
+      </c>
+      <c r="DC1" s="202" t="n">
+        <v>45396</v>
+      </c>
+      <c r="DD1" s="202" t="n">
+        <v>45397</v>
+      </c>
+      <c r="DE1" s="202" t="n">
+        <v>45398</v>
+      </c>
+      <c r="DF1" s="202" t="n">
+        <v>45399</v>
+      </c>
+      <c r="DG1" s="202" t="n">
+        <v>45400</v>
+      </c>
+      <c r="DH1" s="202" t="n">
+        <v>45401</v>
+      </c>
+      <c r="DI1" s="202" t="n">
+        <v>45402</v>
+      </c>
+      <c r="DJ1" s="202" t="n">
+        <v>45403</v>
+      </c>
+      <c r="DK1" s="202" t="n">
+        <v>45404</v>
+      </c>
+      <c r="DL1" s="202" t="n">
+        <v>45405</v>
+      </c>
+      <c r="DM1" s="202" t="n">
+        <v>45406</v>
+      </c>
+      <c r="DN1" s="202" t="n">
+        <v>45407</v>
+      </c>
+      <c r="DO1" s="202" t="n">
+        <v>45408</v>
+      </c>
+      <c r="DP1" s="202" t="n">
+        <v>45409</v>
+      </c>
+      <c r="DQ1" s="202" t="n">
+        <v>45410</v>
+      </c>
+      <c r="DR1" s="202" t="n">
+        <v>45411</v>
+      </c>
+      <c r="DS1" s="202" t="n">
+        <v>45412</v>
+      </c>
+      <c r="DT1" s="202" t="n">
+        <v>45413</v>
+      </c>
+      <c r="DU1" s="202" t="n">
+        <v>45414</v>
+      </c>
+      <c r="DV1" s="202" t="n">
+        <v>45415</v>
+      </c>
+      <c r="DW1" s="202" t="n">
+        <v>45416</v>
+      </c>
+      <c r="DX1" s="202" t="n">
+        <v>45417</v>
+      </c>
+      <c r="DY1" s="202" t="n">
+        <v>45418</v>
+      </c>
+      <c r="DZ1" s="202" t="n">
+        <v>45419</v>
+      </c>
+      <c r="EA1" s="202" t="n">
+        <v>45420</v>
+      </c>
+      <c r="EB1" s="202" t="n">
+        <v>45421</v>
+      </c>
+      <c r="EC1" s="202" t="n">
+        <v>45422</v>
+      </c>
+      <c r="ED1" s="202" t="n">
+        <v>45423</v>
+      </c>
+      <c r="EE1" s="202" t="n">
+        <v>45424</v>
+      </c>
+      <c r="EF1" s="202" t="n">
+        <v>45425</v>
+      </c>
+      <c r="EG1" s="202" t="n">
+        <v>45426</v>
+      </c>
+      <c r="EH1" s="202" t="n">
+        <v>45427</v>
+      </c>
+      <c r="EI1" s="202" t="n">
+        <v>45428</v>
+      </c>
+      <c r="EJ1" s="202" t="n">
+        <v>45429</v>
+      </c>
+      <c r="EK1" s="202" t="n">
+        <v>45430</v>
+      </c>
+      <c r="EL1" s="202" t="n">
+        <v>45431</v>
+      </c>
+      <c r="EM1" s="202" t="n">
+        <v>45432</v>
+      </c>
+      <c r="EN1" s="202" t="n">
+        <v>45433</v>
+      </c>
+      <c r="EO1" s="202" t="n">
+        <v>45434</v>
+      </c>
+      <c r="EP1" s="202" t="n">
+        <v>45435</v>
+      </c>
+      <c r="EQ1" s="202" t="n">
+        <v>45436</v>
+      </c>
+      <c r="ER1" s="202" t="n">
+        <v>45437</v>
+      </c>
+      <c r="ES1" s="202" t="n">
+        <v>45438</v>
+      </c>
+      <c r="ET1" s="202" t="n">
+        <v>45439</v>
+      </c>
+      <c r="EU1" s="202" t="n">
+        <v>45440</v>
+      </c>
+      <c r="EV1" s="202" t="n">
+        <v>45441</v>
+      </c>
+      <c r="EW1" s="202" t="n">
+        <v>45442</v>
+      </c>
+      <c r="EX1" s="202" t="n">
+        <v>45443</v>
+      </c>
+      <c r="EY1" s="202" t="n">
+        <v>45444</v>
+      </c>
+      <c r="EZ1" s="202" t="n">
+        <v>45445</v>
+      </c>
+      <c r="FA1" s="202" t="n">
+        <v>45446</v>
+      </c>
+      <c r="FB1" s="202" t="n">
+        <v>45447</v>
+      </c>
+      <c r="FC1" s="202" t="n">
+        <v>45448</v>
+      </c>
+      <c r="FD1" s="202" t="n">
+        <v>45449</v>
+      </c>
+      <c r="FE1" s="202" t="n">
+        <v>45450</v>
+      </c>
+      <c r="FF1" s="202" t="n">
+        <v>45451</v>
+      </c>
+      <c r="FG1" s="202" t="n">
+        <v>45452</v>
+      </c>
+      <c r="FH1" s="202" t="n">
+        <v>45453</v>
+      </c>
+      <c r="FI1" s="202" t="n">
+        <v>45454</v>
+      </c>
+      <c r="FJ1" s="202" t="n">
+        <v>45455</v>
+      </c>
+      <c r="FK1" s="202" t="n">
+        <v>45456</v>
+      </c>
+      <c r="FL1" s="202" t="n">
+        <v>45457</v>
+      </c>
+      <c r="FM1" s="202" t="n">
+        <v>45458</v>
+      </c>
+      <c r="FN1" s="202" t="n">
+        <v>45459</v>
+      </c>
+      <c r="FO1" s="202" t="n">
+        <v>45460</v>
+      </c>
+      <c r="FP1" s="202" t="n">
+        <v>45461</v>
+      </c>
+      <c r="FQ1" s="202" t="n">
+        <v>45462</v>
+      </c>
+      <c r="FR1" s="202" t="n">
+        <v>45463</v>
+      </c>
+      <c r="FS1" s="202" t="n">
+        <v>45464</v>
+      </c>
+      <c r="FT1" s="202" t="n">
+        <v>45465</v>
+      </c>
+      <c r="FU1" s="202" t="n">
+        <v>45466</v>
+      </c>
+      <c r="FV1" s="202" t="n">
+        <v>45467</v>
+      </c>
+      <c r="FW1" s="202" t="n">
+        <v>45468</v>
+      </c>
+      <c r="FX1" s="202" t="n">
+        <v>45469</v>
+      </c>
+      <c r="FY1" s="202" t="n">
+        <v>45470</v>
+      </c>
+      <c r="FZ1" s="202" t="n">
+        <v>45471</v>
+      </c>
+      <c r="GA1" s="202" t="n">
+        <v>45472</v>
+      </c>
+      <c r="GB1" s="202" t="n">
+        <v>45473</v>
+      </c>
+      <c r="GC1" s="202" t="n">
+        <v>45474</v>
+      </c>
+      <c r="GD1" s="202" t="n">
+        <v>45475</v>
+      </c>
+      <c r="GE1" s="202" t="n">
+        <v>45476</v>
+      </c>
+      <c r="GF1" s="202" t="n">
+        <v>45477</v>
+      </c>
+      <c r="GG1" s="202" t="n">
+        <v>45478</v>
+      </c>
+      <c r="GH1" s="202" t="n">
+        <v>45479</v>
+      </c>
+      <c r="GI1" s="202" t="n">
+        <v>45480</v>
+      </c>
+      <c r="GJ1" s="202" t="n">
+        <v>45481</v>
+      </c>
+      <c r="GK1" s="202" t="n">
+        <v>45482</v>
+      </c>
+      <c r="GL1" s="202" t="n">
+        <v>45483</v>
+      </c>
+      <c r="GM1" s="202" t="n">
+        <v>45484</v>
+      </c>
+      <c r="GN1" s="202" t="n">
+        <v>45485</v>
+      </c>
+      <c r="GO1" s="202" t="n">
+        <v>45486</v>
+      </c>
+      <c r="GP1" s="202" t="n">
+        <v>45487</v>
+      </c>
+      <c r="GQ1" s="202" t="n">
+        <v>45488</v>
+      </c>
+      <c r="GR1" s="202" t="n">
+        <v>45489</v>
+      </c>
+      <c r="GS1" s="202" t="n">
+        <v>45490</v>
+      </c>
+      <c r="GT1" s="202" t="n">
+        <v>45491</v>
+      </c>
+      <c r="GU1" s="202" t="n">
+        <v>45492</v>
+      </c>
+      <c r="GV1" s="202" t="n">
+        <v>45493</v>
+      </c>
+      <c r="GW1" s="202" t="n">
+        <v>45494</v>
+      </c>
+      <c r="GX1" s="202" t="n">
+        <v>45495</v>
+      </c>
+      <c r="GY1" s="202" t="n">
+        <v>45496</v>
+      </c>
+      <c r="GZ1" s="202" t="n">
+        <v>45497</v>
+      </c>
+      <c r="HA1" s="202" t="n">
+        <v>45498</v>
+      </c>
+      <c r="HB1" s="202" t="n">
+        <v>45499</v>
+      </c>
+      <c r="HC1" s="202" t="n">
+        <v>45500</v>
+      </c>
+      <c r="HD1" s="202" t="n">
+        <v>45501</v>
+      </c>
+      <c r="HE1" s="202" t="n">
+        <v>45502</v>
+      </c>
+      <c r="HF1" s="202" t="n">
+        <v>45503</v>
+      </c>
+      <c r="HG1" s="202" t="n">
+        <v>45504</v>
+      </c>
+      <c r="HH1" s="202" t="n">
+        <v>45505</v>
+      </c>
+      <c r="HI1" s="202" t="n">
+        <v>45506</v>
+      </c>
+      <c r="HJ1" s="202" t="n">
+        <v>45507</v>
+      </c>
+      <c r="HK1" s="202" t="n">
+        <v>45508</v>
+      </c>
+      <c r="HL1" s="202" t="n">
+        <v>45509</v>
+      </c>
+      <c r="HM1" s="202" t="n">
+        <v>45510</v>
+      </c>
+      <c r="HN1" s="202" t="n">
+        <v>45511</v>
+      </c>
+      <c r="HO1" s="202" t="n">
+        <v>45512</v>
+      </c>
+      <c r="HP1" s="202" t="n">
+        <v>45513</v>
+      </c>
+      <c r="HQ1" s="202" t="n">
+        <v>45514</v>
+      </c>
+      <c r="HR1" s="202" t="n">
+        <v>45515</v>
+      </c>
+      <c r="HS1" s="202" t="n">
+        <v>45516</v>
+      </c>
+      <c r="HT1" s="202" t="n">
+        <v>45517</v>
+      </c>
+      <c r="HU1" s="202" t="n">
+        <v>45518</v>
+      </c>
+      <c r="HV1" s="202" t="n">
+        <v>45519</v>
+      </c>
+      <c r="HW1" s="202" t="n">
+        <v>45520</v>
+      </c>
+      <c r="HX1" s="202" t="n">
+        <v>45521</v>
+      </c>
+      <c r="HY1" s="202" t="n">
+        <v>45522</v>
+      </c>
+      <c r="HZ1" s="202" t="n">
+        <v>45523</v>
+      </c>
+      <c r="IA1" s="202" t="n">
+        <v>45524</v>
+      </c>
+      <c r="IB1" s="202" t="n">
+        <v>45525</v>
+      </c>
+      <c r="IC1" s="202" t="n">
+        <v>45526</v>
+      </c>
+      <c r="ID1" s="202" t="n">
+        <v>45527</v>
+      </c>
+      <c r="IE1" s="202" t="n">
+        <v>45528</v>
+      </c>
+      <c r="IF1" s="202" t="n">
+        <v>45529</v>
+      </c>
+      <c r="IG1" s="202" t="n">
+        <v>45530</v>
+      </c>
+      <c r="IH1" s="202" t="n">
+        <v>45531</v>
+      </c>
+      <c r="II1" s="202" t="n">
+        <v>45532</v>
+      </c>
+      <c r="IJ1" s="202" t="n">
+        <v>45533</v>
+      </c>
+      <c r="IK1" s="202" t="n">
+        <v>45534</v>
+      </c>
+      <c r="IL1" s="202" t="n">
+        <v>45535</v>
+      </c>
+      <c r="IM1" s="202" t="n">
+        <v>45536</v>
+      </c>
+      <c r="IN1" s="202" t="n">
+        <v>45537</v>
+      </c>
+      <c r="IO1" s="202" t="n">
+        <v>45538</v>
+      </c>
+      <c r="IP1" s="202" t="n">
+        <v>45539</v>
+      </c>
+      <c r="IQ1" s="202" t="n">
+        <v>45540</v>
+      </c>
+      <c r="IR1" s="202" t="n">
+        <v>45541</v>
+      </c>
+      <c r="IS1" s="202" t="n">
+        <v>45542</v>
+      </c>
+      <c r="IT1" s="202" t="n">
+        <v>45543</v>
+      </c>
+      <c r="IU1" s="202" t="n">
+        <v>45544</v>
+      </c>
+      <c r="IV1" s="202" t="n">
+        <v>45545</v>
+      </c>
+      <c r="IW1" s="202" t="n">
+        <v>45546</v>
+      </c>
+      <c r="IX1" s="202" t="n">
+        <v>45547</v>
+      </c>
+      <c r="IY1" s="202" t="n">
+        <v>45548</v>
+      </c>
+      <c r="IZ1" s="202" t="n">
+        <v>45549</v>
+      </c>
+      <c r="JA1" s="202" t="n">
+        <v>45550</v>
+      </c>
+      <c r="JB1" s="202" t="n">
+        <v>45551</v>
+      </c>
+      <c r="JC1" s="202" t="n">
+        <v>45552</v>
+      </c>
+      <c r="JD1" s="202" t="n">
+        <v>45553</v>
+      </c>
+      <c r="JE1" s="202" t="n">
+        <v>45554</v>
+      </c>
+      <c r="JF1" s="202" t="n">
+        <v>45555</v>
+      </c>
+      <c r="JG1" s="202" t="n">
+        <v>45556</v>
+      </c>
+      <c r="JH1" s="202" t="n">
+        <v>45557</v>
+      </c>
+      <c r="JI1" s="202" t="n">
+        <v>45558</v>
+      </c>
+      <c r="JJ1" s="202" t="n">
+        <v>45559</v>
+      </c>
+      <c r="JK1" s="202" t="n">
+        <v>45560</v>
+      </c>
+      <c r="JL1" s="202" t="n">
+        <v>45561</v>
+      </c>
+      <c r="JM1" s="202" t="n">
+        <v>45562</v>
+      </c>
+      <c r="JN1" s="202" t="n">
+        <v>45563</v>
+      </c>
+      <c r="JO1" s="202" t="n">
+        <v>45564</v>
+      </c>
+      <c r="JP1" s="202" t="n">
+        <v>45565</v>
+      </c>
+      <c r="JQ1" s="202" t="n">
+        <v>45566</v>
+      </c>
+      <c r="JR1" s="202" t="n">
+        <v>45567</v>
+      </c>
+      <c r="JS1" s="202" t="n">
+        <v>45568</v>
+      </c>
+      <c r="JT1" s="202" t="n">
+        <v>45569</v>
+      </c>
+      <c r="JU1" s="202" t="n">
+        <v>45570</v>
+      </c>
+      <c r="JV1" s="202" t="n">
+        <v>45571</v>
+      </c>
+      <c r="JW1" s="202" t="n">
+        <v>45572</v>
+      </c>
+      <c r="JX1" s="202" t="n">
+        <v>45573</v>
+      </c>
+      <c r="JY1" s="202" t="n">
+        <v>45574</v>
+      </c>
+      <c r="JZ1" s="202" t="n">
+        <v>45575</v>
+      </c>
+      <c r="KA1" s="202" t="n">
+        <v>45576</v>
+      </c>
+      <c r="KB1" s="202" t="n">
+        <v>45577</v>
+      </c>
+      <c r="KC1" s="202" t="n">
+        <v>45578</v>
+      </c>
+      <c r="KD1" s="202" t="n">
+        <v>45579</v>
+      </c>
+      <c r="KE1" s="202" t="n">
+        <v>45580</v>
+      </c>
+      <c r="KF1" s="202" t="n">
+        <v>45581</v>
+      </c>
+      <c r="KG1" s="202" t="n">
+        <v>45582</v>
+      </c>
+      <c r="KH1" s="202" t="n">
+        <v>45583</v>
+      </c>
+      <c r="KI1" s="202" t="n">
+        <v>45584</v>
+      </c>
+      <c r="KJ1" s="202" t="n">
+        <v>45585</v>
+      </c>
+      <c r="KK1" s="202" t="n">
+        <v>45586</v>
+      </c>
+      <c r="KL1" s="202" t="n">
+        <v>45587</v>
+      </c>
+      <c r="KM1" s="202" t="n">
+        <v>45588</v>
+      </c>
+      <c r="KN1" s="202" t="n">
+        <v>45589</v>
+      </c>
+      <c r="KO1" s="202" t="n">
+        <v>45590</v>
+      </c>
+      <c r="KP1" s="202" t="n">
+        <v>45591</v>
+      </c>
+      <c r="KQ1" s="202" t="n">
+        <v>45592</v>
+      </c>
+      <c r="KR1" s="202" t="n">
+        <v>45593</v>
+      </c>
+      <c r="KS1" s="202" t="n">
+        <v>45594</v>
+      </c>
+      <c r="KT1" s="202" t="n">
+        <v>45595</v>
+      </c>
+      <c r="KU1" s="202" t="n">
+        <v>45596</v>
+      </c>
+      <c r="KV1" s="202" t="n">
+        <v>45597</v>
+      </c>
+      <c r="KW1" s="202" t="n">
+        <v>45598</v>
+      </c>
+      <c r="KX1" s="202" t="n">
+        <v>45599</v>
+      </c>
+      <c r="KY1" s="202" t="n">
+        <v>45600</v>
+      </c>
+      <c r="KZ1" s="202" t="n">
+        <v>45601</v>
+      </c>
+      <c r="LA1" s="202" t="n">
+        <v>45602</v>
+      </c>
+      <c r="LB1" s="202" t="n">
+        <v>45603</v>
+      </c>
+      <c r="LC1" s="202" t="n">
+        <v>45604</v>
+      </c>
+      <c r="LD1" s="202" t="n">
+        <v>45605</v>
+      </c>
+      <c r="LE1" s="202" t="n">
+        <v>45606</v>
+      </c>
+      <c r="LF1" s="202" t="n">
+        <v>45607</v>
+      </c>
+      <c r="LG1" s="202" t="n">
+        <v>45608</v>
+      </c>
+      <c r="LH1" s="202" t="n">
+        <v>45609</v>
+      </c>
+      <c r="LI1" s="202" t="n">
+        <v>45610</v>
+      </c>
+      <c r="LJ1" s="202" t="n">
+        <v>45611</v>
+      </c>
+      <c r="LK1" s="202" t="n">
+        <v>45612</v>
+      </c>
+      <c r="LL1" s="202" t="n">
+        <v>45613</v>
+      </c>
+      <c r="LM1" s="202" t="n">
+        <v>45614</v>
+      </c>
+      <c r="LN1" s="202" t="n">
+        <v>45615</v>
+      </c>
+      <c r="LO1" s="202" t="n">
+        <v>45616</v>
+      </c>
+      <c r="LP1" s="202" t="n">
+        <v>45617</v>
+      </c>
+      <c r="LQ1" s="202" t="n">
+        <v>45618</v>
+      </c>
+      <c r="LR1" s="202" t="n">
+        <v>45619</v>
+      </c>
+      <c r="LS1" s="202" t="n">
+        <v>45620</v>
+      </c>
+      <c r="LT1" s="202" t="n">
+        <v>45621</v>
+      </c>
+      <c r="LU1" s="202" t="n">
+        <v>45622</v>
+      </c>
+      <c r="LV1" s="202" t="n">
+        <v>45623</v>
+      </c>
+      <c r="LW1" s="202" t="n">
+        <v>45624</v>
+      </c>
+      <c r="LX1" s="202" t="n">
+        <v>45625</v>
+      </c>
+      <c r="LY1" s="202" t="n">
+        <v>45626</v>
+      </c>
+      <c r="LZ1" s="202" t="n">
+        <v>45627</v>
+      </c>
+      <c r="MA1" s="202" t="n">
+        <v>45628</v>
+      </c>
+      <c r="MB1" s="202" t="n">
+        <v>45629</v>
+      </c>
+      <c r="MC1" s="202" t="n">
+        <v>45630</v>
+      </c>
+      <c r="MD1" s="202" t="n">
+        <v>45631</v>
+      </c>
+      <c r="ME1" s="202" t="n">
+        <v>45632</v>
+      </c>
+      <c r="MF1" s="202" t="n">
+        <v>45633</v>
+      </c>
+      <c r="MG1" s="202" t="n">
+        <v>45634</v>
+      </c>
+      <c r="MH1" s="202" t="n">
+        <v>45635</v>
+      </c>
+      <c r="MI1" s="202" t="n">
+        <v>45636</v>
+      </c>
+      <c r="MJ1" s="202" t="n">
+        <v>45637</v>
+      </c>
+      <c r="MK1" s="202" t="n">
+        <v>45638</v>
+      </c>
+      <c r="ML1" s="202" t="n">
+        <v>45639</v>
+      </c>
+      <c r="MM1" s="202" t="n">
+        <v>45640</v>
+      </c>
+      <c r="MN1" s="202" t="n">
+        <v>45641</v>
+      </c>
+      <c r="MO1" s="202" t="n">
+        <v>45642</v>
+      </c>
+      <c r="MP1" s="202" t="n">
+        <v>45643</v>
+      </c>
+      <c r="MQ1" s="202" t="n">
+        <v>45644</v>
+      </c>
+      <c r="MR1" s="202" t="n">
+        <v>45645</v>
+      </c>
+      <c r="MS1" s="202" t="n">
+        <v>45646</v>
+      </c>
+      <c r="MT1" s="202" t="n">
+        <v>45647</v>
+      </c>
+      <c r="MU1" s="202" t="n">
+        <v>45648</v>
+      </c>
+      <c r="MV1" s="202" t="n">
+        <v>45649</v>
+      </c>
+      <c r="MW1" s="202" t="n">
+        <v>45650</v>
+      </c>
+      <c r="MX1" s="202" t="n">
+        <v>45651</v>
+      </c>
+      <c r="MY1" s="202" t="n">
+        <v>45652</v>
+      </c>
+      <c r="MZ1" s="202" t="n">
+        <v>45653</v>
+      </c>
+      <c r="NA1" s="202" t="n">
+        <v>45654</v>
+      </c>
+      <c r="NB1" s="202" t="n">
+        <v>45655</v>
+      </c>
+      <c r="NC1" s="202" t="n">
+        <v>45656</v>
+      </c>
+      <c r="ND1" s="202" t="n">
+        <v>45657</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="110">
@@ -5564,8 +4807,16 @@
       <c r="FZ2" s="108" t="inlineStr"/>
       <c r="GA2" s="108" t="inlineStr"/>
       <c r="GB2" s="108" t="inlineStr"/>
-      <c r="GC2" s="108" t="inlineStr"/>
-      <c r="GD2" s="108" t="inlineStr"/>
+      <c r="GC2" s="108" t="inlineStr">
+        <is>
+          <t>jhkv</t>
+        </is>
+      </c>
+      <c r="GD2" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE2" s="108" t="inlineStr"/>
       <c r="GF2" s="108" t="inlineStr"/>
       <c r="GG2" s="108" t="inlineStr"/>
@@ -6099,11 +5350,7 @@
       <c r="FO3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="FP3" s="108" t="inlineStr">
-        <is>
-          <t>kjgh</t>
-        </is>
-      </c>
+      <c r="FP3" s="108" t="inlineStr"/>
       <c r="FQ3" s="108" t="inlineStr"/>
       <c r="FR3" s="108" t="inlineStr"/>
       <c r="FS3" s="108" t="inlineStr"/>
@@ -6116,8 +5363,16 @@
       <c r="FZ3" s="108" t="inlineStr"/>
       <c r="GA3" s="108" t="inlineStr"/>
       <c r="GB3" s="108" t="inlineStr"/>
-      <c r="GC3" s="108" t="inlineStr"/>
-      <c r="GD3" s="108" t="inlineStr"/>
+      <c r="GC3" s="108" t="inlineStr">
+        <is>
+          <t>vgy</t>
+        </is>
+      </c>
+      <c r="GD3" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE3" s="108" t="inlineStr"/>
       <c r="GF3" s="108" t="inlineStr"/>
       <c r="GG3" s="108" t="inlineStr"/>
@@ -6647,11 +5902,7 @@
       <c r="FO4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="FP4" s="108" t="inlineStr">
-        <is>
-          <t>hjf</t>
-        </is>
-      </c>
+      <c r="FP4" s="108" t="inlineStr"/>
       <c r="FQ4" s="108" t="inlineStr"/>
       <c r="FR4" s="108" t="inlineStr"/>
       <c r="FS4" s="108" t="inlineStr"/>
@@ -6664,8 +5915,16 @@
       <c r="FZ4" s="108" t="inlineStr"/>
       <c r="GA4" s="108" t="inlineStr"/>
       <c r="GB4" s="108" t="inlineStr"/>
-      <c r="GC4" s="108" t="inlineStr"/>
-      <c r="GD4" s="108" t="inlineStr"/>
+      <c r="GC4" s="108" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="GD4" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE4" s="108" t="inlineStr"/>
       <c r="GF4" s="108" t="inlineStr"/>
       <c r="GG4" s="108" t="inlineStr"/>
@@ -7181,11 +6440,7 @@
       <c r="FO5" s="204" t="n">
         <v>4.03</v>
       </c>
-      <c r="FP5" s="108" t="inlineStr">
-        <is>
-          <t>hjgf</t>
-        </is>
-      </c>
+      <c r="FP5" s="108" t="inlineStr"/>
       <c r="FQ5" s="108" t="inlineStr"/>
       <c r="FR5" s="108" t="inlineStr"/>
       <c r="FS5" s="108" t="inlineStr"/>
@@ -7198,8 +6453,16 @@
       <c r="FZ5" s="108" t="inlineStr"/>
       <c r="GA5" s="108" t="inlineStr"/>
       <c r="GB5" s="108" t="inlineStr"/>
-      <c r="GC5" s="108" t="inlineStr"/>
-      <c r="GD5" s="108" t="inlineStr"/>
+      <c r="GC5" s="108" t="inlineStr">
+        <is>
+          <t>uygvy</t>
+        </is>
+      </c>
+      <c r="GD5" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE5" s="108" t="inlineStr"/>
       <c r="GF5" s="108" t="inlineStr"/>
       <c r="GG5" s="108" t="inlineStr"/>
@@ -7709,11 +6972,7 @@
       <c r="FO6" s="204" t="n">
         <v>3.1</v>
       </c>
-      <c r="FP6" s="108" t="inlineStr">
-        <is>
-          <t>hgjf</t>
-        </is>
-      </c>
+      <c r="FP6" s="108" t="inlineStr"/>
       <c r="FQ6" s="108" t="inlineStr"/>
       <c r="FR6" s="108" t="inlineStr"/>
       <c r="FS6" s="108" t="inlineStr"/>
@@ -7726,8 +6985,16 @@
       <c r="FZ6" s="108" t="inlineStr"/>
       <c r="GA6" s="108" t="inlineStr"/>
       <c r="GB6" s="108" t="inlineStr"/>
-      <c r="GC6" s="108" t="inlineStr"/>
-      <c r="GD6" s="108" t="inlineStr"/>
+      <c r="GC6" s="108" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="GD6" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE6" s="108" t="inlineStr"/>
       <c r="GF6" s="108" t="inlineStr"/>
       <c r="GG6" s="108" t="inlineStr"/>
@@ -8255,11 +7522,7 @@
       <c r="FO7" s="206" t="n">
         <v>1</v>
       </c>
-      <c r="FP7" s="108" t="inlineStr">
-        <is>
-          <t>hjgf</t>
-        </is>
-      </c>
+      <c r="FP7" s="108" t="inlineStr"/>
       <c r="FQ7" s="108" t="inlineStr"/>
       <c r="FR7" s="108" t="inlineStr"/>
       <c r="FS7" s="108" t="inlineStr"/>
@@ -8272,7 +7535,11 @@
       <c r="FZ7" s="108" t="inlineStr"/>
       <c r="GA7" s="108" t="inlineStr"/>
       <c r="GB7" s="108" t="inlineStr"/>
-      <c r="GC7" s="108" t="inlineStr"/>
+      <c r="GC7" s="108" t="inlineStr">
+        <is>
+          <t>bii</t>
+        </is>
+      </c>
       <c r="GD7" s="108" t="inlineStr"/>
       <c r="GE7" s="108" t="inlineStr"/>
       <c r="GF7" s="108" t="inlineStr"/>
@@ -8813,11 +8080,7 @@
       <c r="FO8" s="206" t="n">
         <v>1</v>
       </c>
-      <c r="FP8" s="108" t="inlineStr">
-        <is>
-          <t>fghjk</t>
-        </is>
-      </c>
+      <c r="FP8" s="108" t="inlineStr"/>
       <c r="FQ8" s="108" t="inlineStr"/>
       <c r="FR8" s="108" t="inlineStr"/>
       <c r="FS8" s="108" t="inlineStr"/>
@@ -8830,8 +8093,16 @@
       <c r="FZ8" s="108" t="inlineStr"/>
       <c r="GA8" s="108" t="inlineStr"/>
       <c r="GB8" s="108" t="inlineStr"/>
-      <c r="GC8" s="108" t="inlineStr"/>
-      <c r="GD8" s="108" t="inlineStr"/>
+      <c r="GC8" s="108" t="inlineStr">
+        <is>
+          <t>ubdiuj</t>
+        </is>
+      </c>
+      <c r="GD8" s="108" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
       <c r="GE8" s="108" t="inlineStr"/>
       <c r="GF8" s="108" t="inlineStr"/>
       <c r="GG8" s="108" t="inlineStr"/>
@@ -9255,11 +8526,7 @@
       <c r="FO9" s="206" t="n">
         <v>0</v>
       </c>
-      <c r="FP9" s="108" t="inlineStr">
-        <is>
-          <t>ghjfk</t>
-        </is>
-      </c>
+      <c r="FP9" s="108" t="inlineStr"/>
       <c r="FQ9" s="108" t="inlineStr"/>
       <c r="FR9" s="108" t="inlineStr"/>
       <c r="FS9" s="108" t="inlineStr"/>
@@ -9272,8 +8539,16 @@
       <c r="FZ9" s="108" t="inlineStr"/>
       <c r="GA9" s="108" t="inlineStr"/>
       <c r="GB9" s="108" t="inlineStr"/>
-      <c r="GC9" s="108" t="inlineStr"/>
-      <c r="GD9" s="108" t="inlineStr"/>
+      <c r="GC9" s="108" t="inlineStr">
+        <is>
+          <t>dnii</t>
+        </is>
+      </c>
+      <c r="GD9" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE9" s="108" t="inlineStr"/>
       <c r="GF9" s="108" t="inlineStr"/>
       <c r="GG9" s="108" t="inlineStr"/>
@@ -9679,11 +8954,7 @@
       <c r="FM10" s="207" t="inlineStr"/>
       <c r="FN10" s="207" t="inlineStr"/>
       <c r="FO10" s="207" t="inlineStr"/>
-      <c r="FP10" s="207" t="inlineStr">
-        <is>
-          <t>fgkhj</t>
-        </is>
-      </c>
+      <c r="FP10" s="207" t="inlineStr"/>
       <c r="FQ10" s="207" t="inlineStr"/>
       <c r="FR10" s="207" t="inlineStr"/>
       <c r="FS10" s="207" t="inlineStr"/>
@@ -9696,8 +8967,16 @@
       <c r="FZ10" s="207" t="inlineStr"/>
       <c r="GA10" s="207" t="inlineStr"/>
       <c r="GB10" s="207" t="inlineStr"/>
-      <c r="GC10" s="207" t="inlineStr"/>
-      <c r="GD10" s="207" t="inlineStr"/>
+      <c r="GC10" s="207" t="inlineStr">
+        <is>
+          <t>udj</t>
+        </is>
+      </c>
+      <c r="GD10" s="207" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE10" s="207" t="inlineStr"/>
       <c r="GF10" s="207" t="inlineStr"/>
       <c r="GG10" s="207" t="inlineStr"/>
@@ -10199,11 +9478,7 @@
       <c r="FO11" s="207" t="n">
         <v>1</v>
       </c>
-      <c r="FP11" s="207" t="inlineStr">
-        <is>
-          <t>kyjhg</t>
-        </is>
-      </c>
+      <c r="FP11" s="207" t="inlineStr"/>
       <c r="FQ11" s="207" t="inlineStr"/>
       <c r="FR11" s="207" t="inlineStr"/>
       <c r="FS11" s="207" t="inlineStr"/>
@@ -10216,8 +9491,16 @@
       <c r="FZ11" s="207" t="inlineStr"/>
       <c r="GA11" s="207" t="inlineStr"/>
       <c r="GB11" s="207" t="inlineStr"/>
-      <c r="GC11" s="207" t="inlineStr"/>
-      <c r="GD11" s="207" t="inlineStr"/>
+      <c r="GC11" s="207" t="inlineStr">
+        <is>
+          <t>niu</t>
+        </is>
+      </c>
+      <c r="GD11" s="207" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE11" s="207" t="inlineStr"/>
       <c r="GF11" s="207" t="inlineStr"/>
       <c r="GG11" s="207" t="inlineStr"/>
@@ -10735,11 +10018,7 @@
       <c r="FO12" s="206" t="n">
         <v>4</v>
       </c>
-      <c r="FP12" s="206" t="inlineStr">
-        <is>
-          <t>jkyhg</t>
-        </is>
-      </c>
+      <c r="FP12" s="206" t="inlineStr"/>
       <c r="FQ12" s="206" t="inlineStr"/>
       <c r="FR12" s="206" t="inlineStr"/>
       <c r="FS12" s="206" t="inlineStr"/>
@@ -10752,8 +10031,16 @@
       <c r="FZ12" s="206" t="inlineStr"/>
       <c r="GA12" s="206" t="inlineStr"/>
       <c r="GB12" s="206" t="inlineStr"/>
-      <c r="GC12" s="206" t="inlineStr"/>
-      <c r="GD12" s="206" t="inlineStr"/>
+      <c r="GC12" s="206" t="inlineStr">
+        <is>
+          <t>unod</t>
+        </is>
+      </c>
+      <c r="GD12" s="206" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE12" s="206" t="inlineStr"/>
       <c r="GF12" s="206" t="inlineStr"/>
       <c r="GG12" s="206" t="inlineStr"/>
@@ -11247,7 +10534,7 @@
       </c>
       <c r="FP13" s="207" t="inlineStr">
         <is>
-          <t>jfk</t>
+          <t>d</t>
         </is>
       </c>
       <c r="FQ13" s="207" t="inlineStr"/>
@@ -11262,8 +10549,16 @@
       <c r="FZ13" s="207" t="inlineStr"/>
       <c r="GA13" s="207" t="inlineStr"/>
       <c r="GB13" s="207" t="inlineStr"/>
-      <c r="GC13" s="207" t="inlineStr"/>
-      <c r="GD13" s="207" t="inlineStr"/>
+      <c r="GC13" s="207" t="inlineStr">
+        <is>
+          <t>iun</t>
+        </is>
+      </c>
+      <c r="GD13" s="207" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE13" s="207" t="inlineStr"/>
       <c r="GF13" s="207" t="inlineStr"/>
       <c r="GG13" s="207" t="inlineStr"/>
@@ -11685,11 +10980,7 @@
       <c r="FO14" s="206" t="n">
         <v>0</v>
       </c>
-      <c r="FP14" s="108" t="inlineStr">
-        <is>
-          <t>fhgkj</t>
-        </is>
-      </c>
+      <c r="FP14" s="108" t="inlineStr"/>
       <c r="FQ14" s="108" t="inlineStr"/>
       <c r="FR14" s="108" t="inlineStr"/>
       <c r="FS14" s="108" t="inlineStr"/>
@@ -11702,8 +10993,16 @@
       <c r="FZ14" s="108" t="inlineStr"/>
       <c r="GA14" s="108" t="inlineStr"/>
       <c r="GB14" s="108" t="inlineStr"/>
-      <c r="GC14" s="108" t="inlineStr"/>
-      <c r="GD14" s="108" t="inlineStr"/>
+      <c r="GC14" s="108" t="inlineStr">
+        <is>
+          <t>duind</t>
+        </is>
+      </c>
+      <c r="GD14" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE14" s="108" t="inlineStr"/>
       <c r="GF14" s="108" t="inlineStr"/>
       <c r="GG14" s="108" t="inlineStr"/>
@@ -12239,11 +11538,7 @@
       <c r="FO15" s="207" t="n">
         <v>0.99</v>
       </c>
-      <c r="FP15" s="207" t="inlineStr">
-        <is>
-          <t>fghjc</t>
-        </is>
-      </c>
+      <c r="FP15" s="207" t="inlineStr"/>
       <c r="FQ15" s="207" t="inlineStr"/>
       <c r="FR15" s="207" t="inlineStr"/>
       <c r="FS15" s="207" t="inlineStr"/>
@@ -12256,8 +11551,16 @@
       <c r="FZ15" s="207" t="inlineStr"/>
       <c r="GA15" s="207" t="inlineStr"/>
       <c r="GB15" s="207" t="inlineStr"/>
-      <c r="GC15" s="207" t="inlineStr"/>
-      <c r="GD15" s="207" t="inlineStr"/>
+      <c r="GC15" s="207" t="inlineStr">
+        <is>
+          <t>iunm</t>
+        </is>
+      </c>
+      <c r="GD15" s="207" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE15" s="207" t="inlineStr"/>
       <c r="GF15" s="207" t="inlineStr"/>
       <c r="GG15" s="207" t="inlineStr"/>
@@ -12681,11 +11984,7 @@
       <c r="FO16" s="215" t="n">
         <v>1735.5</v>
       </c>
-      <c r="FP16" s="108" t="inlineStr">
-        <is>
-          <t>jghfv</t>
-        </is>
-      </c>
+      <c r="FP16" s="108" t="inlineStr"/>
       <c r="FQ16" s="108" t="inlineStr"/>
       <c r="FR16" s="108" t="inlineStr"/>
       <c r="FS16" s="108" t="inlineStr"/>
@@ -12698,8 +11997,16 @@
       <c r="FZ16" s="108" t="inlineStr"/>
       <c r="GA16" s="108" t="inlineStr"/>
       <c r="GB16" s="108" t="inlineStr"/>
-      <c r="GC16" s="108" t="inlineStr"/>
-      <c r="GD16" s="108" t="inlineStr"/>
+      <c r="GC16" s="108" t="inlineStr">
+        <is>
+          <t>diu</t>
+        </is>
+      </c>
+      <c r="GD16" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE16" s="108" t="inlineStr"/>
       <c r="GF16" s="108" t="inlineStr"/>
       <c r="GG16" s="108" t="inlineStr"/>
@@ -13229,11 +12536,7 @@
       <c r="FO17" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="FP17" s="108" t="inlineStr">
-        <is>
-          <t>fhgj</t>
-        </is>
-      </c>
+      <c r="FP17" s="108" t="inlineStr"/>
       <c r="FQ17" s="108" t="inlineStr"/>
       <c r="FR17" s="108" t="inlineStr"/>
       <c r="FS17" s="108" t="inlineStr"/>
@@ -13246,8 +12549,16 @@
       <c r="FZ17" s="108" t="inlineStr"/>
       <c r="GA17" s="108" t="inlineStr"/>
       <c r="GB17" s="108" t="inlineStr"/>
-      <c r="GC17" s="108" t="inlineStr"/>
-      <c r="GD17" s="108" t="inlineStr"/>
+      <c r="GC17" s="108" t="inlineStr">
+        <is>
+          <t>dmuiiy</t>
+        </is>
+      </c>
+      <c r="GD17" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE17" s="108" t="inlineStr"/>
       <c r="GF17" s="108" t="inlineStr"/>
       <c r="GG17" s="108" t="inlineStr"/>
@@ -13777,11 +13088,7 @@
       <c r="FO18" s="108" t="n">
         <v>5</v>
       </c>
-      <c r="FP18" s="108" t="inlineStr">
-        <is>
-          <t>hfjkh</t>
-        </is>
-      </c>
+      <c r="FP18" s="108" t="inlineStr"/>
       <c r="FQ18" s="108" t="inlineStr"/>
       <c r="FR18" s="108" t="inlineStr"/>
       <c r="FS18" s="108" t="inlineStr"/>
@@ -13794,8 +13101,16 @@
       <c r="FZ18" s="108" t="inlineStr"/>
       <c r="GA18" s="108" t="inlineStr"/>
       <c r="GB18" s="108" t="inlineStr"/>
-      <c r="GC18" s="108" t="inlineStr"/>
-      <c r="GD18" s="108" t="inlineStr"/>
+      <c r="GC18" s="108" t="inlineStr">
+        <is>
+          <t>yb</t>
+        </is>
+      </c>
+      <c r="GD18" s="108" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="GE18" s="108" t="inlineStr"/>
       <c r="GF18" s="108" t="inlineStr"/>
       <c r="GG18" s="108" t="inlineStr"/>
@@ -13980,3374 +13295,60 @@
       <c r="ND18" s="108" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="110">
-      <c r="A19" s="108" t="inlineStr"/>
       <c r="B19" s="108" t="inlineStr">
         <is>
           <t>Aging jobs</t>
         </is>
       </c>
-      <c r="C19" s="108" t="inlineStr"/>
-      <c r="D19" s="108" t="inlineStr"/>
-      <c r="E19" s="108" t="inlineStr"/>
-      <c r="F19" s="108" t="inlineStr"/>
-      <c r="G19" s="108" t="inlineStr"/>
-      <c r="H19" s="108" t="inlineStr"/>
-      <c r="I19" s="108" t="inlineStr"/>
-      <c r="J19" s="108" t="inlineStr"/>
-      <c r="K19" s="108" t="inlineStr"/>
-      <c r="L19" s="108" t="inlineStr"/>
-      <c r="M19" s="108" t="inlineStr"/>
-      <c r="N19" s="108" t="inlineStr"/>
-      <c r="O19" s="108" t="inlineStr"/>
-      <c r="P19" s="108" t="inlineStr"/>
-      <c r="Q19" s="108" t="inlineStr"/>
-      <c r="R19" s="108" t="inlineStr"/>
-      <c r="S19" s="108" t="inlineStr"/>
-      <c r="T19" s="108" t="inlineStr"/>
-      <c r="U19" s="108" t="inlineStr"/>
-      <c r="V19" s="108" t="inlineStr"/>
-      <c r="W19" s="108" t="inlineStr"/>
-      <c r="X19" s="108" t="inlineStr"/>
-      <c r="Y19" s="108" t="inlineStr"/>
-      <c r="Z19" s="108" t="inlineStr"/>
-      <c r="AA19" s="108" t="inlineStr"/>
-      <c r="AB19" s="108" t="inlineStr"/>
-      <c r="AC19" s="108" t="inlineStr"/>
-      <c r="AD19" s="108" t="inlineStr"/>
-      <c r="AE19" s="108" t="inlineStr"/>
-      <c r="AF19" s="108" t="inlineStr"/>
-      <c r="AG19" s="108" t="inlineStr"/>
-      <c r="AH19" s="108" t="inlineStr"/>
-      <c r="AI19" s="108" t="inlineStr"/>
-      <c r="AJ19" s="108" t="inlineStr"/>
-      <c r="AK19" s="108" t="inlineStr"/>
-      <c r="AL19" s="108" t="inlineStr"/>
-      <c r="AM19" s="108" t="inlineStr"/>
-      <c r="AN19" s="108" t="inlineStr"/>
-      <c r="AO19" s="108" t="inlineStr"/>
-      <c r="AP19" s="108" t="inlineStr"/>
-      <c r="AQ19" s="108" t="inlineStr"/>
-      <c r="AR19" s="108" t="inlineStr"/>
-      <c r="AS19" s="108" t="inlineStr"/>
-      <c r="AT19" s="108" t="inlineStr"/>
-      <c r="AU19" s="108" t="inlineStr"/>
-      <c r="AV19" s="108" t="inlineStr"/>
-      <c r="AW19" s="108" t="inlineStr"/>
-      <c r="AX19" s="108" t="inlineStr"/>
-      <c r="AY19" s="108" t="inlineStr"/>
-      <c r="AZ19" s="108" t="inlineStr"/>
-      <c r="BA19" s="108" t="inlineStr"/>
-      <c r="BB19" s="108" t="inlineStr"/>
-      <c r="BC19" s="108" t="inlineStr"/>
-      <c r="BD19" s="108" t="inlineStr"/>
-      <c r="BE19" s="108" t="inlineStr"/>
-      <c r="BF19" s="108" t="inlineStr"/>
-      <c r="BG19" s="108" t="inlineStr"/>
-      <c r="BH19" s="108" t="inlineStr"/>
-      <c r="BI19" s="108" t="inlineStr"/>
-      <c r="BJ19" s="108" t="inlineStr"/>
-      <c r="BK19" s="108" t="inlineStr"/>
-      <c r="BL19" s="108" t="inlineStr"/>
-      <c r="BM19" s="108" t="inlineStr"/>
-      <c r="BN19" s="108" t="inlineStr"/>
-      <c r="BO19" s="108" t="inlineStr"/>
-      <c r="BP19" s="108" t="inlineStr"/>
-      <c r="BQ19" s="108" t="inlineStr"/>
-      <c r="BR19" s="108" t="inlineStr"/>
-      <c r="BS19" s="108" t="inlineStr"/>
-      <c r="BT19" s="108" t="inlineStr"/>
-      <c r="BU19" s="108" t="inlineStr"/>
-      <c r="BV19" s="108" t="inlineStr"/>
-      <c r="BW19" s="108" t="inlineStr"/>
-      <c r="BX19" s="108" t="inlineStr"/>
-      <c r="BY19" s="108" t="inlineStr"/>
-      <c r="BZ19" s="108" t="inlineStr"/>
-      <c r="CA19" s="108" t="inlineStr"/>
-      <c r="CB19" s="108" t="inlineStr"/>
-      <c r="CC19" s="108" t="inlineStr"/>
-      <c r="CD19" s="108" t="inlineStr"/>
-      <c r="CE19" s="108" t="inlineStr"/>
-      <c r="CF19" s="108" t="inlineStr"/>
-      <c r="CG19" s="108" t="inlineStr"/>
-      <c r="CH19" s="108" t="inlineStr"/>
-      <c r="CI19" s="108" t="inlineStr"/>
-      <c r="CJ19" s="108" t="inlineStr"/>
-      <c r="CK19" s="108" t="inlineStr"/>
-      <c r="CL19" s="108" t="inlineStr"/>
-      <c r="CM19" s="108" t="inlineStr"/>
-      <c r="CN19" s="108" t="inlineStr"/>
-      <c r="CO19" s="108" t="inlineStr"/>
-      <c r="CP19" s="108" t="inlineStr"/>
-      <c r="CQ19" s="108" t="inlineStr"/>
-      <c r="CR19" s="108" t="inlineStr"/>
-      <c r="CS19" s="108" t="inlineStr"/>
-      <c r="CT19" s="108" t="inlineStr"/>
-      <c r="CU19" s="108" t="inlineStr"/>
-      <c r="CV19" s="108" t="inlineStr"/>
-      <c r="CW19" s="108" t="inlineStr"/>
-      <c r="CX19" s="108" t="inlineStr"/>
-      <c r="CY19" s="108" t="inlineStr"/>
-      <c r="CZ19" s="108" t="inlineStr"/>
-      <c r="DA19" s="108" t="inlineStr"/>
-      <c r="DB19" s="108" t="inlineStr"/>
-      <c r="DC19" s="108" t="inlineStr"/>
-      <c r="DD19" s="108" t="inlineStr"/>
-      <c r="DE19" s="108" t="inlineStr"/>
-      <c r="DF19" s="108" t="inlineStr"/>
-      <c r="DG19" s="108" t="inlineStr"/>
-      <c r="DH19" s="108" t="inlineStr"/>
-      <c r="DI19" s="108" t="inlineStr"/>
-      <c r="DJ19" s="108" t="inlineStr"/>
-      <c r="DK19" s="108" t="inlineStr"/>
-      <c r="DL19" s="108" t="inlineStr"/>
-      <c r="DM19" s="108" t="inlineStr"/>
-      <c r="DN19" s="108" t="inlineStr"/>
-      <c r="DO19" s="108" t="inlineStr"/>
-      <c r="DP19" s="108" t="inlineStr"/>
-      <c r="DQ19" s="108" t="inlineStr"/>
-      <c r="DR19" s="108" t="inlineStr"/>
-      <c r="DS19" s="108" t="inlineStr"/>
-      <c r="DT19" s="108" t="inlineStr"/>
-      <c r="DU19" s="108" t="inlineStr"/>
-      <c r="DV19" s="108" t="inlineStr"/>
-      <c r="DW19" s="108" t="inlineStr"/>
-      <c r="DX19" s="108" t="inlineStr"/>
-      <c r="DY19" s="108" t="inlineStr"/>
-      <c r="DZ19" s="108" t="inlineStr"/>
-      <c r="EA19" s="108" t="inlineStr"/>
-      <c r="EB19" s="108" t="inlineStr"/>
-      <c r="EC19" s="108" t="inlineStr"/>
-      <c r="ED19" s="108" t="inlineStr"/>
-      <c r="EE19" s="108" t="inlineStr"/>
-      <c r="EF19" s="108" t="inlineStr"/>
-      <c r="EG19" s="108" t="inlineStr"/>
-      <c r="EH19" s="108" t="inlineStr"/>
-      <c r="EI19" s="108" t="inlineStr"/>
-      <c r="EJ19" s="108" t="inlineStr"/>
-      <c r="EK19" s="108" t="inlineStr"/>
-      <c r="EL19" s="108" t="inlineStr"/>
-      <c r="EM19" s="108" t="inlineStr"/>
-      <c r="EN19" s="108" t="inlineStr"/>
-      <c r="EO19" s="108" t="inlineStr"/>
-      <c r="EP19" s="108" t="inlineStr"/>
-      <c r="EQ19" s="108" t="inlineStr"/>
-      <c r="ER19" s="108" t="inlineStr"/>
-      <c r="ES19" s="108" t="inlineStr"/>
-      <c r="ET19" s="108" t="inlineStr"/>
-      <c r="EU19" s="108" t="inlineStr"/>
-      <c r="EV19" s="108" t="inlineStr"/>
-      <c r="EW19" s="108" t="inlineStr"/>
-      <c r="EX19" s="108" t="inlineStr"/>
-      <c r="EY19" s="108" t="inlineStr"/>
-      <c r="EZ19" s="108" t="inlineStr"/>
-      <c r="FA19" s="108" t="inlineStr"/>
-      <c r="FB19" s="108" t="inlineStr"/>
-      <c r="FC19" s="108" t="inlineStr"/>
-      <c r="FD19" s="108" t="inlineStr"/>
-      <c r="FE19" s="108" t="inlineStr"/>
-      <c r="FF19" s="108" t="inlineStr"/>
-      <c r="FG19" s="108" t="inlineStr"/>
-      <c r="FH19" s="108" t="inlineStr"/>
-      <c r="FI19" s="108" t="inlineStr"/>
-      <c r="FJ19" s="108" t="inlineStr"/>
-      <c r="FK19" s="108" t="inlineStr"/>
-      <c r="FL19" s="108" t="inlineStr"/>
-      <c r="FM19" s="108" t="inlineStr"/>
-      <c r="FN19" s="108" t="inlineStr"/>
-      <c r="FO19" s="108" t="inlineStr"/>
-      <c r="FP19" s="108" t="inlineStr">
-        <is>
-          <t>fjkhf</t>
-        </is>
-      </c>
-      <c r="FQ19" s="108" t="inlineStr"/>
-      <c r="FR19" s="108" t="inlineStr"/>
-      <c r="FS19" s="108" t="inlineStr"/>
-      <c r="FT19" s="108" t="inlineStr"/>
-      <c r="FU19" s="108" t="inlineStr"/>
-      <c r="FV19" s="108" t="inlineStr"/>
-      <c r="FW19" s="108" t="inlineStr"/>
-      <c r="FX19" s="108" t="inlineStr"/>
-      <c r="FY19" s="108" t="inlineStr"/>
-      <c r="FZ19" s="108" t="inlineStr"/>
-      <c r="GA19" s="108" t="inlineStr"/>
-      <c r="GB19" s="108" t="inlineStr"/>
-      <c r="GC19" s="108" t="inlineStr"/>
-      <c r="GD19" s="108" t="inlineStr"/>
-      <c r="GE19" s="108" t="inlineStr"/>
-      <c r="GF19" s="108" t="inlineStr"/>
-      <c r="GG19" s="108" t="inlineStr"/>
-      <c r="GH19" s="108" t="inlineStr"/>
-      <c r="GI19" s="108" t="inlineStr"/>
-      <c r="GJ19" s="108" t="inlineStr"/>
-      <c r="GK19" s="108" t="inlineStr"/>
-      <c r="GL19" s="108" t="inlineStr"/>
-      <c r="GM19" s="108" t="inlineStr"/>
-      <c r="GN19" s="108" t="inlineStr"/>
-      <c r="GO19" s="108" t="inlineStr"/>
-      <c r="GP19" s="108" t="inlineStr"/>
-      <c r="GQ19" s="108" t="inlineStr"/>
-      <c r="GR19" s="108" t="inlineStr"/>
-      <c r="GS19" s="108" t="inlineStr"/>
-      <c r="GT19" s="108" t="inlineStr"/>
-      <c r="GU19" s="108" t="inlineStr"/>
-      <c r="GV19" s="108" t="inlineStr"/>
-      <c r="GW19" s="108" t="inlineStr"/>
-      <c r="GX19" s="108" t="inlineStr"/>
-      <c r="GY19" s="108" t="inlineStr"/>
-      <c r="GZ19" s="108" t="inlineStr"/>
-      <c r="HA19" s="108" t="inlineStr"/>
-      <c r="HB19" s="108" t="inlineStr"/>
-      <c r="HC19" s="108" t="inlineStr"/>
-      <c r="HD19" s="108" t="inlineStr"/>
-      <c r="HE19" s="108" t="inlineStr"/>
-      <c r="HF19" s="108" t="inlineStr"/>
-      <c r="HG19" s="108" t="inlineStr"/>
-      <c r="HH19" s="108" t="inlineStr"/>
-      <c r="HI19" s="108" t="inlineStr"/>
-      <c r="HJ19" s="108" t="inlineStr"/>
-      <c r="HK19" s="108" t="inlineStr"/>
-      <c r="HL19" s="108" t="inlineStr"/>
-      <c r="HM19" s="108" t="inlineStr"/>
-      <c r="HN19" s="108" t="inlineStr"/>
-      <c r="HO19" s="108" t="inlineStr"/>
-      <c r="HP19" s="108" t="inlineStr"/>
-      <c r="HQ19" s="108" t="inlineStr"/>
-      <c r="HR19" s="108" t="inlineStr"/>
-      <c r="HS19" s="108" t="inlineStr"/>
-      <c r="HT19" s="108" t="inlineStr"/>
-      <c r="HU19" s="108" t="inlineStr"/>
-      <c r="HV19" s="108" t="inlineStr"/>
-      <c r="HW19" s="108" t="inlineStr"/>
-      <c r="HX19" s="108" t="inlineStr"/>
-      <c r="HY19" s="108" t="inlineStr"/>
-      <c r="HZ19" s="108" t="inlineStr"/>
-      <c r="IA19" s="108" t="inlineStr"/>
-      <c r="IB19" s="108" t="inlineStr"/>
-      <c r="IC19" s="108" t="inlineStr"/>
-      <c r="ID19" s="108" t="inlineStr"/>
-      <c r="IE19" s="108" t="inlineStr"/>
-      <c r="IF19" s="108" t="inlineStr"/>
-      <c r="IG19" s="108" t="inlineStr"/>
-      <c r="IH19" s="108" t="inlineStr"/>
-      <c r="II19" s="108" t="inlineStr"/>
-      <c r="IJ19" s="108" t="inlineStr"/>
-      <c r="IK19" s="108" t="inlineStr"/>
-      <c r="IL19" s="108" t="inlineStr"/>
-      <c r="IM19" s="108" t="inlineStr"/>
-      <c r="IN19" s="108" t="inlineStr"/>
-      <c r="IO19" s="108" t="inlineStr"/>
-      <c r="IP19" s="108" t="inlineStr"/>
-      <c r="IQ19" s="108" t="inlineStr"/>
-      <c r="IR19" s="108" t="inlineStr"/>
-      <c r="IS19" s="108" t="inlineStr"/>
-      <c r="IT19" s="108" t="inlineStr"/>
-      <c r="IU19" s="108" t="inlineStr"/>
-      <c r="IV19" s="108" t="inlineStr"/>
-      <c r="IW19" s="108" t="inlineStr"/>
-      <c r="IX19" s="108" t="inlineStr"/>
-      <c r="IY19" s="108" t="inlineStr"/>
-      <c r="IZ19" s="108" t="inlineStr"/>
-      <c r="JA19" s="108" t="inlineStr"/>
-      <c r="JB19" s="108" t="inlineStr"/>
-      <c r="JC19" s="108" t="inlineStr"/>
-      <c r="JD19" s="108" t="inlineStr"/>
-      <c r="JE19" s="108" t="inlineStr"/>
-      <c r="JF19" s="108" t="inlineStr"/>
-      <c r="JG19" s="108" t="inlineStr"/>
-      <c r="JH19" s="108" t="inlineStr"/>
-      <c r="JI19" s="108" t="inlineStr"/>
-      <c r="JJ19" s="108" t="inlineStr"/>
-      <c r="JK19" s="108" t="inlineStr"/>
-      <c r="JL19" s="108" t="inlineStr"/>
-      <c r="JM19" s="108" t="inlineStr"/>
-      <c r="JN19" s="108" t="inlineStr"/>
-      <c r="JO19" s="108" t="inlineStr"/>
-      <c r="JP19" s="108" t="inlineStr"/>
-      <c r="JQ19" s="108" t="inlineStr"/>
-      <c r="JR19" s="108" t="inlineStr"/>
-      <c r="JS19" s="108" t="inlineStr"/>
-      <c r="JT19" s="108" t="inlineStr"/>
-      <c r="JU19" s="108" t="inlineStr"/>
-      <c r="JV19" s="108" t="inlineStr"/>
-      <c r="JW19" s="108" t="inlineStr"/>
-      <c r="JX19" s="108" t="inlineStr"/>
-      <c r="JY19" s="108" t="inlineStr"/>
-      <c r="JZ19" s="108" t="inlineStr"/>
-      <c r="KA19" s="108" t="inlineStr"/>
-      <c r="KB19" s="108" t="inlineStr"/>
-      <c r="KC19" s="108" t="inlineStr"/>
-      <c r="KD19" s="108" t="inlineStr"/>
-      <c r="KE19" s="108" t="inlineStr"/>
-      <c r="KF19" s="108" t="inlineStr"/>
-      <c r="KG19" s="108" t="inlineStr"/>
-      <c r="KH19" s="108" t="inlineStr"/>
-      <c r="KI19" s="108" t="inlineStr"/>
-      <c r="KJ19" s="108" t="inlineStr"/>
-      <c r="KK19" s="108" t="inlineStr"/>
-      <c r="KL19" s="108" t="inlineStr"/>
-      <c r="KM19" s="108" t="inlineStr"/>
-      <c r="KN19" s="108" t="inlineStr"/>
-      <c r="KO19" s="108" t="inlineStr"/>
-      <c r="KP19" s="108" t="inlineStr"/>
-      <c r="KQ19" s="108" t="inlineStr"/>
-      <c r="KR19" s="108" t="inlineStr"/>
-      <c r="KS19" s="108" t="inlineStr"/>
-      <c r="KT19" s="108" t="inlineStr"/>
-      <c r="KU19" s="108" t="inlineStr"/>
-      <c r="KV19" s="108" t="inlineStr"/>
-      <c r="KW19" s="108" t="inlineStr"/>
-      <c r="KX19" s="108" t="inlineStr"/>
-      <c r="KY19" s="108" t="inlineStr"/>
-      <c r="KZ19" s="108" t="inlineStr"/>
-      <c r="LA19" s="108" t="inlineStr"/>
-      <c r="LB19" s="108" t="inlineStr"/>
-      <c r="LC19" s="108" t="inlineStr"/>
-      <c r="LD19" s="108" t="inlineStr"/>
-      <c r="LE19" s="108" t="inlineStr"/>
-      <c r="LF19" s="108" t="inlineStr"/>
-      <c r="LG19" s="108" t="inlineStr"/>
-      <c r="LH19" s="108" t="inlineStr"/>
-      <c r="LI19" s="108" t="inlineStr"/>
-      <c r="LJ19" s="108" t="inlineStr"/>
-      <c r="LK19" s="108" t="inlineStr"/>
-      <c r="LL19" s="108" t="inlineStr"/>
-      <c r="LM19" s="108" t="inlineStr"/>
-      <c r="LN19" s="108" t="inlineStr"/>
-      <c r="LO19" s="108" t="inlineStr"/>
-      <c r="LP19" s="108" t="inlineStr"/>
-      <c r="LQ19" s="108" t="inlineStr"/>
-      <c r="LR19" s="108" t="inlineStr"/>
-      <c r="LS19" s="108" t="inlineStr"/>
-      <c r="LT19" s="108" t="inlineStr"/>
-      <c r="LU19" s="108" t="inlineStr"/>
-      <c r="LV19" s="108" t="inlineStr"/>
-      <c r="LW19" s="108" t="inlineStr"/>
-      <c r="LX19" s="108" t="inlineStr"/>
-      <c r="LY19" s="108" t="inlineStr"/>
-      <c r="LZ19" s="108" t="inlineStr"/>
-      <c r="MA19" s="108" t="inlineStr"/>
-      <c r="MB19" s="108" t="inlineStr"/>
-      <c r="MC19" s="108" t="inlineStr"/>
-      <c r="MD19" s="108" t="inlineStr"/>
-      <c r="ME19" s="108" t="inlineStr"/>
-      <c r="MF19" s="108" t="inlineStr"/>
-      <c r="MG19" s="108" t="inlineStr"/>
-      <c r="MH19" s="108" t="inlineStr"/>
-      <c r="MI19" s="108" t="inlineStr"/>
-      <c r="MJ19" s="108" t="inlineStr"/>
-      <c r="MK19" s="108" t="inlineStr"/>
-      <c r="ML19" s="108" t="inlineStr"/>
-      <c r="MM19" s="108" t="inlineStr"/>
-      <c r="MN19" s="108" t="inlineStr"/>
-      <c r="MO19" s="108" t="inlineStr"/>
-      <c r="MP19" s="108" t="inlineStr"/>
-      <c r="MQ19" s="108" t="inlineStr"/>
-      <c r="MR19" s="108" t="inlineStr"/>
-      <c r="MS19" s="108" t="inlineStr"/>
-      <c r="MT19" s="108" t="inlineStr"/>
-      <c r="MU19" s="108" t="inlineStr"/>
-      <c r="MV19" s="108" t="inlineStr"/>
-      <c r="MW19" s="108" t="inlineStr"/>
-      <c r="MX19" s="108" t="inlineStr"/>
-      <c r="MY19" s="108" t="inlineStr"/>
-      <c r="MZ19" s="108" t="inlineStr"/>
-      <c r="NA19" s="108" t="inlineStr"/>
-      <c r="NB19" s="108" t="inlineStr"/>
-      <c r="NC19" s="108" t="inlineStr"/>
-      <c r="ND19" s="108" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="110">
-      <c r="A20" s="108" t="inlineStr"/>
       <c r="B20" s="108" t="inlineStr">
         <is>
           <t>Errors count</t>
         </is>
       </c>
-      <c r="C20" s="108" t="inlineStr"/>
-      <c r="D20" s="108" t="inlineStr"/>
-      <c r="E20" s="108" t="inlineStr"/>
-      <c r="F20" s="108" t="inlineStr"/>
-      <c r="G20" s="108" t="inlineStr"/>
-      <c r="H20" s="108" t="inlineStr"/>
-      <c r="I20" s="108" t="inlineStr"/>
-      <c r="J20" s="108" t="inlineStr"/>
-      <c r="K20" s="108" t="inlineStr"/>
-      <c r="L20" s="108" t="inlineStr"/>
-      <c r="M20" s="108" t="inlineStr"/>
-      <c r="N20" s="108" t="inlineStr"/>
-      <c r="O20" s="108" t="inlineStr"/>
-      <c r="P20" s="108" t="inlineStr"/>
-      <c r="Q20" s="108" t="inlineStr"/>
-      <c r="R20" s="108" t="inlineStr"/>
-      <c r="S20" s="108" t="inlineStr"/>
-      <c r="T20" s="108" t="inlineStr"/>
-      <c r="U20" s="108" t="inlineStr"/>
-      <c r="V20" s="108" t="inlineStr"/>
-      <c r="W20" s="108" t="inlineStr"/>
-      <c r="X20" s="108" t="inlineStr"/>
-      <c r="Y20" s="108" t="inlineStr"/>
-      <c r="Z20" s="108" t="inlineStr"/>
-      <c r="AA20" s="108" t="inlineStr"/>
-      <c r="AB20" s="108" t="inlineStr"/>
-      <c r="AC20" s="108" t="inlineStr"/>
-      <c r="AD20" s="108" t="inlineStr"/>
-      <c r="AE20" s="108" t="inlineStr"/>
-      <c r="AF20" s="108" t="inlineStr"/>
-      <c r="AG20" s="108" t="inlineStr"/>
-      <c r="AH20" s="108" t="inlineStr"/>
-      <c r="AI20" s="108" t="inlineStr"/>
-      <c r="AJ20" s="108" t="inlineStr"/>
-      <c r="AK20" s="108" t="inlineStr"/>
-      <c r="AL20" s="108" t="inlineStr"/>
-      <c r="AM20" s="108" t="inlineStr"/>
-      <c r="AN20" s="108" t="inlineStr"/>
-      <c r="AO20" s="108" t="inlineStr"/>
-      <c r="AP20" s="108" t="inlineStr"/>
-      <c r="AQ20" s="108" t="inlineStr"/>
-      <c r="AR20" s="108" t="inlineStr"/>
-      <c r="AS20" s="108" t="inlineStr"/>
-      <c r="AT20" s="108" t="inlineStr"/>
-      <c r="AU20" s="108" t="inlineStr"/>
-      <c r="AV20" s="108" t="inlineStr"/>
-      <c r="AW20" s="108" t="inlineStr"/>
-      <c r="AX20" s="108" t="inlineStr"/>
-      <c r="AY20" s="108" t="inlineStr"/>
-      <c r="AZ20" s="108" t="inlineStr"/>
-      <c r="BA20" s="108" t="inlineStr"/>
-      <c r="BB20" s="108" t="inlineStr"/>
-      <c r="BC20" s="108" t="inlineStr"/>
-      <c r="BD20" s="108" t="inlineStr"/>
-      <c r="BE20" s="108" t="inlineStr"/>
-      <c r="BF20" s="108" t="inlineStr"/>
-      <c r="BG20" s="108" t="inlineStr"/>
-      <c r="BH20" s="108" t="inlineStr"/>
-      <c r="BI20" s="108" t="inlineStr"/>
-      <c r="BJ20" s="108" t="inlineStr"/>
-      <c r="BK20" s="108" t="inlineStr"/>
-      <c r="BL20" s="108" t="inlineStr"/>
-      <c r="BM20" s="108" t="inlineStr"/>
-      <c r="BN20" s="108" t="inlineStr"/>
-      <c r="BO20" s="108" t="inlineStr"/>
-      <c r="BP20" s="108" t="inlineStr"/>
-      <c r="BQ20" s="108" t="inlineStr"/>
-      <c r="BR20" s="108" t="inlineStr"/>
-      <c r="BS20" s="108" t="inlineStr"/>
-      <c r="BT20" s="108" t="inlineStr"/>
-      <c r="BU20" s="108" t="inlineStr"/>
-      <c r="BV20" s="108" t="inlineStr"/>
-      <c r="BW20" s="108" t="inlineStr"/>
-      <c r="BX20" s="108" t="inlineStr"/>
-      <c r="BY20" s="108" t="inlineStr"/>
-      <c r="BZ20" s="108" t="inlineStr"/>
-      <c r="CA20" s="108" t="inlineStr"/>
-      <c r="CB20" s="108" t="inlineStr"/>
-      <c r="CC20" s="108" t="inlineStr"/>
-      <c r="CD20" s="108" t="inlineStr"/>
-      <c r="CE20" s="108" t="inlineStr"/>
-      <c r="CF20" s="108" t="inlineStr"/>
-      <c r="CG20" s="108" t="inlineStr"/>
-      <c r="CH20" s="108" t="inlineStr"/>
-      <c r="CI20" s="108" t="inlineStr"/>
-      <c r="CJ20" s="108" t="inlineStr"/>
-      <c r="CK20" s="108" t="inlineStr"/>
-      <c r="CL20" s="108" t="inlineStr"/>
-      <c r="CM20" s="108" t="inlineStr"/>
-      <c r="CN20" s="108" t="inlineStr"/>
-      <c r="CO20" s="108" t="inlineStr"/>
-      <c r="CP20" s="108" t="inlineStr"/>
-      <c r="CQ20" s="108" t="inlineStr"/>
-      <c r="CR20" s="108" t="inlineStr"/>
-      <c r="CS20" s="108" t="inlineStr"/>
-      <c r="CT20" s="108" t="inlineStr"/>
-      <c r="CU20" s="108" t="inlineStr"/>
-      <c r="CV20" s="108" t="inlineStr"/>
-      <c r="CW20" s="108" t="inlineStr"/>
-      <c r="CX20" s="108" t="inlineStr"/>
-      <c r="CY20" s="108" t="inlineStr"/>
-      <c r="CZ20" s="108" t="inlineStr"/>
-      <c r="DA20" s="108" t="inlineStr"/>
-      <c r="DB20" s="108" t="inlineStr"/>
-      <c r="DC20" s="108" t="inlineStr"/>
-      <c r="DD20" s="108" t="inlineStr"/>
-      <c r="DE20" s="108" t="inlineStr"/>
-      <c r="DF20" s="108" t="inlineStr"/>
-      <c r="DG20" s="108" t="inlineStr"/>
-      <c r="DH20" s="108" t="inlineStr"/>
-      <c r="DI20" s="108" t="inlineStr"/>
-      <c r="DJ20" s="108" t="inlineStr"/>
-      <c r="DK20" s="108" t="inlineStr"/>
-      <c r="DL20" s="108" t="inlineStr"/>
-      <c r="DM20" s="108" t="inlineStr"/>
-      <c r="DN20" s="108" t="inlineStr"/>
-      <c r="DO20" s="108" t="inlineStr"/>
-      <c r="DP20" s="108" t="inlineStr"/>
-      <c r="DQ20" s="108" t="inlineStr"/>
-      <c r="DR20" s="108" t="inlineStr"/>
-      <c r="DS20" s="108" t="inlineStr"/>
-      <c r="DT20" s="108" t="inlineStr"/>
-      <c r="DU20" s="108" t="inlineStr"/>
-      <c r="DV20" s="108" t="inlineStr"/>
-      <c r="DW20" s="108" t="inlineStr"/>
-      <c r="DX20" s="108" t="inlineStr"/>
-      <c r="DY20" s="108" t="inlineStr"/>
-      <c r="DZ20" s="108" t="inlineStr"/>
-      <c r="EA20" s="108" t="inlineStr"/>
-      <c r="EB20" s="108" t="inlineStr"/>
-      <c r="EC20" s="108" t="inlineStr"/>
-      <c r="ED20" s="108" t="inlineStr"/>
-      <c r="EE20" s="108" t="inlineStr"/>
-      <c r="EF20" s="108" t="inlineStr"/>
-      <c r="EG20" s="108" t="inlineStr"/>
-      <c r="EH20" s="108" t="inlineStr"/>
-      <c r="EI20" s="108" t="inlineStr"/>
-      <c r="EJ20" s="108" t="inlineStr"/>
-      <c r="EK20" s="108" t="inlineStr"/>
-      <c r="EL20" s="108" t="inlineStr"/>
-      <c r="EM20" s="108" t="inlineStr"/>
-      <c r="EN20" s="108" t="inlineStr"/>
-      <c r="EO20" s="108" t="inlineStr"/>
-      <c r="EP20" s="108" t="inlineStr"/>
-      <c r="EQ20" s="108" t="inlineStr"/>
-      <c r="ER20" s="108" t="inlineStr"/>
-      <c r="ES20" s="108" t="inlineStr"/>
-      <c r="ET20" s="108" t="inlineStr"/>
-      <c r="EU20" s="108" t="inlineStr"/>
-      <c r="EV20" s="108" t="inlineStr"/>
-      <c r="EW20" s="108" t="inlineStr"/>
-      <c r="EX20" s="108" t="inlineStr"/>
-      <c r="EY20" s="108" t="inlineStr"/>
-      <c r="EZ20" s="108" t="inlineStr"/>
-      <c r="FA20" s="108" t="inlineStr"/>
-      <c r="FB20" s="108" t="inlineStr"/>
-      <c r="FC20" s="108" t="inlineStr"/>
-      <c r="FD20" s="108" t="inlineStr"/>
-      <c r="FE20" s="108" t="inlineStr"/>
-      <c r="FF20" s="108" t="inlineStr"/>
-      <c r="FG20" s="108" t="inlineStr"/>
-      <c r="FH20" s="108" t="inlineStr"/>
-      <c r="FI20" s="108" t="inlineStr"/>
-      <c r="FJ20" s="108" t="inlineStr"/>
-      <c r="FK20" s="108" t="inlineStr"/>
-      <c r="FL20" s="108" t="inlineStr"/>
-      <c r="FM20" s="108" t="inlineStr"/>
-      <c r="FN20" s="108" t="inlineStr"/>
-      <c r="FO20" s="108" t="inlineStr"/>
-      <c r="FP20" s="108" t="inlineStr">
-        <is>
-          <t>jkfhjk</t>
-        </is>
-      </c>
-      <c r="FQ20" s="108" t="inlineStr"/>
-      <c r="FR20" s="108" t="inlineStr"/>
-      <c r="FS20" s="108" t="inlineStr"/>
-      <c r="FT20" s="108" t="inlineStr"/>
-      <c r="FU20" s="108" t="inlineStr"/>
-      <c r="FV20" s="108" t="inlineStr"/>
-      <c r="FW20" s="108" t="inlineStr"/>
-      <c r="FX20" s="108" t="inlineStr"/>
-      <c r="FY20" s="108" t="inlineStr"/>
-      <c r="FZ20" s="108" t="inlineStr"/>
-      <c r="GA20" s="108" t="inlineStr"/>
-      <c r="GB20" s="108" t="inlineStr"/>
-      <c r="GC20" s="108" t="inlineStr"/>
-      <c r="GD20" s="108" t="inlineStr"/>
-      <c r="GE20" s="108" t="inlineStr"/>
-      <c r="GF20" s="108" t="inlineStr"/>
-      <c r="GG20" s="108" t="inlineStr"/>
-      <c r="GH20" s="108" t="inlineStr"/>
-      <c r="GI20" s="108" t="inlineStr"/>
-      <c r="GJ20" s="108" t="inlineStr"/>
-      <c r="GK20" s="108" t="inlineStr"/>
-      <c r="GL20" s="108" t="inlineStr"/>
-      <c r="GM20" s="108" t="inlineStr"/>
-      <c r="GN20" s="108" t="inlineStr"/>
-      <c r="GO20" s="108" t="inlineStr"/>
-      <c r="GP20" s="108" t="inlineStr"/>
-      <c r="GQ20" s="108" t="inlineStr"/>
-      <c r="GR20" s="108" t="inlineStr"/>
-      <c r="GS20" s="108" t="inlineStr"/>
-      <c r="GT20" s="108" t="inlineStr"/>
-      <c r="GU20" s="108" t="inlineStr"/>
-      <c r="GV20" s="108" t="inlineStr"/>
-      <c r="GW20" s="108" t="inlineStr"/>
-      <c r="GX20" s="108" t="inlineStr"/>
-      <c r="GY20" s="108" t="inlineStr"/>
-      <c r="GZ20" s="108" t="inlineStr"/>
-      <c r="HA20" s="108" t="inlineStr"/>
-      <c r="HB20" s="108" t="inlineStr"/>
-      <c r="HC20" s="108" t="inlineStr"/>
-      <c r="HD20" s="108" t="inlineStr"/>
-      <c r="HE20" s="108" t="inlineStr"/>
-      <c r="HF20" s="108" t="inlineStr"/>
-      <c r="HG20" s="108" t="inlineStr"/>
-      <c r="HH20" s="108" t="inlineStr"/>
-      <c r="HI20" s="108" t="inlineStr"/>
-      <c r="HJ20" s="108" t="inlineStr"/>
-      <c r="HK20" s="108" t="inlineStr"/>
-      <c r="HL20" s="108" t="inlineStr"/>
-      <c r="HM20" s="108" t="inlineStr"/>
-      <c r="HN20" s="108" t="inlineStr"/>
-      <c r="HO20" s="108" t="inlineStr"/>
-      <c r="HP20" s="108" t="inlineStr"/>
-      <c r="HQ20" s="108" t="inlineStr"/>
-      <c r="HR20" s="108" t="inlineStr"/>
-      <c r="HS20" s="108" t="inlineStr"/>
-      <c r="HT20" s="108" t="inlineStr"/>
-      <c r="HU20" s="108" t="inlineStr"/>
-      <c r="HV20" s="108" t="inlineStr"/>
-      <c r="HW20" s="108" t="inlineStr"/>
-      <c r="HX20" s="108" t="inlineStr"/>
-      <c r="HY20" s="108" t="inlineStr"/>
-      <c r="HZ20" s="108" t="inlineStr"/>
-      <c r="IA20" s="108" t="inlineStr"/>
-      <c r="IB20" s="108" t="inlineStr"/>
-      <c r="IC20" s="108" t="inlineStr"/>
-      <c r="ID20" s="108" t="inlineStr"/>
-      <c r="IE20" s="108" t="inlineStr"/>
-      <c r="IF20" s="108" t="inlineStr"/>
-      <c r="IG20" s="108" t="inlineStr"/>
-      <c r="IH20" s="108" t="inlineStr"/>
-      <c r="II20" s="108" t="inlineStr"/>
-      <c r="IJ20" s="108" t="inlineStr"/>
-      <c r="IK20" s="108" t="inlineStr"/>
-      <c r="IL20" s="108" t="inlineStr"/>
-      <c r="IM20" s="108" t="inlineStr"/>
-      <c r="IN20" s="108" t="inlineStr"/>
-      <c r="IO20" s="108" t="inlineStr"/>
-      <c r="IP20" s="108" t="inlineStr"/>
-      <c r="IQ20" s="108" t="inlineStr"/>
-      <c r="IR20" s="108" t="inlineStr"/>
-      <c r="IS20" s="108" t="inlineStr"/>
-      <c r="IT20" s="108" t="inlineStr"/>
-      <c r="IU20" s="108" t="inlineStr"/>
-      <c r="IV20" s="108" t="inlineStr"/>
-      <c r="IW20" s="108" t="inlineStr"/>
-      <c r="IX20" s="108" t="inlineStr"/>
-      <c r="IY20" s="108" t="inlineStr"/>
-      <c r="IZ20" s="108" t="inlineStr"/>
-      <c r="JA20" s="108" t="inlineStr"/>
-      <c r="JB20" s="108" t="inlineStr"/>
-      <c r="JC20" s="108" t="inlineStr"/>
-      <c r="JD20" s="108" t="inlineStr"/>
-      <c r="JE20" s="108" t="inlineStr"/>
-      <c r="JF20" s="108" t="inlineStr"/>
-      <c r="JG20" s="108" t="inlineStr"/>
-      <c r="JH20" s="108" t="inlineStr"/>
-      <c r="JI20" s="108" t="inlineStr"/>
-      <c r="JJ20" s="108" t="inlineStr"/>
-      <c r="JK20" s="108" t="inlineStr"/>
-      <c r="JL20" s="108" t="inlineStr"/>
-      <c r="JM20" s="108" t="inlineStr"/>
-      <c r="JN20" s="108" t="inlineStr"/>
-      <c r="JO20" s="108" t="inlineStr"/>
-      <c r="JP20" s="108" t="inlineStr"/>
-      <c r="JQ20" s="108" t="inlineStr"/>
-      <c r="JR20" s="108" t="inlineStr"/>
-      <c r="JS20" s="108" t="inlineStr"/>
-      <c r="JT20" s="108" t="inlineStr"/>
-      <c r="JU20" s="108" t="inlineStr"/>
-      <c r="JV20" s="108" t="inlineStr"/>
-      <c r="JW20" s="108" t="inlineStr"/>
-      <c r="JX20" s="108" t="inlineStr"/>
-      <c r="JY20" s="108" t="inlineStr"/>
-      <c r="JZ20" s="108" t="inlineStr"/>
-      <c r="KA20" s="108" t="inlineStr"/>
-      <c r="KB20" s="108" t="inlineStr"/>
-      <c r="KC20" s="108" t="inlineStr"/>
-      <c r="KD20" s="108" t="inlineStr"/>
-      <c r="KE20" s="108" t="inlineStr"/>
-      <c r="KF20" s="108" t="inlineStr"/>
-      <c r="KG20" s="108" t="inlineStr"/>
-      <c r="KH20" s="108" t="inlineStr"/>
-      <c r="KI20" s="108" t="inlineStr"/>
-      <c r="KJ20" s="108" t="inlineStr"/>
-      <c r="KK20" s="108" t="inlineStr"/>
-      <c r="KL20" s="108" t="inlineStr"/>
-      <c r="KM20" s="108" t="inlineStr"/>
-      <c r="KN20" s="108" t="inlineStr"/>
-      <c r="KO20" s="108" t="inlineStr"/>
-      <c r="KP20" s="108" t="inlineStr"/>
-      <c r="KQ20" s="108" t="inlineStr"/>
-      <c r="KR20" s="108" t="inlineStr"/>
-      <c r="KS20" s="108" t="inlineStr"/>
-      <c r="KT20" s="108" t="inlineStr"/>
-      <c r="KU20" s="108" t="inlineStr"/>
-      <c r="KV20" s="108" t="inlineStr"/>
-      <c r="KW20" s="108" t="inlineStr"/>
-      <c r="KX20" s="108" t="inlineStr"/>
-      <c r="KY20" s="108" t="inlineStr"/>
-      <c r="KZ20" s="108" t="inlineStr"/>
-      <c r="LA20" s="108" t="inlineStr"/>
-      <c r="LB20" s="108" t="inlineStr"/>
-      <c r="LC20" s="108" t="inlineStr"/>
-      <c r="LD20" s="108" t="inlineStr"/>
-      <c r="LE20" s="108" t="inlineStr"/>
-      <c r="LF20" s="108" t="inlineStr"/>
-      <c r="LG20" s="108" t="inlineStr"/>
-      <c r="LH20" s="108" t="inlineStr"/>
-      <c r="LI20" s="108" t="inlineStr"/>
-      <c r="LJ20" s="108" t="inlineStr"/>
-      <c r="LK20" s="108" t="inlineStr"/>
-      <c r="LL20" s="108" t="inlineStr"/>
-      <c r="LM20" s="108" t="inlineStr"/>
-      <c r="LN20" s="108" t="inlineStr"/>
-      <c r="LO20" s="108" t="inlineStr"/>
-      <c r="LP20" s="108" t="inlineStr"/>
-      <c r="LQ20" s="108" t="inlineStr"/>
-      <c r="LR20" s="108" t="inlineStr"/>
-      <c r="LS20" s="108" t="inlineStr"/>
-      <c r="LT20" s="108" t="inlineStr"/>
-      <c r="LU20" s="108" t="inlineStr"/>
-      <c r="LV20" s="108" t="inlineStr"/>
-      <c r="LW20" s="108" t="inlineStr"/>
-      <c r="LX20" s="108" t="inlineStr"/>
-      <c r="LY20" s="108" t="inlineStr"/>
-      <c r="LZ20" s="108" t="inlineStr"/>
-      <c r="MA20" s="108" t="inlineStr"/>
-      <c r="MB20" s="108" t="inlineStr"/>
-      <c r="MC20" s="108" t="inlineStr"/>
-      <c r="MD20" s="108" t="inlineStr"/>
-      <c r="ME20" s="108" t="inlineStr"/>
-      <c r="MF20" s="108" t="inlineStr"/>
-      <c r="MG20" s="108" t="inlineStr"/>
-      <c r="MH20" s="108" t="inlineStr"/>
-      <c r="MI20" s="108" t="inlineStr"/>
-      <c r="MJ20" s="108" t="inlineStr"/>
-      <c r="MK20" s="108" t="inlineStr"/>
-      <c r="ML20" s="108" t="inlineStr"/>
-      <c r="MM20" s="108" t="inlineStr"/>
-      <c r="MN20" s="108" t="inlineStr"/>
-      <c r="MO20" s="108" t="inlineStr"/>
-      <c r="MP20" s="108" t="inlineStr"/>
-      <c r="MQ20" s="108" t="inlineStr"/>
-      <c r="MR20" s="108" t="inlineStr"/>
-      <c r="MS20" s="108" t="inlineStr"/>
-      <c r="MT20" s="108" t="inlineStr"/>
-      <c r="MU20" s="108" t="inlineStr"/>
-      <c r="MV20" s="108" t="inlineStr"/>
-      <c r="MW20" s="108" t="inlineStr"/>
-      <c r="MX20" s="108" t="inlineStr"/>
-      <c r="MY20" s="108" t="inlineStr"/>
-      <c r="MZ20" s="108" t="inlineStr"/>
-      <c r="NA20" s="108" t="inlineStr"/>
-      <c r="NB20" s="108" t="inlineStr"/>
-      <c r="NC20" s="108" t="inlineStr"/>
-      <c r="ND20" s="108" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="108" t="inlineStr"/>
-      <c r="B21" s="108" t="inlineStr"/>
-      <c r="C21" s="108" t="inlineStr"/>
-      <c r="D21" s="108" t="inlineStr"/>
-      <c r="E21" s="108" t="inlineStr"/>
-      <c r="F21" s="108" t="inlineStr"/>
-      <c r="G21" s="108" t="inlineStr"/>
-      <c r="H21" s="108" t="inlineStr"/>
-      <c r="I21" s="108" t="inlineStr"/>
-      <c r="J21" s="108" t="inlineStr"/>
-      <c r="K21" s="108" t="inlineStr"/>
-      <c r="L21" s="108" t="inlineStr"/>
-      <c r="M21" s="108" t="inlineStr"/>
-      <c r="N21" s="108" t="inlineStr"/>
-      <c r="O21" s="108" t="inlineStr"/>
-      <c r="P21" s="108" t="inlineStr"/>
-      <c r="Q21" s="108" t="inlineStr"/>
-      <c r="R21" s="108" t="inlineStr"/>
-      <c r="S21" s="108" t="inlineStr"/>
-      <c r="T21" s="108" t="inlineStr"/>
-      <c r="U21" s="108" t="inlineStr"/>
-      <c r="V21" s="108" t="inlineStr"/>
-      <c r="W21" s="108" t="inlineStr"/>
-      <c r="X21" s="108" t="inlineStr"/>
-      <c r="Y21" s="108" t="inlineStr"/>
-      <c r="Z21" s="108" t="inlineStr"/>
-      <c r="AA21" s="108" t="inlineStr"/>
-      <c r="AB21" s="108" t="inlineStr"/>
-      <c r="AC21" s="108" t="inlineStr"/>
-      <c r="AD21" s="108" t="inlineStr"/>
-      <c r="AE21" s="108" t="inlineStr"/>
-      <c r="AF21" s="108" t="inlineStr"/>
-      <c r="AG21" s="108" t="inlineStr"/>
-      <c r="AH21" s="108" t="inlineStr"/>
-      <c r="AI21" s="108" t="inlineStr"/>
-      <c r="AJ21" s="108" t="inlineStr"/>
-      <c r="AK21" s="108" t="inlineStr"/>
-      <c r="AL21" s="108" t="inlineStr"/>
-      <c r="AM21" s="108" t="inlineStr"/>
-      <c r="AN21" s="108" t="inlineStr"/>
-      <c r="AO21" s="108" t="inlineStr"/>
-      <c r="AP21" s="108" t="inlineStr"/>
-      <c r="AQ21" s="108" t="inlineStr"/>
-      <c r="AR21" s="108" t="inlineStr"/>
-      <c r="AS21" s="108" t="inlineStr"/>
-      <c r="AT21" s="108" t="inlineStr"/>
-      <c r="AU21" s="108" t="inlineStr"/>
-      <c r="AV21" s="108" t="inlineStr"/>
-      <c r="AW21" s="108" t="inlineStr"/>
-      <c r="AX21" s="108" t="inlineStr"/>
-      <c r="AY21" s="108" t="inlineStr"/>
-      <c r="AZ21" s="108" t="inlineStr"/>
-      <c r="BA21" s="108" t="inlineStr"/>
-      <c r="BB21" s="108" t="inlineStr"/>
-      <c r="BC21" s="108" t="inlineStr"/>
-      <c r="BD21" s="108" t="inlineStr"/>
-      <c r="BE21" s="108" t="inlineStr"/>
-      <c r="BF21" s="108" t="inlineStr"/>
-      <c r="BG21" s="108" t="inlineStr"/>
-      <c r="BH21" s="108" t="inlineStr"/>
-      <c r="BI21" s="108" t="inlineStr"/>
-      <c r="BJ21" s="108" t="inlineStr"/>
-      <c r="BK21" s="108" t="inlineStr"/>
-      <c r="BL21" s="108" t="inlineStr"/>
-      <c r="BM21" s="108" t="inlineStr"/>
-      <c r="BN21" s="108" t="inlineStr"/>
-      <c r="BO21" s="108" t="inlineStr"/>
-      <c r="BP21" s="108" t="inlineStr"/>
-      <c r="BQ21" s="108" t="inlineStr"/>
-      <c r="BR21" s="108" t="inlineStr"/>
-      <c r="BS21" s="108" t="inlineStr"/>
-      <c r="BT21" s="108" t="inlineStr"/>
-      <c r="BU21" s="108" t="inlineStr"/>
-      <c r="BV21" s="108" t="inlineStr"/>
-      <c r="BW21" s="108" t="inlineStr"/>
-      <c r="BX21" s="108" t="inlineStr"/>
-      <c r="BY21" s="108" t="inlineStr"/>
-      <c r="BZ21" s="108" t="inlineStr"/>
-      <c r="CA21" s="108" t="inlineStr"/>
-      <c r="CB21" s="108" t="inlineStr"/>
-      <c r="CC21" s="108" t="inlineStr"/>
-      <c r="CD21" s="108" t="inlineStr"/>
-      <c r="CE21" s="108" t="inlineStr"/>
-      <c r="CF21" s="108" t="inlineStr"/>
-      <c r="CG21" s="108" t="inlineStr"/>
-      <c r="CH21" s="108" t="inlineStr"/>
-      <c r="CI21" s="108" t="inlineStr"/>
-      <c r="CJ21" s="108" t="inlineStr"/>
-      <c r="CK21" s="108" t="inlineStr"/>
-      <c r="CL21" s="108" t="inlineStr"/>
-      <c r="CM21" s="108" t="inlineStr"/>
-      <c r="CN21" s="108" t="inlineStr"/>
-      <c r="CO21" s="108" t="inlineStr"/>
-      <c r="CP21" s="108" t="inlineStr"/>
-      <c r="CQ21" s="108" t="inlineStr"/>
-      <c r="CR21" s="108" t="inlineStr"/>
-      <c r="CS21" s="108" t="inlineStr"/>
-      <c r="CT21" s="108" t="inlineStr"/>
-      <c r="CU21" s="108" t="inlineStr"/>
-      <c r="CV21" s="108" t="inlineStr"/>
-      <c r="CW21" s="108" t="inlineStr"/>
-      <c r="CX21" s="108" t="inlineStr"/>
-      <c r="CY21" s="108" t="inlineStr"/>
-      <c r="CZ21" s="108" t="inlineStr"/>
-      <c r="DA21" s="108" t="inlineStr"/>
-      <c r="DB21" s="108" t="inlineStr"/>
-      <c r="DC21" s="108" t="inlineStr"/>
-      <c r="DD21" s="108" t="inlineStr"/>
-      <c r="DE21" s="108" t="inlineStr"/>
-      <c r="DF21" s="108" t="inlineStr"/>
-      <c r="DG21" s="108" t="inlineStr"/>
-      <c r="DH21" s="108" t="inlineStr"/>
-      <c r="DI21" s="108" t="inlineStr"/>
-      <c r="DJ21" s="108" t="inlineStr"/>
-      <c r="DK21" s="108" t="inlineStr"/>
-      <c r="DL21" s="108" t="inlineStr"/>
-      <c r="DM21" s="108" t="inlineStr"/>
-      <c r="DN21" s="108" t="inlineStr"/>
-      <c r="DO21" s="108" t="inlineStr"/>
-      <c r="DP21" s="108" t="inlineStr"/>
-      <c r="DQ21" s="108" t="inlineStr"/>
-      <c r="DR21" s="108" t="inlineStr"/>
-      <c r="DS21" s="108" t="inlineStr"/>
-      <c r="DT21" s="108" t="inlineStr"/>
-      <c r="DU21" s="108" t="inlineStr"/>
-      <c r="DV21" s="108" t="inlineStr"/>
-      <c r="DW21" s="108" t="inlineStr"/>
-      <c r="DX21" s="108" t="inlineStr"/>
-      <c r="DY21" s="108" t="inlineStr"/>
-      <c r="DZ21" s="108" t="inlineStr"/>
-      <c r="EA21" s="108" t="inlineStr"/>
-      <c r="EB21" s="108" t="inlineStr"/>
-      <c r="EC21" s="108" t="inlineStr"/>
-      <c r="ED21" s="108" t="inlineStr"/>
-      <c r="EE21" s="108" t="inlineStr"/>
-      <c r="EF21" s="108" t="inlineStr"/>
-      <c r="EG21" s="108" t="inlineStr"/>
-      <c r="EH21" s="108" t="inlineStr"/>
-      <c r="EI21" s="108" t="inlineStr"/>
-      <c r="EJ21" s="108" t="inlineStr"/>
-      <c r="EK21" s="108" t="inlineStr"/>
-      <c r="EL21" s="108" t="inlineStr"/>
-      <c r="EM21" s="108" t="inlineStr"/>
-      <c r="EN21" s="108" t="inlineStr"/>
-      <c r="EO21" s="108" t="inlineStr"/>
-      <c r="EP21" s="108" t="inlineStr"/>
-      <c r="EQ21" s="108" t="inlineStr"/>
-      <c r="ER21" s="108" t="inlineStr"/>
-      <c r="ES21" s="108" t="inlineStr"/>
-      <c r="ET21" s="108" t="inlineStr"/>
-      <c r="EU21" s="108" t="inlineStr"/>
-      <c r="EV21" s="108" t="inlineStr"/>
-      <c r="EW21" s="108" t="inlineStr"/>
-      <c r="EX21" s="108" t="inlineStr"/>
-      <c r="EY21" s="108" t="inlineStr"/>
-      <c r="EZ21" s="108" t="inlineStr"/>
-      <c r="FA21" s="108" t="inlineStr"/>
-      <c r="FB21" s="108" t="inlineStr"/>
-      <c r="FC21" s="108" t="inlineStr"/>
-      <c r="FD21" s="108" t="inlineStr"/>
-      <c r="FE21" s="108" t="inlineStr"/>
-      <c r="FF21" s="108" t="inlineStr"/>
-      <c r="FG21" s="108" t="inlineStr"/>
-      <c r="FH21" s="108" t="inlineStr"/>
-      <c r="FI21" s="108" t="inlineStr"/>
-      <c r="FJ21" s="108" t="inlineStr"/>
-      <c r="FK21" s="108" t="inlineStr"/>
-      <c r="FL21" s="108" t="inlineStr"/>
-      <c r="FM21" s="108" t="inlineStr"/>
-      <c r="FN21" s="108" t="inlineStr"/>
-      <c r="FO21" s="108" t="inlineStr"/>
-      <c r="FP21" s="108" t="inlineStr"/>
-      <c r="FQ21" s="108" t="inlineStr"/>
-      <c r="FR21" s="108" t="inlineStr"/>
-      <c r="FS21" s="108" t="inlineStr"/>
-      <c r="FT21" s="108" t="inlineStr"/>
-      <c r="FU21" s="108" t="inlineStr"/>
-      <c r="FV21" s="108" t="inlineStr"/>
-      <c r="FW21" s="108" t="inlineStr"/>
-      <c r="FX21" s="108" t="inlineStr"/>
-      <c r="FY21" s="108" t="inlineStr"/>
-      <c r="FZ21" s="108" t="inlineStr"/>
-      <c r="GA21" s="108" t="inlineStr"/>
-      <c r="GB21" s="108" t="inlineStr"/>
-      <c r="GC21" s="108" t="inlineStr"/>
-      <c r="GD21" s="108" t="inlineStr"/>
-      <c r="GE21" s="108" t="inlineStr"/>
-      <c r="GF21" s="108" t="inlineStr"/>
-      <c r="GG21" s="108" t="inlineStr"/>
-      <c r="GH21" s="108" t="inlineStr"/>
-      <c r="GI21" s="108" t="inlineStr"/>
-      <c r="GJ21" s="108" t="inlineStr"/>
-      <c r="GK21" s="108" t="inlineStr"/>
-      <c r="GL21" s="108" t="inlineStr"/>
-      <c r="GM21" s="108" t="inlineStr"/>
-      <c r="GN21" s="108" t="inlineStr"/>
-      <c r="GO21" s="108" t="inlineStr"/>
-      <c r="GP21" s="108" t="inlineStr"/>
-      <c r="GQ21" s="108" t="inlineStr"/>
-      <c r="GR21" s="108" t="inlineStr"/>
-      <c r="GS21" s="108" t="inlineStr"/>
-      <c r="GT21" s="108" t="inlineStr"/>
-      <c r="GU21" s="108" t="inlineStr"/>
-      <c r="GV21" s="108" t="inlineStr"/>
-      <c r="GW21" s="108" t="inlineStr"/>
-      <c r="GX21" s="108" t="inlineStr"/>
-      <c r="GY21" s="108" t="inlineStr"/>
-      <c r="GZ21" s="108" t="inlineStr"/>
-      <c r="HA21" s="108" t="inlineStr"/>
-      <c r="HB21" s="108" t="inlineStr"/>
-      <c r="HC21" s="108" t="inlineStr"/>
-      <c r="HD21" s="108" t="inlineStr"/>
-      <c r="HE21" s="108" t="inlineStr"/>
-      <c r="HF21" s="108" t="inlineStr"/>
-      <c r="HG21" s="108" t="inlineStr"/>
-      <c r="HH21" s="108" t="inlineStr"/>
-      <c r="HI21" s="108" t="inlineStr"/>
-      <c r="HJ21" s="108" t="inlineStr"/>
-      <c r="HK21" s="108" t="inlineStr"/>
-      <c r="HL21" s="108" t="inlineStr"/>
-      <c r="HM21" s="108" t="inlineStr"/>
-      <c r="HN21" s="108" t="inlineStr"/>
-      <c r="HO21" s="108" t="inlineStr"/>
-      <c r="HP21" s="108" t="inlineStr"/>
-      <c r="HQ21" s="108" t="inlineStr"/>
-      <c r="HR21" s="108" t="inlineStr"/>
-      <c r="HS21" s="108" t="inlineStr"/>
-      <c r="HT21" s="108" t="inlineStr"/>
-      <c r="HU21" s="108" t="inlineStr"/>
-      <c r="HV21" s="108" t="inlineStr"/>
-      <c r="HW21" s="108" t="inlineStr"/>
-      <c r="HX21" s="108" t="inlineStr"/>
-      <c r="HY21" s="108" t="inlineStr"/>
-      <c r="HZ21" s="108" t="inlineStr"/>
-      <c r="IA21" s="108" t="inlineStr"/>
-      <c r="IB21" s="108" t="inlineStr"/>
-      <c r="IC21" s="108" t="inlineStr"/>
-      <c r="ID21" s="108" t="inlineStr"/>
-      <c r="IE21" s="108" t="inlineStr"/>
-      <c r="IF21" s="108" t="inlineStr"/>
-      <c r="IG21" s="108" t="inlineStr"/>
-      <c r="IH21" s="108" t="inlineStr"/>
-      <c r="II21" s="108" t="inlineStr"/>
-      <c r="IJ21" s="108" t="inlineStr"/>
-      <c r="IK21" s="108" t="inlineStr"/>
-      <c r="IL21" s="108" t="inlineStr"/>
-      <c r="IM21" s="108" t="inlineStr"/>
-      <c r="IN21" s="108" t="inlineStr"/>
-      <c r="IO21" s="108" t="inlineStr"/>
-      <c r="IP21" s="108" t="inlineStr"/>
-      <c r="IQ21" s="108" t="inlineStr"/>
-      <c r="IR21" s="108" t="inlineStr"/>
-      <c r="IS21" s="108" t="inlineStr"/>
-      <c r="IT21" s="108" t="inlineStr"/>
-      <c r="IU21" s="108" t="inlineStr"/>
-      <c r="IV21" s="108" t="inlineStr"/>
-      <c r="IW21" s="108" t="inlineStr"/>
-      <c r="IX21" s="108" t="inlineStr"/>
-      <c r="IY21" s="108" t="inlineStr"/>
-      <c r="IZ21" s="108" t="inlineStr"/>
-      <c r="JA21" s="108" t="inlineStr"/>
-      <c r="JB21" s="108" t="inlineStr"/>
-      <c r="JC21" s="108" t="inlineStr"/>
-      <c r="JD21" s="108" t="inlineStr"/>
-      <c r="JE21" s="108" t="inlineStr"/>
-      <c r="JF21" s="108" t="inlineStr"/>
-      <c r="JG21" s="108" t="inlineStr"/>
-      <c r="JH21" s="108" t="inlineStr"/>
-      <c r="JI21" s="108" t="inlineStr"/>
-      <c r="JJ21" s="108" t="inlineStr"/>
-      <c r="JK21" s="108" t="inlineStr"/>
-      <c r="JL21" s="108" t="inlineStr"/>
-      <c r="JM21" s="108" t="inlineStr"/>
-      <c r="JN21" s="108" t="inlineStr"/>
-      <c r="JO21" s="108" t="inlineStr"/>
-      <c r="JP21" s="108" t="inlineStr"/>
-      <c r="JQ21" s="108" t="inlineStr"/>
-      <c r="JR21" s="108" t="inlineStr"/>
-      <c r="JS21" s="108" t="inlineStr"/>
-      <c r="JT21" s="108" t="inlineStr"/>
-      <c r="JU21" s="108" t="inlineStr"/>
-      <c r="JV21" s="108" t="inlineStr"/>
-      <c r="JW21" s="108" t="inlineStr"/>
-      <c r="JX21" s="108" t="inlineStr"/>
-      <c r="JY21" s="108" t="inlineStr"/>
-      <c r="JZ21" s="108" t="inlineStr"/>
-      <c r="KA21" s="108" t="inlineStr"/>
-      <c r="KB21" s="108" t="inlineStr"/>
-      <c r="KC21" s="108" t="inlineStr"/>
-      <c r="KD21" s="108" t="inlineStr"/>
-      <c r="KE21" s="108" t="inlineStr"/>
-      <c r="KF21" s="108" t="inlineStr"/>
-      <c r="KG21" s="108" t="inlineStr"/>
-      <c r="KH21" s="108" t="inlineStr"/>
-      <c r="KI21" s="108" t="inlineStr"/>
-      <c r="KJ21" s="108" t="inlineStr"/>
-      <c r="KK21" s="108" t="inlineStr"/>
-      <c r="KL21" s="108" t="inlineStr"/>
-      <c r="KM21" s="108" t="inlineStr"/>
-      <c r="KN21" s="108" t="inlineStr"/>
-      <c r="KO21" s="108" t="inlineStr"/>
-      <c r="KP21" s="108" t="inlineStr"/>
-      <c r="KQ21" s="108" t="inlineStr"/>
-      <c r="KR21" s="108" t="inlineStr"/>
-      <c r="KS21" s="108" t="inlineStr"/>
-      <c r="KT21" s="108" t="inlineStr"/>
-      <c r="KU21" s="108" t="inlineStr"/>
-      <c r="KV21" s="108" t="inlineStr"/>
-      <c r="KW21" s="108" t="inlineStr"/>
-      <c r="KX21" s="108" t="inlineStr"/>
-      <c r="KY21" s="108" t="inlineStr"/>
-      <c r="KZ21" s="108" t="inlineStr"/>
-      <c r="LA21" s="108" t="inlineStr"/>
-      <c r="LB21" s="108" t="inlineStr"/>
-      <c r="LC21" s="108" t="inlineStr"/>
-      <c r="LD21" s="108" t="inlineStr"/>
-      <c r="LE21" s="108" t="inlineStr"/>
-      <c r="LF21" s="108" t="inlineStr"/>
-      <c r="LG21" s="108" t="inlineStr"/>
-      <c r="LH21" s="108" t="inlineStr"/>
-      <c r="LI21" s="108" t="inlineStr"/>
-      <c r="LJ21" s="108" t="inlineStr"/>
-      <c r="LK21" s="108" t="inlineStr"/>
-      <c r="LL21" s="108" t="inlineStr"/>
-      <c r="LM21" s="108" t="inlineStr"/>
-      <c r="LN21" s="108" t="inlineStr"/>
-      <c r="LO21" s="108" t="inlineStr"/>
-      <c r="LP21" s="108" t="inlineStr"/>
-      <c r="LQ21" s="108" t="inlineStr"/>
-      <c r="LR21" s="108" t="inlineStr"/>
-      <c r="LS21" s="108" t="inlineStr"/>
-      <c r="LT21" s="108" t="inlineStr"/>
-      <c r="LU21" s="108" t="inlineStr"/>
-      <c r="LV21" s="108" t="inlineStr"/>
-      <c r="LW21" s="108" t="inlineStr"/>
-      <c r="LX21" s="108" t="inlineStr"/>
-      <c r="LY21" s="108" t="inlineStr"/>
-      <c r="LZ21" s="108" t="inlineStr"/>
-      <c r="MA21" s="108" t="inlineStr"/>
-      <c r="MB21" s="108" t="inlineStr"/>
-      <c r="MC21" s="108" t="inlineStr"/>
-      <c r="MD21" s="108" t="inlineStr"/>
-      <c r="ME21" s="108" t="inlineStr"/>
-      <c r="MF21" s="108" t="inlineStr"/>
-      <c r="MG21" s="108" t="inlineStr"/>
-      <c r="MH21" s="108" t="inlineStr"/>
-      <c r="MI21" s="108" t="inlineStr"/>
-      <c r="MJ21" s="108" t="inlineStr"/>
-      <c r="MK21" s="108" t="inlineStr"/>
-      <c r="ML21" s="108" t="inlineStr"/>
-      <c r="MM21" s="108" t="inlineStr"/>
-      <c r="MN21" s="108" t="inlineStr"/>
-      <c r="MO21" s="108" t="inlineStr"/>
-      <c r="MP21" s="108" t="inlineStr"/>
-      <c r="MQ21" s="108" t="inlineStr"/>
-      <c r="MR21" s="108" t="inlineStr"/>
-      <c r="MS21" s="108" t="inlineStr"/>
-      <c r="MT21" s="108" t="inlineStr"/>
-      <c r="MU21" s="108" t="inlineStr"/>
-      <c r="MV21" s="108" t="inlineStr"/>
-      <c r="MW21" s="108" t="inlineStr"/>
-      <c r="MX21" s="108" t="inlineStr"/>
-      <c r="MY21" s="108" t="inlineStr"/>
-      <c r="MZ21" s="108" t="inlineStr"/>
-      <c r="NA21" s="108" t="inlineStr"/>
-      <c r="NB21" s="108" t="inlineStr"/>
-      <c r="NC21" s="108" t="inlineStr"/>
-      <c r="ND21" s="108" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="110">
-      <c r="A22" s="108" t="inlineStr"/>
       <c r="B22" s="108" t="inlineStr">
         <is>
           <t>1. Recognition</t>
         </is>
       </c>
-      <c r="C22" s="108" t="inlineStr"/>
-      <c r="D22" s="108" t="inlineStr"/>
-      <c r="E22" s="108" t="inlineStr"/>
-      <c r="F22" s="108" t="inlineStr"/>
-      <c r="G22" s="108" t="inlineStr"/>
-      <c r="H22" s="108" t="inlineStr"/>
-      <c r="I22" s="108" t="inlineStr"/>
-      <c r="J22" s="108" t="inlineStr"/>
-      <c r="K22" s="108" t="inlineStr"/>
-      <c r="L22" s="108" t="inlineStr"/>
-      <c r="M22" s="108" t="inlineStr"/>
-      <c r="N22" s="108" t="inlineStr"/>
-      <c r="O22" s="108" t="inlineStr"/>
-      <c r="P22" s="108" t="inlineStr"/>
-      <c r="Q22" s="108" t="inlineStr"/>
-      <c r="R22" s="108" t="inlineStr"/>
-      <c r="S22" s="108" t="inlineStr"/>
-      <c r="T22" s="108" t="inlineStr"/>
-      <c r="U22" s="108" t="inlineStr"/>
-      <c r="V22" s="108" t="inlineStr"/>
-      <c r="W22" s="108" t="inlineStr"/>
-      <c r="X22" s="108" t="inlineStr"/>
-      <c r="Y22" s="108" t="inlineStr"/>
-      <c r="Z22" s="108" t="inlineStr"/>
-      <c r="AA22" s="108" t="inlineStr"/>
-      <c r="AB22" s="108" t="inlineStr"/>
-      <c r="AC22" s="108" t="inlineStr"/>
-      <c r="AD22" s="108" t="inlineStr"/>
-      <c r="AE22" s="108" t="inlineStr"/>
-      <c r="AF22" s="108" t="inlineStr"/>
-      <c r="AG22" s="108" t="inlineStr"/>
-      <c r="AH22" s="108" t="inlineStr"/>
-      <c r="AI22" s="108" t="inlineStr"/>
-      <c r="AJ22" s="108" t="inlineStr"/>
-      <c r="AK22" s="108" t="inlineStr"/>
-      <c r="AL22" s="108" t="inlineStr"/>
-      <c r="AM22" s="108" t="inlineStr"/>
-      <c r="AN22" s="108" t="inlineStr"/>
-      <c r="AO22" s="108" t="inlineStr"/>
-      <c r="AP22" s="108" t="inlineStr"/>
-      <c r="AQ22" s="108" t="inlineStr"/>
-      <c r="AR22" s="108" t="inlineStr"/>
-      <c r="AS22" s="108" t="inlineStr"/>
-      <c r="AT22" s="108" t="inlineStr"/>
-      <c r="AU22" s="108" t="inlineStr"/>
-      <c r="AV22" s="108" t="inlineStr"/>
-      <c r="AW22" s="108" t="inlineStr"/>
-      <c r="AX22" s="108" t="inlineStr"/>
-      <c r="AY22" s="108" t="inlineStr"/>
-      <c r="AZ22" s="108" t="inlineStr"/>
-      <c r="BA22" s="108" t="inlineStr"/>
-      <c r="BB22" s="108" t="inlineStr"/>
-      <c r="BC22" s="108" t="inlineStr"/>
-      <c r="BD22" s="108" t="inlineStr"/>
-      <c r="BE22" s="108" t="inlineStr"/>
-      <c r="BF22" s="108" t="inlineStr"/>
-      <c r="BG22" s="108" t="inlineStr"/>
-      <c r="BH22" s="108" t="inlineStr"/>
-      <c r="BI22" s="108" t="inlineStr"/>
-      <c r="BJ22" s="108" t="inlineStr"/>
-      <c r="BK22" s="108" t="inlineStr"/>
-      <c r="BL22" s="108" t="inlineStr"/>
-      <c r="BM22" s="108" t="inlineStr"/>
-      <c r="BN22" s="108" t="inlineStr"/>
-      <c r="BO22" s="108" t="inlineStr"/>
-      <c r="BP22" s="108" t="inlineStr"/>
-      <c r="BQ22" s="108" t="inlineStr"/>
-      <c r="BR22" s="108" t="inlineStr"/>
-      <c r="BS22" s="108" t="inlineStr"/>
-      <c r="BT22" s="108" t="inlineStr"/>
-      <c r="BU22" s="108" t="inlineStr"/>
-      <c r="BV22" s="108" t="inlineStr"/>
-      <c r="BW22" s="108" t="inlineStr"/>
-      <c r="BX22" s="108" t="inlineStr"/>
-      <c r="BY22" s="108" t="inlineStr"/>
-      <c r="BZ22" s="108" t="inlineStr"/>
-      <c r="CA22" s="108" t="inlineStr"/>
-      <c r="CB22" s="108" t="inlineStr"/>
-      <c r="CC22" s="108" t="inlineStr"/>
-      <c r="CD22" s="108" t="inlineStr"/>
-      <c r="CE22" s="108" t="inlineStr"/>
-      <c r="CF22" s="108" t="inlineStr"/>
-      <c r="CG22" s="108" t="inlineStr"/>
-      <c r="CH22" s="108" t="inlineStr"/>
-      <c r="CI22" s="108" t="inlineStr"/>
-      <c r="CJ22" s="108" t="inlineStr"/>
-      <c r="CK22" s="108" t="inlineStr"/>
-      <c r="CL22" s="108" t="inlineStr"/>
-      <c r="CM22" s="108" t="inlineStr"/>
-      <c r="CN22" s="108" t="inlineStr"/>
-      <c r="CO22" s="108" t="inlineStr"/>
-      <c r="CP22" s="108" t="inlineStr"/>
-      <c r="CQ22" s="108" t="inlineStr"/>
-      <c r="CR22" s="108" t="inlineStr"/>
-      <c r="CS22" s="108" t="inlineStr"/>
-      <c r="CT22" s="108" t="inlineStr"/>
-      <c r="CU22" s="108" t="inlineStr"/>
-      <c r="CV22" s="108" t="inlineStr"/>
-      <c r="CW22" s="108" t="inlineStr"/>
-      <c r="CX22" s="108" t="inlineStr"/>
-      <c r="CY22" s="108" t="inlineStr"/>
-      <c r="CZ22" s="108" t="inlineStr"/>
-      <c r="DA22" s="108" t="inlineStr"/>
-      <c r="DB22" s="108" t="inlineStr"/>
-      <c r="DC22" s="108" t="inlineStr"/>
-      <c r="DD22" s="108" t="inlineStr"/>
-      <c r="DE22" s="108" t="inlineStr"/>
-      <c r="DF22" s="108" t="inlineStr"/>
-      <c r="DG22" s="108" t="inlineStr"/>
-      <c r="DH22" s="108" t="inlineStr"/>
-      <c r="DI22" s="108" t="inlineStr"/>
-      <c r="DJ22" s="108" t="inlineStr"/>
-      <c r="DK22" s="108" t="inlineStr"/>
-      <c r="DL22" s="108" t="inlineStr"/>
-      <c r="DM22" s="108" t="inlineStr"/>
-      <c r="DN22" s="108" t="inlineStr"/>
-      <c r="DO22" s="108" t="inlineStr"/>
-      <c r="DP22" s="108" t="inlineStr"/>
-      <c r="DQ22" s="108" t="inlineStr"/>
-      <c r="DR22" s="108" t="inlineStr"/>
-      <c r="DS22" s="108" t="inlineStr"/>
-      <c r="DT22" s="108" t="inlineStr"/>
-      <c r="DU22" s="108" t="inlineStr"/>
-      <c r="DV22" s="108" t="inlineStr"/>
-      <c r="DW22" s="108" t="inlineStr"/>
-      <c r="DX22" s="108" t="inlineStr"/>
-      <c r="DY22" s="108" t="inlineStr"/>
-      <c r="DZ22" s="108" t="inlineStr"/>
-      <c r="EA22" s="108" t="inlineStr"/>
-      <c r="EB22" s="108" t="inlineStr"/>
-      <c r="EC22" s="108" t="inlineStr"/>
-      <c r="ED22" s="108" t="inlineStr"/>
-      <c r="EE22" s="108" t="inlineStr"/>
-      <c r="EF22" s="108" t="inlineStr"/>
-      <c r="EG22" s="108" t="inlineStr"/>
-      <c r="EH22" s="108" t="inlineStr"/>
-      <c r="EI22" s="108" t="inlineStr"/>
-      <c r="EJ22" s="108" t="inlineStr"/>
-      <c r="EK22" s="108" t="inlineStr"/>
-      <c r="EL22" s="108" t="inlineStr"/>
-      <c r="EM22" s="108" t="inlineStr"/>
-      <c r="EN22" s="108" t="inlineStr"/>
-      <c r="EO22" s="108" t="inlineStr"/>
-      <c r="EP22" s="108" t="inlineStr"/>
-      <c r="EQ22" s="108" t="inlineStr"/>
-      <c r="ER22" s="108" t="inlineStr"/>
-      <c r="ES22" s="108" t="inlineStr"/>
-      <c r="ET22" s="108" t="inlineStr"/>
-      <c r="EU22" s="108" t="inlineStr"/>
-      <c r="EV22" s="108" t="inlineStr"/>
-      <c r="EW22" s="108" t="inlineStr"/>
-      <c r="EX22" s="108" t="inlineStr"/>
-      <c r="EY22" s="108" t="inlineStr"/>
-      <c r="EZ22" s="108" t="inlineStr"/>
-      <c r="FA22" s="108" t="inlineStr"/>
-      <c r="FB22" s="108" t="inlineStr"/>
-      <c r="FC22" s="108" t="inlineStr"/>
-      <c r="FD22" s="108" t="inlineStr"/>
-      <c r="FE22" s="108" t="inlineStr"/>
-      <c r="FF22" s="108" t="inlineStr"/>
-      <c r="FG22" s="108" t="inlineStr"/>
-      <c r="FH22" s="108" t="inlineStr"/>
-      <c r="FI22" s="108" t="inlineStr"/>
-      <c r="FJ22" s="108" t="inlineStr"/>
-      <c r="FK22" s="108" t="inlineStr"/>
-      <c r="FL22" s="108" t="inlineStr"/>
-      <c r="FM22" s="108" t="inlineStr"/>
-      <c r="FN22" s="108" t="inlineStr"/>
-      <c r="FO22" s="108" t="inlineStr"/>
-      <c r="FP22" s="108" t="inlineStr"/>
-      <c r="FQ22" s="108" t="inlineStr"/>
-      <c r="FR22" s="108" t="inlineStr"/>
-      <c r="FS22" s="108" t="inlineStr"/>
-      <c r="FT22" s="108" t="inlineStr"/>
-      <c r="FU22" s="108" t="inlineStr"/>
-      <c r="FV22" s="108" t="inlineStr"/>
-      <c r="FW22" s="108" t="inlineStr"/>
-      <c r="FX22" s="108" t="inlineStr"/>
-      <c r="FY22" s="108" t="inlineStr"/>
-      <c r="FZ22" s="108" t="inlineStr"/>
-      <c r="GA22" s="108" t="inlineStr"/>
-      <c r="GB22" s="108" t="inlineStr"/>
-      <c r="GC22" s="108" t="inlineStr"/>
-      <c r="GD22" s="108" t="inlineStr"/>
-      <c r="GE22" s="108" t="inlineStr"/>
-      <c r="GF22" s="108" t="inlineStr"/>
-      <c r="GG22" s="108" t="inlineStr"/>
-      <c r="GH22" s="108" t="inlineStr"/>
-      <c r="GI22" s="108" t="inlineStr"/>
-      <c r="GJ22" s="108" t="inlineStr"/>
-      <c r="GK22" s="108" t="inlineStr"/>
-      <c r="GL22" s="108" t="inlineStr"/>
-      <c r="GM22" s="108" t="inlineStr"/>
-      <c r="GN22" s="108" t="inlineStr"/>
-      <c r="GO22" s="108" t="inlineStr"/>
-      <c r="GP22" s="108" t="inlineStr"/>
-      <c r="GQ22" s="108" t="inlineStr"/>
-      <c r="GR22" s="108" t="inlineStr"/>
-      <c r="GS22" s="108" t="inlineStr"/>
-      <c r="GT22" s="108" t="inlineStr"/>
-      <c r="GU22" s="108" t="inlineStr"/>
-      <c r="GV22" s="108" t="inlineStr"/>
-      <c r="GW22" s="108" t="inlineStr"/>
-      <c r="GX22" s="108" t="inlineStr"/>
-      <c r="GY22" s="108" t="inlineStr"/>
-      <c r="GZ22" s="108" t="inlineStr"/>
-      <c r="HA22" s="108" t="inlineStr"/>
-      <c r="HB22" s="108" t="inlineStr"/>
-      <c r="HC22" s="108" t="inlineStr"/>
-      <c r="HD22" s="108" t="inlineStr"/>
-      <c r="HE22" s="108" t="inlineStr"/>
-      <c r="HF22" s="108" t="inlineStr"/>
-      <c r="HG22" s="108" t="inlineStr"/>
-      <c r="HH22" s="108" t="inlineStr"/>
-      <c r="HI22" s="108" t="inlineStr"/>
-      <c r="HJ22" s="108" t="inlineStr"/>
-      <c r="HK22" s="108" t="inlineStr"/>
-      <c r="HL22" s="108" t="inlineStr"/>
-      <c r="HM22" s="108" t="inlineStr"/>
-      <c r="HN22" s="108" t="inlineStr"/>
-      <c r="HO22" s="108" t="inlineStr"/>
-      <c r="HP22" s="108" t="inlineStr"/>
-      <c r="HQ22" s="108" t="inlineStr"/>
-      <c r="HR22" s="108" t="inlineStr"/>
-      <c r="HS22" s="108" t="inlineStr"/>
-      <c r="HT22" s="108" t="inlineStr"/>
-      <c r="HU22" s="108" t="inlineStr"/>
-      <c r="HV22" s="108" t="inlineStr"/>
-      <c r="HW22" s="108" t="inlineStr"/>
-      <c r="HX22" s="108" t="inlineStr"/>
-      <c r="HY22" s="108" t="inlineStr"/>
-      <c r="HZ22" s="108" t="inlineStr"/>
-      <c r="IA22" s="108" t="inlineStr"/>
-      <c r="IB22" s="108" t="inlineStr"/>
-      <c r="IC22" s="108" t="inlineStr"/>
-      <c r="ID22" s="108" t="inlineStr"/>
-      <c r="IE22" s="108" t="inlineStr"/>
-      <c r="IF22" s="108" t="inlineStr"/>
-      <c r="IG22" s="108" t="inlineStr"/>
-      <c r="IH22" s="108" t="inlineStr"/>
-      <c r="II22" s="108" t="inlineStr"/>
-      <c r="IJ22" s="108" t="inlineStr"/>
-      <c r="IK22" s="108" t="inlineStr"/>
-      <c r="IL22" s="108" t="inlineStr"/>
-      <c r="IM22" s="108" t="inlineStr"/>
-      <c r="IN22" s="108" t="inlineStr"/>
-      <c r="IO22" s="108" t="inlineStr"/>
-      <c r="IP22" s="108" t="inlineStr"/>
-      <c r="IQ22" s="108" t="inlineStr"/>
-      <c r="IR22" s="108" t="inlineStr"/>
-      <c r="IS22" s="108" t="inlineStr"/>
-      <c r="IT22" s="108" t="inlineStr"/>
-      <c r="IU22" s="108" t="inlineStr"/>
-      <c r="IV22" s="108" t="inlineStr"/>
-      <c r="IW22" s="108" t="inlineStr"/>
-      <c r="IX22" s="108" t="inlineStr"/>
-      <c r="IY22" s="108" t="inlineStr"/>
-      <c r="IZ22" s="108" t="inlineStr"/>
-      <c r="JA22" s="108" t="inlineStr"/>
-      <c r="JB22" s="108" t="inlineStr"/>
-      <c r="JC22" s="108" t="inlineStr"/>
-      <c r="JD22" s="108" t="inlineStr"/>
-      <c r="JE22" s="108" t="inlineStr"/>
-      <c r="JF22" s="108" t="inlineStr"/>
-      <c r="JG22" s="108" t="inlineStr"/>
-      <c r="JH22" s="108" t="inlineStr"/>
-      <c r="JI22" s="108" t="inlineStr"/>
-      <c r="JJ22" s="108" t="inlineStr"/>
-      <c r="JK22" s="108" t="inlineStr"/>
-      <c r="JL22" s="108" t="inlineStr"/>
-      <c r="JM22" s="108" t="inlineStr"/>
-      <c r="JN22" s="108" t="inlineStr"/>
-      <c r="JO22" s="108" t="inlineStr"/>
-      <c r="JP22" s="108" t="inlineStr"/>
-      <c r="JQ22" s="108" t="inlineStr"/>
-      <c r="JR22" s="108" t="inlineStr"/>
-      <c r="JS22" s="108" t="inlineStr"/>
-      <c r="JT22" s="108" t="inlineStr"/>
-      <c r="JU22" s="108" t="inlineStr"/>
-      <c r="JV22" s="108" t="inlineStr"/>
-      <c r="JW22" s="108" t="inlineStr"/>
-      <c r="JX22" s="108" t="inlineStr"/>
-      <c r="JY22" s="108" t="inlineStr"/>
-      <c r="JZ22" s="108" t="inlineStr"/>
-      <c r="KA22" s="108" t="inlineStr"/>
-      <c r="KB22" s="108" t="inlineStr"/>
-      <c r="KC22" s="108" t="inlineStr"/>
-      <c r="KD22" s="108" t="inlineStr"/>
-      <c r="KE22" s="108" t="inlineStr"/>
-      <c r="KF22" s="108" t="inlineStr"/>
-      <c r="KG22" s="108" t="inlineStr"/>
-      <c r="KH22" s="108" t="inlineStr"/>
-      <c r="KI22" s="108" t="inlineStr"/>
-      <c r="KJ22" s="108" t="inlineStr"/>
-      <c r="KK22" s="108" t="inlineStr"/>
-      <c r="KL22" s="108" t="inlineStr"/>
-      <c r="KM22" s="108" t="inlineStr"/>
-      <c r="KN22" s="108" t="inlineStr"/>
-      <c r="KO22" s="108" t="inlineStr"/>
-      <c r="KP22" s="108" t="inlineStr"/>
-      <c r="KQ22" s="108" t="inlineStr"/>
-      <c r="KR22" s="108" t="inlineStr"/>
-      <c r="KS22" s="108" t="inlineStr"/>
-      <c r="KT22" s="108" t="inlineStr"/>
-      <c r="KU22" s="108" t="inlineStr"/>
-      <c r="KV22" s="108" t="inlineStr"/>
-      <c r="KW22" s="108" t="inlineStr"/>
-      <c r="KX22" s="108" t="inlineStr"/>
-      <c r="KY22" s="108" t="inlineStr"/>
-      <c r="KZ22" s="108" t="inlineStr"/>
-      <c r="LA22" s="108" t="inlineStr"/>
-      <c r="LB22" s="108" t="inlineStr"/>
-      <c r="LC22" s="108" t="inlineStr"/>
-      <c r="LD22" s="108" t="inlineStr"/>
-      <c r="LE22" s="108" t="inlineStr"/>
-      <c r="LF22" s="108" t="inlineStr"/>
-      <c r="LG22" s="108" t="inlineStr"/>
-      <c r="LH22" s="108" t="inlineStr"/>
-      <c r="LI22" s="108" t="inlineStr"/>
-      <c r="LJ22" s="108" t="inlineStr"/>
-      <c r="LK22" s="108" t="inlineStr"/>
-      <c r="LL22" s="108" t="inlineStr"/>
-      <c r="LM22" s="108" t="inlineStr"/>
-      <c r="LN22" s="108" t="inlineStr"/>
-      <c r="LO22" s="108" t="inlineStr"/>
-      <c r="LP22" s="108" t="inlineStr"/>
-      <c r="LQ22" s="108" t="inlineStr"/>
-      <c r="LR22" s="108" t="inlineStr"/>
-      <c r="LS22" s="108" t="inlineStr"/>
-      <c r="LT22" s="108" t="inlineStr"/>
-      <c r="LU22" s="108" t="inlineStr"/>
-      <c r="LV22" s="108" t="inlineStr"/>
-      <c r="LW22" s="108" t="inlineStr"/>
-      <c r="LX22" s="108" t="inlineStr"/>
-      <c r="LY22" s="108" t="inlineStr"/>
-      <c r="LZ22" s="108" t="inlineStr"/>
-      <c r="MA22" s="108" t="inlineStr"/>
-      <c r="MB22" s="108" t="inlineStr"/>
-      <c r="MC22" s="108" t="inlineStr"/>
-      <c r="MD22" s="108" t="inlineStr"/>
-      <c r="ME22" s="108" t="inlineStr"/>
-      <c r="MF22" s="108" t="inlineStr"/>
-      <c r="MG22" s="108" t="inlineStr"/>
-      <c r="MH22" s="108" t="inlineStr"/>
-      <c r="MI22" s="108" t="inlineStr"/>
-      <c r="MJ22" s="108" t="inlineStr"/>
-      <c r="MK22" s="108" t="inlineStr"/>
-      <c r="ML22" s="108" t="inlineStr"/>
-      <c r="MM22" s="108" t="inlineStr"/>
-      <c r="MN22" s="108" t="inlineStr"/>
-      <c r="MO22" s="108" t="inlineStr"/>
-      <c r="MP22" s="108" t="inlineStr"/>
-      <c r="MQ22" s="108" t="inlineStr"/>
-      <c r="MR22" s="108" t="inlineStr"/>
-      <c r="MS22" s="108" t="inlineStr"/>
-      <c r="MT22" s="108" t="inlineStr"/>
-      <c r="MU22" s="108" t="inlineStr"/>
-      <c r="MV22" s="108" t="inlineStr"/>
-      <c r="MW22" s="108" t="inlineStr"/>
-      <c r="MX22" s="108" t="inlineStr"/>
-      <c r="MY22" s="108" t="inlineStr"/>
-      <c r="MZ22" s="108" t="inlineStr"/>
-      <c r="NA22" s="108" t="inlineStr"/>
-      <c r="NB22" s="108" t="inlineStr"/>
-      <c r="NC22" s="108" t="inlineStr"/>
-      <c r="ND22" s="108" t="inlineStr"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="110">
-      <c r="A23" s="108" t="inlineStr"/>
       <c r="B23" s="108" t="inlineStr">
         <is>
           <t>2. how many Gembas performed</t>
         </is>
       </c>
-      <c r="C23" s="108" t="inlineStr"/>
-      <c r="D23" s="108" t="inlineStr"/>
-      <c r="E23" s="108" t="inlineStr"/>
-      <c r="F23" s="108" t="inlineStr"/>
-      <c r="G23" s="108" t="inlineStr"/>
-      <c r="H23" s="108" t="inlineStr"/>
-      <c r="I23" s="108" t="inlineStr"/>
-      <c r="J23" s="108" t="inlineStr"/>
-      <c r="K23" s="108" t="inlineStr"/>
-      <c r="L23" s="108" t="inlineStr"/>
-      <c r="M23" s="108" t="inlineStr"/>
-      <c r="N23" s="108" t="inlineStr"/>
-      <c r="O23" s="108" t="inlineStr"/>
-      <c r="P23" s="108" t="inlineStr"/>
-      <c r="Q23" s="108" t="inlineStr"/>
-      <c r="R23" s="108" t="inlineStr"/>
-      <c r="S23" s="108" t="inlineStr"/>
-      <c r="T23" s="108" t="inlineStr"/>
-      <c r="U23" s="108" t="inlineStr"/>
-      <c r="V23" s="108" t="inlineStr"/>
-      <c r="W23" s="108" t="inlineStr"/>
-      <c r="X23" s="108" t="inlineStr"/>
-      <c r="Y23" s="108" t="inlineStr"/>
-      <c r="Z23" s="108" t="inlineStr"/>
-      <c r="AA23" s="108" t="inlineStr"/>
-      <c r="AB23" s="108" t="inlineStr"/>
-      <c r="AC23" s="108" t="inlineStr"/>
-      <c r="AD23" s="108" t="inlineStr"/>
-      <c r="AE23" s="108" t="inlineStr"/>
-      <c r="AF23" s="108" t="inlineStr"/>
-      <c r="AG23" s="108" t="inlineStr"/>
-      <c r="AH23" s="108" t="inlineStr"/>
-      <c r="AI23" s="108" t="inlineStr"/>
-      <c r="AJ23" s="108" t="inlineStr"/>
-      <c r="AK23" s="108" t="inlineStr"/>
-      <c r="AL23" s="108" t="inlineStr"/>
-      <c r="AM23" s="108" t="inlineStr"/>
-      <c r="AN23" s="108" t="inlineStr"/>
-      <c r="AO23" s="108" t="inlineStr"/>
-      <c r="AP23" s="108" t="inlineStr"/>
-      <c r="AQ23" s="108" t="inlineStr"/>
-      <c r="AR23" s="108" t="inlineStr"/>
-      <c r="AS23" s="108" t="inlineStr"/>
-      <c r="AT23" s="108" t="inlineStr"/>
-      <c r="AU23" s="108" t="inlineStr"/>
-      <c r="AV23" s="108" t="inlineStr"/>
-      <c r="AW23" s="108" t="inlineStr"/>
-      <c r="AX23" s="108" t="inlineStr"/>
-      <c r="AY23" s="108" t="inlineStr"/>
-      <c r="AZ23" s="108" t="inlineStr"/>
-      <c r="BA23" s="108" t="inlineStr"/>
-      <c r="BB23" s="108" t="inlineStr"/>
-      <c r="BC23" s="108" t="inlineStr"/>
-      <c r="BD23" s="108" t="inlineStr"/>
-      <c r="BE23" s="108" t="inlineStr"/>
-      <c r="BF23" s="108" t="inlineStr"/>
-      <c r="BG23" s="108" t="inlineStr"/>
-      <c r="BH23" s="108" t="inlineStr"/>
-      <c r="BI23" s="108" t="inlineStr"/>
-      <c r="BJ23" s="108" t="inlineStr"/>
-      <c r="BK23" s="108" t="inlineStr"/>
-      <c r="BL23" s="108" t="inlineStr"/>
-      <c r="BM23" s="108" t="inlineStr"/>
-      <c r="BN23" s="108" t="inlineStr"/>
-      <c r="BO23" s="108" t="inlineStr"/>
-      <c r="BP23" s="108" t="inlineStr"/>
-      <c r="BQ23" s="108" t="inlineStr"/>
-      <c r="BR23" s="108" t="inlineStr"/>
-      <c r="BS23" s="108" t="inlineStr"/>
-      <c r="BT23" s="108" t="inlineStr"/>
-      <c r="BU23" s="108" t="inlineStr"/>
-      <c r="BV23" s="108" t="inlineStr"/>
-      <c r="BW23" s="108" t="inlineStr"/>
-      <c r="BX23" s="108" t="inlineStr"/>
-      <c r="BY23" s="108" t="inlineStr"/>
-      <c r="BZ23" s="108" t="inlineStr"/>
-      <c r="CA23" s="108" t="inlineStr"/>
-      <c r="CB23" s="108" t="inlineStr"/>
-      <c r="CC23" s="108" t="inlineStr"/>
-      <c r="CD23" s="108" t="inlineStr"/>
-      <c r="CE23" s="108" t="inlineStr"/>
-      <c r="CF23" s="108" t="inlineStr"/>
-      <c r="CG23" s="108" t="inlineStr"/>
-      <c r="CH23" s="108" t="inlineStr"/>
-      <c r="CI23" s="108" t="inlineStr"/>
-      <c r="CJ23" s="108" t="inlineStr"/>
-      <c r="CK23" s="108" t="inlineStr"/>
-      <c r="CL23" s="108" t="inlineStr"/>
-      <c r="CM23" s="108" t="inlineStr"/>
-      <c r="CN23" s="108" t="inlineStr"/>
-      <c r="CO23" s="108" t="inlineStr"/>
-      <c r="CP23" s="108" t="inlineStr"/>
-      <c r="CQ23" s="108" t="inlineStr"/>
-      <c r="CR23" s="108" t="inlineStr"/>
-      <c r="CS23" s="108" t="inlineStr"/>
-      <c r="CT23" s="108" t="inlineStr"/>
-      <c r="CU23" s="108" t="inlineStr"/>
-      <c r="CV23" s="108" t="inlineStr"/>
-      <c r="CW23" s="108" t="inlineStr"/>
-      <c r="CX23" s="108" t="inlineStr"/>
-      <c r="CY23" s="108" t="inlineStr"/>
-      <c r="CZ23" s="108" t="inlineStr"/>
-      <c r="DA23" s="108" t="inlineStr"/>
-      <c r="DB23" s="108" t="inlineStr"/>
-      <c r="DC23" s="108" t="inlineStr"/>
-      <c r="DD23" s="108" t="inlineStr"/>
-      <c r="DE23" s="108" t="inlineStr"/>
-      <c r="DF23" s="108" t="inlineStr"/>
-      <c r="DG23" s="108" t="inlineStr"/>
-      <c r="DH23" s="108" t="inlineStr"/>
-      <c r="DI23" s="108" t="inlineStr"/>
-      <c r="DJ23" s="108" t="inlineStr"/>
-      <c r="DK23" s="108" t="inlineStr"/>
-      <c r="DL23" s="108" t="inlineStr"/>
-      <c r="DM23" s="108" t="inlineStr"/>
-      <c r="DN23" s="108" t="inlineStr"/>
-      <c r="DO23" s="108" t="inlineStr"/>
-      <c r="DP23" s="108" t="inlineStr"/>
-      <c r="DQ23" s="108" t="inlineStr"/>
-      <c r="DR23" s="108" t="inlineStr"/>
-      <c r="DS23" s="108" t="inlineStr"/>
-      <c r="DT23" s="108" t="inlineStr"/>
-      <c r="DU23" s="108" t="inlineStr"/>
-      <c r="DV23" s="108" t="inlineStr"/>
-      <c r="DW23" s="108" t="inlineStr"/>
-      <c r="DX23" s="108" t="inlineStr"/>
-      <c r="DY23" s="108" t="inlineStr"/>
-      <c r="DZ23" s="108" t="inlineStr"/>
-      <c r="EA23" s="108" t="inlineStr"/>
-      <c r="EB23" s="108" t="inlineStr"/>
-      <c r="EC23" s="108" t="inlineStr"/>
-      <c r="ED23" s="108" t="inlineStr"/>
-      <c r="EE23" s="108" t="inlineStr"/>
-      <c r="EF23" s="108" t="inlineStr"/>
-      <c r="EG23" s="108" t="inlineStr"/>
-      <c r="EH23" s="108" t="inlineStr"/>
-      <c r="EI23" s="108" t="inlineStr"/>
-      <c r="EJ23" s="108" t="inlineStr"/>
-      <c r="EK23" s="108" t="inlineStr"/>
-      <c r="EL23" s="108" t="inlineStr"/>
-      <c r="EM23" s="108" t="inlineStr"/>
-      <c r="EN23" s="108" t="inlineStr"/>
-      <c r="EO23" s="108" t="inlineStr"/>
-      <c r="EP23" s="108" t="inlineStr"/>
-      <c r="EQ23" s="108" t="inlineStr"/>
-      <c r="ER23" s="108" t="inlineStr"/>
-      <c r="ES23" s="108" t="inlineStr"/>
-      <c r="ET23" s="108" t="inlineStr"/>
-      <c r="EU23" s="108" t="inlineStr"/>
-      <c r="EV23" s="108" t="inlineStr"/>
-      <c r="EW23" s="108" t="inlineStr"/>
-      <c r="EX23" s="108" t="inlineStr"/>
-      <c r="EY23" s="108" t="inlineStr"/>
-      <c r="EZ23" s="108" t="inlineStr"/>
-      <c r="FA23" s="108" t="inlineStr"/>
-      <c r="FB23" s="108" t="inlineStr"/>
-      <c r="FC23" s="108" t="inlineStr"/>
-      <c r="FD23" s="108" t="inlineStr"/>
-      <c r="FE23" s="108" t="inlineStr"/>
-      <c r="FF23" s="108" t="inlineStr"/>
-      <c r="FG23" s="108" t="inlineStr"/>
-      <c r="FH23" s="108" t="inlineStr"/>
-      <c r="FI23" s="108" t="inlineStr"/>
-      <c r="FJ23" s="108" t="inlineStr"/>
-      <c r="FK23" s="108" t="inlineStr"/>
-      <c r="FL23" s="108" t="inlineStr"/>
-      <c r="FM23" s="108" t="inlineStr"/>
-      <c r="FN23" s="108" t="inlineStr"/>
-      <c r="FO23" s="108" t="inlineStr"/>
-      <c r="FP23" s="108" t="inlineStr"/>
-      <c r="FQ23" s="108" t="inlineStr"/>
-      <c r="FR23" s="108" t="inlineStr"/>
-      <c r="FS23" s="108" t="inlineStr"/>
-      <c r="FT23" s="108" t="inlineStr"/>
-      <c r="FU23" s="108" t="inlineStr"/>
-      <c r="FV23" s="108" t="inlineStr"/>
-      <c r="FW23" s="108" t="inlineStr"/>
-      <c r="FX23" s="108" t="inlineStr"/>
-      <c r="FY23" s="108" t="inlineStr"/>
-      <c r="FZ23" s="108" t="inlineStr"/>
-      <c r="GA23" s="108" t="inlineStr"/>
-      <c r="GB23" s="108" t="inlineStr"/>
-      <c r="GC23" s="108" t="inlineStr"/>
-      <c r="GD23" s="108" t="inlineStr"/>
-      <c r="GE23" s="108" t="inlineStr"/>
-      <c r="GF23" s="108" t="inlineStr"/>
-      <c r="GG23" s="108" t="inlineStr"/>
-      <c r="GH23" s="108" t="inlineStr"/>
-      <c r="GI23" s="108" t="inlineStr"/>
-      <c r="GJ23" s="108" t="inlineStr"/>
-      <c r="GK23" s="108" t="inlineStr"/>
-      <c r="GL23" s="108" t="inlineStr"/>
-      <c r="GM23" s="108" t="inlineStr"/>
-      <c r="GN23" s="108" t="inlineStr"/>
-      <c r="GO23" s="108" t="inlineStr"/>
-      <c r="GP23" s="108" t="inlineStr"/>
-      <c r="GQ23" s="108" t="inlineStr"/>
-      <c r="GR23" s="108" t="inlineStr"/>
-      <c r="GS23" s="108" t="inlineStr"/>
-      <c r="GT23" s="108" t="inlineStr"/>
-      <c r="GU23" s="108" t="inlineStr"/>
-      <c r="GV23" s="108" t="inlineStr"/>
-      <c r="GW23" s="108" t="inlineStr"/>
-      <c r="GX23" s="108" t="inlineStr"/>
-      <c r="GY23" s="108" t="inlineStr"/>
-      <c r="GZ23" s="108" t="inlineStr"/>
-      <c r="HA23" s="108" t="inlineStr"/>
-      <c r="HB23" s="108" t="inlineStr"/>
-      <c r="HC23" s="108" t="inlineStr"/>
-      <c r="HD23" s="108" t="inlineStr"/>
-      <c r="HE23" s="108" t="inlineStr"/>
-      <c r="HF23" s="108" t="inlineStr"/>
-      <c r="HG23" s="108" t="inlineStr"/>
-      <c r="HH23" s="108" t="inlineStr"/>
-      <c r="HI23" s="108" t="inlineStr"/>
-      <c r="HJ23" s="108" t="inlineStr"/>
-      <c r="HK23" s="108" t="inlineStr"/>
-      <c r="HL23" s="108" t="inlineStr"/>
-      <c r="HM23" s="108" t="inlineStr"/>
-      <c r="HN23" s="108" t="inlineStr"/>
-      <c r="HO23" s="108" t="inlineStr"/>
-      <c r="HP23" s="108" t="inlineStr"/>
-      <c r="HQ23" s="108" t="inlineStr"/>
-      <c r="HR23" s="108" t="inlineStr"/>
-      <c r="HS23" s="108" t="inlineStr"/>
-      <c r="HT23" s="108" t="inlineStr"/>
-      <c r="HU23" s="108" t="inlineStr"/>
-      <c r="HV23" s="108" t="inlineStr"/>
-      <c r="HW23" s="108" t="inlineStr"/>
-      <c r="HX23" s="108" t="inlineStr"/>
-      <c r="HY23" s="108" t="inlineStr"/>
-      <c r="HZ23" s="108" t="inlineStr"/>
-      <c r="IA23" s="108" t="inlineStr"/>
-      <c r="IB23" s="108" t="inlineStr"/>
-      <c r="IC23" s="108" t="inlineStr"/>
-      <c r="ID23" s="108" t="inlineStr"/>
-      <c r="IE23" s="108" t="inlineStr"/>
-      <c r="IF23" s="108" t="inlineStr"/>
-      <c r="IG23" s="108" t="inlineStr"/>
-      <c r="IH23" s="108" t="inlineStr"/>
-      <c r="II23" s="108" t="inlineStr"/>
-      <c r="IJ23" s="108" t="inlineStr"/>
-      <c r="IK23" s="108" t="inlineStr"/>
-      <c r="IL23" s="108" t="inlineStr"/>
-      <c r="IM23" s="108" t="inlineStr"/>
-      <c r="IN23" s="108" t="inlineStr"/>
-      <c r="IO23" s="108" t="inlineStr"/>
-      <c r="IP23" s="108" t="inlineStr"/>
-      <c r="IQ23" s="108" t="inlineStr"/>
-      <c r="IR23" s="108" t="inlineStr"/>
-      <c r="IS23" s="108" t="inlineStr"/>
-      <c r="IT23" s="108" t="inlineStr"/>
-      <c r="IU23" s="108" t="inlineStr"/>
-      <c r="IV23" s="108" t="inlineStr"/>
-      <c r="IW23" s="108" t="inlineStr"/>
-      <c r="IX23" s="108" t="inlineStr"/>
-      <c r="IY23" s="108" t="inlineStr"/>
-      <c r="IZ23" s="108" t="inlineStr"/>
-      <c r="JA23" s="108" t="inlineStr"/>
-      <c r="JB23" s="108" t="inlineStr"/>
-      <c r="JC23" s="108" t="inlineStr"/>
-      <c r="JD23" s="108" t="inlineStr"/>
-      <c r="JE23" s="108" t="inlineStr"/>
-      <c r="JF23" s="108" t="inlineStr"/>
-      <c r="JG23" s="108" t="inlineStr"/>
-      <c r="JH23" s="108" t="inlineStr"/>
-      <c r="JI23" s="108" t="inlineStr"/>
-      <c r="JJ23" s="108" t="inlineStr"/>
-      <c r="JK23" s="108" t="inlineStr"/>
-      <c r="JL23" s="108" t="inlineStr"/>
-      <c r="JM23" s="108" t="inlineStr"/>
-      <c r="JN23" s="108" t="inlineStr"/>
-      <c r="JO23" s="108" t="inlineStr"/>
-      <c r="JP23" s="108" t="inlineStr"/>
-      <c r="JQ23" s="108" t="inlineStr"/>
-      <c r="JR23" s="108" t="inlineStr"/>
-      <c r="JS23" s="108" t="inlineStr"/>
-      <c r="JT23" s="108" t="inlineStr"/>
-      <c r="JU23" s="108" t="inlineStr"/>
-      <c r="JV23" s="108" t="inlineStr"/>
-      <c r="JW23" s="108" t="inlineStr"/>
-      <c r="JX23" s="108" t="inlineStr"/>
-      <c r="JY23" s="108" t="inlineStr"/>
-      <c r="JZ23" s="108" t="inlineStr"/>
-      <c r="KA23" s="108" t="inlineStr"/>
-      <c r="KB23" s="108" t="inlineStr"/>
-      <c r="KC23" s="108" t="inlineStr"/>
-      <c r="KD23" s="108" t="inlineStr"/>
-      <c r="KE23" s="108" t="inlineStr"/>
-      <c r="KF23" s="108" t="inlineStr"/>
-      <c r="KG23" s="108" t="inlineStr"/>
-      <c r="KH23" s="108" t="inlineStr"/>
-      <c r="KI23" s="108" t="inlineStr"/>
-      <c r="KJ23" s="108" t="inlineStr"/>
-      <c r="KK23" s="108" t="inlineStr"/>
-      <c r="KL23" s="108" t="inlineStr"/>
-      <c r="KM23" s="108" t="inlineStr"/>
-      <c r="KN23" s="108" t="inlineStr"/>
-      <c r="KO23" s="108" t="inlineStr"/>
-      <c r="KP23" s="108" t="inlineStr"/>
-      <c r="KQ23" s="108" t="inlineStr"/>
-      <c r="KR23" s="108" t="inlineStr"/>
-      <c r="KS23" s="108" t="inlineStr"/>
-      <c r="KT23" s="108" t="inlineStr"/>
-      <c r="KU23" s="108" t="inlineStr"/>
-      <c r="KV23" s="108" t="inlineStr"/>
-      <c r="KW23" s="108" t="inlineStr"/>
-      <c r="KX23" s="108" t="inlineStr"/>
-      <c r="KY23" s="108" t="inlineStr"/>
-      <c r="KZ23" s="108" t="inlineStr"/>
-      <c r="LA23" s="108" t="inlineStr"/>
-      <c r="LB23" s="108" t="inlineStr"/>
-      <c r="LC23" s="108" t="inlineStr"/>
-      <c r="LD23" s="108" t="inlineStr"/>
-      <c r="LE23" s="108" t="inlineStr"/>
-      <c r="LF23" s="108" t="inlineStr"/>
-      <c r="LG23" s="108" t="inlineStr"/>
-      <c r="LH23" s="108" t="inlineStr"/>
-      <c r="LI23" s="108" t="inlineStr"/>
-      <c r="LJ23" s="108" t="inlineStr"/>
-      <c r="LK23" s="108" t="inlineStr"/>
-      <c r="LL23" s="108" t="inlineStr"/>
-      <c r="LM23" s="108" t="inlineStr"/>
-      <c r="LN23" s="108" t="inlineStr"/>
-      <c r="LO23" s="108" t="inlineStr"/>
-      <c r="LP23" s="108" t="inlineStr"/>
-      <c r="LQ23" s="108" t="inlineStr"/>
-      <c r="LR23" s="108" t="inlineStr"/>
-      <c r="LS23" s="108" t="inlineStr"/>
-      <c r="LT23" s="108" t="inlineStr"/>
-      <c r="LU23" s="108" t="inlineStr"/>
-      <c r="LV23" s="108" t="inlineStr"/>
-      <c r="LW23" s="108" t="inlineStr"/>
-      <c r="LX23" s="108" t="inlineStr"/>
-      <c r="LY23" s="108" t="inlineStr"/>
-      <c r="LZ23" s="108" t="inlineStr"/>
-      <c r="MA23" s="108" t="inlineStr"/>
-      <c r="MB23" s="108" t="inlineStr"/>
-      <c r="MC23" s="108" t="inlineStr"/>
-      <c r="MD23" s="108" t="inlineStr"/>
-      <c r="ME23" s="108" t="inlineStr"/>
-      <c r="MF23" s="108" t="inlineStr"/>
-      <c r="MG23" s="108" t="inlineStr"/>
-      <c r="MH23" s="108" t="inlineStr"/>
-      <c r="MI23" s="108" t="inlineStr"/>
-      <c r="MJ23" s="108" t="inlineStr"/>
-      <c r="MK23" s="108" t="inlineStr"/>
-      <c r="ML23" s="108" t="inlineStr"/>
-      <c r="MM23" s="108" t="inlineStr"/>
-      <c r="MN23" s="108" t="inlineStr"/>
-      <c r="MO23" s="108" t="inlineStr"/>
-      <c r="MP23" s="108" t="inlineStr"/>
-      <c r="MQ23" s="108" t="inlineStr"/>
-      <c r="MR23" s="108" t="inlineStr"/>
-      <c r="MS23" s="108" t="inlineStr"/>
-      <c r="MT23" s="108" t="inlineStr"/>
-      <c r="MU23" s="108" t="inlineStr"/>
-      <c r="MV23" s="108" t="inlineStr"/>
-      <c r="MW23" s="108" t="inlineStr"/>
-      <c r="MX23" s="108" t="inlineStr"/>
-      <c r="MY23" s="108" t="inlineStr"/>
-      <c r="MZ23" s="108" t="inlineStr"/>
-      <c r="NA23" s="108" t="inlineStr"/>
-      <c r="NB23" s="108" t="inlineStr"/>
-      <c r="NC23" s="108" t="inlineStr"/>
-      <c r="ND23" s="108" t="inlineStr"/>
     </row>
     <row r="24" ht="15" customHeight="1" s="110">
-      <c r="A24" s="108" t="inlineStr"/>
       <c r="B24" s="108" t="inlineStr">
         <is>
           <t>3. How may days from last boxing area work injuries</t>
         </is>
       </c>
-      <c r="C24" s="108" t="inlineStr"/>
-      <c r="D24" s="108" t="inlineStr"/>
-      <c r="E24" s="108" t="inlineStr"/>
-      <c r="F24" s="108" t="inlineStr"/>
-      <c r="G24" s="108" t="inlineStr"/>
-      <c r="H24" s="108" t="inlineStr"/>
-      <c r="I24" s="108" t="inlineStr"/>
-      <c r="J24" s="108" t="inlineStr"/>
-      <c r="K24" s="108" t="inlineStr"/>
-      <c r="L24" s="108" t="inlineStr"/>
-      <c r="M24" s="108" t="inlineStr"/>
-      <c r="N24" s="108" t="inlineStr"/>
-      <c r="O24" s="108" t="inlineStr"/>
-      <c r="P24" s="108" t="inlineStr"/>
-      <c r="Q24" s="108" t="inlineStr"/>
-      <c r="R24" s="108" t="inlineStr"/>
-      <c r="S24" s="108" t="inlineStr"/>
-      <c r="T24" s="108" t="inlineStr"/>
-      <c r="U24" s="108" t="inlineStr"/>
-      <c r="V24" s="108" t="inlineStr"/>
-      <c r="W24" s="108" t="inlineStr"/>
-      <c r="X24" s="108" t="inlineStr"/>
-      <c r="Y24" s="108" t="inlineStr"/>
-      <c r="Z24" s="108" t="inlineStr"/>
-      <c r="AA24" s="108" t="inlineStr"/>
-      <c r="AB24" s="108" t="inlineStr"/>
-      <c r="AC24" s="108" t="inlineStr"/>
-      <c r="AD24" s="108" t="inlineStr"/>
-      <c r="AE24" s="108" t="inlineStr"/>
-      <c r="AF24" s="108" t="inlineStr"/>
-      <c r="AG24" s="108" t="inlineStr"/>
-      <c r="AH24" s="108" t="inlineStr"/>
-      <c r="AI24" s="108" t="inlineStr"/>
-      <c r="AJ24" s="108" t="inlineStr"/>
-      <c r="AK24" s="108" t="inlineStr"/>
-      <c r="AL24" s="108" t="inlineStr"/>
-      <c r="AM24" s="108" t="inlineStr"/>
-      <c r="AN24" s="108" t="inlineStr"/>
-      <c r="AO24" s="108" t="inlineStr"/>
-      <c r="AP24" s="108" t="inlineStr"/>
-      <c r="AQ24" s="108" t="inlineStr"/>
-      <c r="AR24" s="108" t="inlineStr"/>
-      <c r="AS24" s="108" t="inlineStr"/>
-      <c r="AT24" s="108" t="inlineStr"/>
-      <c r="AU24" s="108" t="inlineStr"/>
-      <c r="AV24" s="108" t="inlineStr"/>
-      <c r="AW24" s="108" t="inlineStr"/>
-      <c r="AX24" s="108" t="inlineStr"/>
-      <c r="AY24" s="108" t="inlineStr"/>
-      <c r="AZ24" s="108" t="inlineStr"/>
-      <c r="BA24" s="108" t="inlineStr"/>
-      <c r="BB24" s="108" t="inlineStr"/>
-      <c r="BC24" s="108" t="inlineStr"/>
-      <c r="BD24" s="108" t="inlineStr"/>
-      <c r="BE24" s="108" t="inlineStr"/>
-      <c r="BF24" s="108" t="inlineStr"/>
-      <c r="BG24" s="108" t="inlineStr"/>
-      <c r="BH24" s="108" t="inlineStr"/>
-      <c r="BI24" s="108" t="inlineStr"/>
-      <c r="BJ24" s="108" t="inlineStr"/>
-      <c r="BK24" s="108" t="inlineStr"/>
-      <c r="BL24" s="108" t="inlineStr"/>
-      <c r="BM24" s="108" t="inlineStr"/>
-      <c r="BN24" s="108" t="inlineStr"/>
-      <c r="BO24" s="108" t="inlineStr"/>
-      <c r="BP24" s="108" t="inlineStr"/>
-      <c r="BQ24" s="108" t="inlineStr"/>
-      <c r="BR24" s="108" t="inlineStr"/>
-      <c r="BS24" s="108" t="inlineStr"/>
-      <c r="BT24" s="108" t="inlineStr"/>
-      <c r="BU24" s="108" t="inlineStr"/>
-      <c r="BV24" s="108" t="inlineStr"/>
-      <c r="BW24" s="108" t="inlineStr"/>
-      <c r="BX24" s="108" t="inlineStr"/>
-      <c r="BY24" s="108" t="inlineStr"/>
-      <c r="BZ24" s="108" t="inlineStr"/>
-      <c r="CA24" s="108" t="inlineStr"/>
-      <c r="CB24" s="108" t="inlineStr"/>
-      <c r="CC24" s="108" t="inlineStr"/>
-      <c r="CD24" s="108" t="inlineStr"/>
-      <c r="CE24" s="108" t="inlineStr"/>
-      <c r="CF24" s="108" t="inlineStr"/>
-      <c r="CG24" s="108" t="inlineStr"/>
-      <c r="CH24" s="108" t="inlineStr"/>
-      <c r="CI24" s="108" t="inlineStr"/>
-      <c r="CJ24" s="108" t="inlineStr"/>
-      <c r="CK24" s="108" t="inlineStr"/>
-      <c r="CL24" s="108" t="inlineStr"/>
-      <c r="CM24" s="108" t="inlineStr"/>
-      <c r="CN24" s="108" t="inlineStr"/>
-      <c r="CO24" s="108" t="inlineStr"/>
-      <c r="CP24" s="108" t="inlineStr"/>
-      <c r="CQ24" s="108" t="inlineStr"/>
-      <c r="CR24" s="108" t="inlineStr"/>
-      <c r="CS24" s="108" t="inlineStr"/>
-      <c r="CT24" s="108" t="inlineStr"/>
-      <c r="CU24" s="108" t="inlineStr"/>
-      <c r="CV24" s="108" t="inlineStr"/>
-      <c r="CW24" s="108" t="inlineStr"/>
-      <c r="CX24" s="108" t="inlineStr"/>
-      <c r="CY24" s="108" t="inlineStr"/>
-      <c r="CZ24" s="108" t="inlineStr"/>
-      <c r="DA24" s="108" t="inlineStr"/>
-      <c r="DB24" s="108" t="inlineStr"/>
-      <c r="DC24" s="108" t="inlineStr"/>
-      <c r="DD24" s="108" t="inlineStr"/>
-      <c r="DE24" s="108" t="inlineStr"/>
-      <c r="DF24" s="108" t="inlineStr"/>
-      <c r="DG24" s="108" t="inlineStr"/>
-      <c r="DH24" s="108" t="inlineStr"/>
-      <c r="DI24" s="108" t="inlineStr"/>
-      <c r="DJ24" s="108" t="inlineStr"/>
-      <c r="DK24" s="108" t="inlineStr"/>
-      <c r="DL24" s="108" t="inlineStr"/>
-      <c r="DM24" s="108" t="inlineStr"/>
-      <c r="DN24" s="108" t="inlineStr"/>
-      <c r="DO24" s="108" t="inlineStr"/>
-      <c r="DP24" s="108" t="inlineStr"/>
-      <c r="DQ24" s="108" t="inlineStr"/>
-      <c r="DR24" s="108" t="inlineStr"/>
-      <c r="DS24" s="108" t="inlineStr"/>
-      <c r="DT24" s="108" t="inlineStr"/>
-      <c r="DU24" s="108" t="inlineStr"/>
-      <c r="DV24" s="108" t="inlineStr"/>
-      <c r="DW24" s="108" t="inlineStr"/>
-      <c r="DX24" s="108" t="inlineStr"/>
-      <c r="DY24" s="108" t="inlineStr"/>
-      <c r="DZ24" s="108" t="inlineStr"/>
-      <c r="EA24" s="108" t="inlineStr"/>
-      <c r="EB24" s="108" t="inlineStr"/>
-      <c r="EC24" s="108" t="inlineStr"/>
-      <c r="ED24" s="108" t="inlineStr"/>
-      <c r="EE24" s="108" t="inlineStr"/>
-      <c r="EF24" s="108" t="inlineStr"/>
-      <c r="EG24" s="108" t="inlineStr"/>
-      <c r="EH24" s="108" t="inlineStr"/>
-      <c r="EI24" s="108" t="inlineStr"/>
-      <c r="EJ24" s="108" t="inlineStr"/>
-      <c r="EK24" s="108" t="inlineStr"/>
-      <c r="EL24" s="108" t="inlineStr"/>
-      <c r="EM24" s="108" t="inlineStr"/>
-      <c r="EN24" s="108" t="inlineStr"/>
-      <c r="EO24" s="108" t="inlineStr"/>
-      <c r="EP24" s="108" t="inlineStr"/>
-      <c r="EQ24" s="108" t="inlineStr"/>
-      <c r="ER24" s="108" t="inlineStr"/>
-      <c r="ES24" s="108" t="inlineStr"/>
-      <c r="ET24" s="108" t="inlineStr"/>
-      <c r="EU24" s="108" t="inlineStr"/>
-      <c r="EV24" s="108" t="inlineStr"/>
-      <c r="EW24" s="108" t="inlineStr"/>
-      <c r="EX24" s="108" t="inlineStr"/>
-      <c r="EY24" s="108" t="inlineStr"/>
-      <c r="EZ24" s="108" t="inlineStr"/>
-      <c r="FA24" s="108" t="inlineStr"/>
-      <c r="FB24" s="108" t="inlineStr"/>
-      <c r="FC24" s="108" t="inlineStr"/>
-      <c r="FD24" s="108" t="inlineStr"/>
-      <c r="FE24" s="108" t="inlineStr"/>
-      <c r="FF24" s="108" t="inlineStr"/>
-      <c r="FG24" s="108" t="inlineStr"/>
-      <c r="FH24" s="108" t="inlineStr"/>
-      <c r="FI24" s="108" t="inlineStr"/>
-      <c r="FJ24" s="108" t="inlineStr"/>
-      <c r="FK24" s="108" t="inlineStr"/>
-      <c r="FL24" s="108" t="inlineStr"/>
-      <c r="FM24" s="108" t="inlineStr"/>
-      <c r="FN24" s="108" t="inlineStr"/>
-      <c r="FO24" s="108" t="inlineStr"/>
-      <c r="FP24" s="108" t="inlineStr"/>
-      <c r="FQ24" s="108" t="inlineStr"/>
-      <c r="FR24" s="108" t="inlineStr"/>
-      <c r="FS24" s="108" t="inlineStr"/>
-      <c r="FT24" s="108" t="inlineStr"/>
-      <c r="FU24" s="108" t="inlineStr"/>
-      <c r="FV24" s="108" t="inlineStr"/>
-      <c r="FW24" s="108" t="inlineStr"/>
-      <c r="FX24" s="108" t="inlineStr"/>
-      <c r="FY24" s="108" t="inlineStr"/>
-      <c r="FZ24" s="108" t="inlineStr"/>
-      <c r="GA24" s="108" t="inlineStr"/>
-      <c r="GB24" s="108" t="inlineStr"/>
-      <c r="GC24" s="108" t="inlineStr"/>
-      <c r="GD24" s="108" t="inlineStr"/>
-      <c r="GE24" s="108" t="inlineStr"/>
-      <c r="GF24" s="108" t="inlineStr"/>
-      <c r="GG24" s="108" t="inlineStr"/>
-      <c r="GH24" s="108" t="inlineStr"/>
-      <c r="GI24" s="108" t="inlineStr"/>
-      <c r="GJ24" s="108" t="inlineStr"/>
-      <c r="GK24" s="108" t="inlineStr"/>
-      <c r="GL24" s="108" t="inlineStr"/>
-      <c r="GM24" s="108" t="inlineStr"/>
-      <c r="GN24" s="108" t="inlineStr"/>
-      <c r="GO24" s="108" t="inlineStr"/>
-      <c r="GP24" s="108" t="inlineStr"/>
-      <c r="GQ24" s="108" t="inlineStr"/>
-      <c r="GR24" s="108" t="inlineStr"/>
-      <c r="GS24" s="108" t="inlineStr"/>
-      <c r="GT24" s="108" t="inlineStr"/>
-      <c r="GU24" s="108" t="inlineStr"/>
-      <c r="GV24" s="108" t="inlineStr"/>
-      <c r="GW24" s="108" t="inlineStr"/>
-      <c r="GX24" s="108" t="inlineStr"/>
-      <c r="GY24" s="108" t="inlineStr"/>
-      <c r="GZ24" s="108" t="inlineStr"/>
-      <c r="HA24" s="108" t="inlineStr"/>
-      <c r="HB24" s="108" t="inlineStr"/>
-      <c r="HC24" s="108" t="inlineStr"/>
-      <c r="HD24" s="108" t="inlineStr"/>
-      <c r="HE24" s="108" t="inlineStr"/>
-      <c r="HF24" s="108" t="inlineStr"/>
-      <c r="HG24" s="108" t="inlineStr"/>
-      <c r="HH24" s="108" t="inlineStr"/>
-      <c r="HI24" s="108" t="inlineStr"/>
-      <c r="HJ24" s="108" t="inlineStr"/>
-      <c r="HK24" s="108" t="inlineStr"/>
-      <c r="HL24" s="108" t="inlineStr"/>
-      <c r="HM24" s="108" t="inlineStr"/>
-      <c r="HN24" s="108" t="inlineStr"/>
-      <c r="HO24" s="108" t="inlineStr"/>
-      <c r="HP24" s="108" t="inlineStr"/>
-      <c r="HQ24" s="108" t="inlineStr"/>
-      <c r="HR24" s="108" t="inlineStr"/>
-      <c r="HS24" s="108" t="inlineStr"/>
-      <c r="HT24" s="108" t="inlineStr"/>
-      <c r="HU24" s="108" t="inlineStr"/>
-      <c r="HV24" s="108" t="inlineStr"/>
-      <c r="HW24" s="108" t="inlineStr"/>
-      <c r="HX24" s="108" t="inlineStr"/>
-      <c r="HY24" s="108" t="inlineStr"/>
-      <c r="HZ24" s="108" t="inlineStr"/>
-      <c r="IA24" s="108" t="inlineStr"/>
-      <c r="IB24" s="108" t="inlineStr"/>
-      <c r="IC24" s="108" t="inlineStr"/>
-      <c r="ID24" s="108" t="inlineStr"/>
-      <c r="IE24" s="108" t="inlineStr"/>
-      <c r="IF24" s="108" t="inlineStr"/>
-      <c r="IG24" s="108" t="inlineStr"/>
-      <c r="IH24" s="108" t="inlineStr"/>
-      <c r="II24" s="108" t="inlineStr"/>
-      <c r="IJ24" s="108" t="inlineStr"/>
-      <c r="IK24" s="108" t="inlineStr"/>
-      <c r="IL24" s="108" t="inlineStr"/>
-      <c r="IM24" s="108" t="inlineStr"/>
-      <c r="IN24" s="108" t="inlineStr"/>
-      <c r="IO24" s="108" t="inlineStr"/>
-      <c r="IP24" s="108" t="inlineStr"/>
-      <c r="IQ24" s="108" t="inlineStr"/>
-      <c r="IR24" s="108" t="inlineStr"/>
-      <c r="IS24" s="108" t="inlineStr"/>
-      <c r="IT24" s="108" t="inlineStr"/>
-      <c r="IU24" s="108" t="inlineStr"/>
-      <c r="IV24" s="108" t="inlineStr"/>
-      <c r="IW24" s="108" t="inlineStr"/>
-      <c r="IX24" s="108" t="inlineStr"/>
-      <c r="IY24" s="108" t="inlineStr"/>
-      <c r="IZ24" s="108" t="inlineStr"/>
-      <c r="JA24" s="108" t="inlineStr"/>
-      <c r="JB24" s="108" t="inlineStr"/>
-      <c r="JC24" s="108" t="inlineStr"/>
-      <c r="JD24" s="108" t="inlineStr"/>
-      <c r="JE24" s="108" t="inlineStr"/>
-      <c r="JF24" s="108" t="inlineStr"/>
-      <c r="JG24" s="108" t="inlineStr"/>
-      <c r="JH24" s="108" t="inlineStr"/>
-      <c r="JI24" s="108" t="inlineStr"/>
-      <c r="JJ24" s="108" t="inlineStr"/>
-      <c r="JK24" s="108" t="inlineStr"/>
-      <c r="JL24" s="108" t="inlineStr"/>
-      <c r="JM24" s="108" t="inlineStr"/>
-      <c r="JN24" s="108" t="inlineStr"/>
-      <c r="JO24" s="108" t="inlineStr"/>
-      <c r="JP24" s="108" t="inlineStr"/>
-      <c r="JQ24" s="108" t="inlineStr"/>
-      <c r="JR24" s="108" t="inlineStr"/>
-      <c r="JS24" s="108" t="inlineStr"/>
-      <c r="JT24" s="108" t="inlineStr"/>
-      <c r="JU24" s="108" t="inlineStr"/>
-      <c r="JV24" s="108" t="inlineStr"/>
-      <c r="JW24" s="108" t="inlineStr"/>
-      <c r="JX24" s="108" t="inlineStr"/>
-      <c r="JY24" s="108" t="inlineStr"/>
-      <c r="JZ24" s="108" t="inlineStr"/>
-      <c r="KA24" s="108" t="inlineStr"/>
-      <c r="KB24" s="108" t="inlineStr"/>
-      <c r="KC24" s="108" t="inlineStr"/>
-      <c r="KD24" s="108" t="inlineStr"/>
-      <c r="KE24" s="108" t="inlineStr"/>
-      <c r="KF24" s="108" t="inlineStr"/>
-      <c r="KG24" s="108" t="inlineStr"/>
-      <c r="KH24" s="108" t="inlineStr"/>
-      <c r="KI24" s="108" t="inlineStr"/>
-      <c r="KJ24" s="108" t="inlineStr"/>
-      <c r="KK24" s="108" t="inlineStr"/>
-      <c r="KL24" s="108" t="inlineStr"/>
-      <c r="KM24" s="108" t="inlineStr"/>
-      <c r="KN24" s="108" t="inlineStr"/>
-      <c r="KO24" s="108" t="inlineStr"/>
-      <c r="KP24" s="108" t="inlineStr"/>
-      <c r="KQ24" s="108" t="inlineStr"/>
-      <c r="KR24" s="108" t="inlineStr"/>
-      <c r="KS24" s="108" t="inlineStr"/>
-      <c r="KT24" s="108" t="inlineStr"/>
-      <c r="KU24" s="108" t="inlineStr"/>
-      <c r="KV24" s="108" t="inlineStr"/>
-      <c r="KW24" s="108" t="inlineStr"/>
-      <c r="KX24" s="108" t="inlineStr"/>
-      <c r="KY24" s="108" t="inlineStr"/>
-      <c r="KZ24" s="108" t="inlineStr"/>
-      <c r="LA24" s="108" t="inlineStr"/>
-      <c r="LB24" s="108" t="inlineStr"/>
-      <c r="LC24" s="108" t="inlineStr"/>
-      <c r="LD24" s="108" t="inlineStr"/>
-      <c r="LE24" s="108" t="inlineStr"/>
-      <c r="LF24" s="108" t="inlineStr"/>
-      <c r="LG24" s="108" t="inlineStr"/>
-      <c r="LH24" s="108" t="inlineStr"/>
-      <c r="LI24" s="108" t="inlineStr"/>
-      <c r="LJ24" s="108" t="inlineStr"/>
-      <c r="LK24" s="108" t="inlineStr"/>
-      <c r="LL24" s="108" t="inlineStr"/>
-      <c r="LM24" s="108" t="inlineStr"/>
-      <c r="LN24" s="108" t="inlineStr"/>
-      <c r="LO24" s="108" t="inlineStr"/>
-      <c r="LP24" s="108" t="inlineStr"/>
-      <c r="LQ24" s="108" t="inlineStr"/>
-      <c r="LR24" s="108" t="inlineStr"/>
-      <c r="LS24" s="108" t="inlineStr"/>
-      <c r="LT24" s="108" t="inlineStr"/>
-      <c r="LU24" s="108" t="inlineStr"/>
-      <c r="LV24" s="108" t="inlineStr"/>
-      <c r="LW24" s="108" t="inlineStr"/>
-      <c r="LX24" s="108" t="inlineStr"/>
-      <c r="LY24" s="108" t="inlineStr"/>
-      <c r="LZ24" s="108" t="inlineStr"/>
-      <c r="MA24" s="108" t="inlineStr"/>
-      <c r="MB24" s="108" t="inlineStr"/>
-      <c r="MC24" s="108" t="inlineStr"/>
-      <c r="MD24" s="108" t="inlineStr"/>
-      <c r="ME24" s="108" t="inlineStr"/>
-      <c r="MF24" s="108" t="inlineStr"/>
-      <c r="MG24" s="108" t="inlineStr"/>
-      <c r="MH24" s="108" t="inlineStr"/>
-      <c r="MI24" s="108" t="inlineStr"/>
-      <c r="MJ24" s="108" t="inlineStr"/>
-      <c r="MK24" s="108" t="inlineStr"/>
-      <c r="ML24" s="108" t="inlineStr"/>
-      <c r="MM24" s="108" t="inlineStr"/>
-      <c r="MN24" s="108" t="inlineStr"/>
-      <c r="MO24" s="108" t="inlineStr"/>
-      <c r="MP24" s="108" t="inlineStr"/>
-      <c r="MQ24" s="108" t="inlineStr"/>
-      <c r="MR24" s="108" t="inlineStr"/>
-      <c r="MS24" s="108" t="inlineStr"/>
-      <c r="MT24" s="108" t="inlineStr"/>
-      <c r="MU24" s="108" t="inlineStr"/>
-      <c r="MV24" s="108" t="inlineStr"/>
-      <c r="MW24" s="108" t="inlineStr"/>
-      <c r="MX24" s="108" t="inlineStr"/>
-      <c r="MY24" s="108" t="inlineStr"/>
-      <c r="MZ24" s="108" t="inlineStr"/>
-      <c r="NA24" s="108" t="inlineStr"/>
-      <c r="NB24" s="108" t="inlineStr"/>
-      <c r="NC24" s="108" t="inlineStr"/>
-      <c r="ND24" s="108" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="110">
-      <c r="A25" s="108" t="inlineStr"/>
       <c r="B25" s="108" t="inlineStr">
         <is>
           <t>4. Who has PTO when</t>
         </is>
       </c>
-      <c r="C25" s="108" t="inlineStr"/>
-      <c r="D25" s="108" t="inlineStr"/>
-      <c r="E25" s="108" t="inlineStr"/>
-      <c r="F25" s="108" t="inlineStr"/>
-      <c r="G25" s="108" t="inlineStr"/>
-      <c r="H25" s="108" t="inlineStr"/>
-      <c r="I25" s="108" t="inlineStr"/>
-      <c r="J25" s="108" t="inlineStr"/>
-      <c r="K25" s="108" t="inlineStr"/>
-      <c r="L25" s="108" t="inlineStr"/>
-      <c r="M25" s="108" t="inlineStr"/>
-      <c r="N25" s="108" t="inlineStr"/>
-      <c r="O25" s="108" t="inlineStr"/>
-      <c r="P25" s="108" t="inlineStr"/>
-      <c r="Q25" s="108" t="inlineStr"/>
-      <c r="R25" s="108" t="inlineStr"/>
-      <c r="S25" s="108" t="inlineStr"/>
-      <c r="T25" s="108" t="inlineStr"/>
-      <c r="U25" s="108" t="inlineStr"/>
-      <c r="V25" s="108" t="inlineStr"/>
-      <c r="W25" s="108" t="inlineStr"/>
-      <c r="X25" s="108" t="inlineStr"/>
-      <c r="Y25" s="108" t="inlineStr"/>
-      <c r="Z25" s="108" t="inlineStr"/>
-      <c r="AA25" s="108" t="inlineStr"/>
-      <c r="AB25" s="108" t="inlineStr"/>
-      <c r="AC25" s="108" t="inlineStr"/>
-      <c r="AD25" s="108" t="inlineStr"/>
-      <c r="AE25" s="108" t="inlineStr"/>
-      <c r="AF25" s="108" t="inlineStr"/>
-      <c r="AG25" s="108" t="inlineStr"/>
-      <c r="AH25" s="108" t="inlineStr"/>
-      <c r="AI25" s="108" t="inlineStr"/>
-      <c r="AJ25" s="108" t="inlineStr"/>
-      <c r="AK25" s="108" t="inlineStr"/>
-      <c r="AL25" s="108" t="inlineStr"/>
-      <c r="AM25" s="108" t="inlineStr"/>
-      <c r="AN25" s="108" t="inlineStr"/>
-      <c r="AO25" s="108" t="inlineStr"/>
-      <c r="AP25" s="108" t="inlineStr"/>
-      <c r="AQ25" s="108" t="inlineStr"/>
-      <c r="AR25" s="108" t="inlineStr"/>
-      <c r="AS25" s="108" t="inlineStr"/>
-      <c r="AT25" s="108" t="inlineStr"/>
-      <c r="AU25" s="108" t="inlineStr"/>
-      <c r="AV25" s="108" t="inlineStr"/>
-      <c r="AW25" s="108" t="inlineStr"/>
-      <c r="AX25" s="108" t="inlineStr"/>
-      <c r="AY25" s="108" t="inlineStr"/>
-      <c r="AZ25" s="108" t="inlineStr"/>
-      <c r="BA25" s="108" t="inlineStr"/>
-      <c r="BB25" s="108" t="inlineStr"/>
-      <c r="BC25" s="108" t="inlineStr"/>
-      <c r="BD25" s="108" t="inlineStr"/>
-      <c r="BE25" s="108" t="inlineStr"/>
-      <c r="BF25" s="108" t="inlineStr"/>
-      <c r="BG25" s="108" t="inlineStr"/>
-      <c r="BH25" s="108" t="inlineStr"/>
-      <c r="BI25" s="108" t="inlineStr"/>
-      <c r="BJ25" s="108" t="inlineStr"/>
-      <c r="BK25" s="108" t="inlineStr"/>
-      <c r="BL25" s="108" t="inlineStr"/>
-      <c r="BM25" s="108" t="inlineStr"/>
-      <c r="BN25" s="108" t="inlineStr"/>
-      <c r="BO25" s="108" t="inlineStr"/>
-      <c r="BP25" s="108" t="inlineStr"/>
-      <c r="BQ25" s="108" t="inlineStr"/>
-      <c r="BR25" s="108" t="inlineStr"/>
-      <c r="BS25" s="108" t="inlineStr"/>
-      <c r="BT25" s="108" t="inlineStr"/>
-      <c r="BU25" s="108" t="inlineStr"/>
-      <c r="BV25" s="108" t="inlineStr"/>
-      <c r="BW25" s="108" t="inlineStr"/>
-      <c r="BX25" s="108" t="inlineStr"/>
-      <c r="BY25" s="108" t="inlineStr"/>
-      <c r="BZ25" s="108" t="inlineStr"/>
-      <c r="CA25" s="108" t="inlineStr"/>
-      <c r="CB25" s="108" t="inlineStr"/>
-      <c r="CC25" s="108" t="inlineStr"/>
-      <c r="CD25" s="108" t="inlineStr"/>
-      <c r="CE25" s="108" t="inlineStr"/>
-      <c r="CF25" s="108" t="inlineStr"/>
-      <c r="CG25" s="108" t="inlineStr"/>
-      <c r="CH25" s="108" t="inlineStr"/>
-      <c r="CI25" s="108" t="inlineStr"/>
-      <c r="CJ25" s="108" t="inlineStr"/>
-      <c r="CK25" s="108" t="inlineStr"/>
-      <c r="CL25" s="108" t="inlineStr"/>
-      <c r="CM25" s="108" t="inlineStr"/>
-      <c r="CN25" s="108" t="inlineStr"/>
-      <c r="CO25" s="108" t="inlineStr"/>
-      <c r="CP25" s="108" t="inlineStr"/>
-      <c r="CQ25" s="108" t="inlineStr"/>
-      <c r="CR25" s="108" t="inlineStr"/>
-      <c r="CS25" s="108" t="inlineStr"/>
-      <c r="CT25" s="108" t="inlineStr"/>
-      <c r="CU25" s="108" t="inlineStr"/>
-      <c r="CV25" s="108" t="inlineStr"/>
-      <c r="CW25" s="108" t="inlineStr"/>
-      <c r="CX25" s="108" t="inlineStr"/>
-      <c r="CY25" s="108" t="inlineStr"/>
-      <c r="CZ25" s="108" t="inlineStr"/>
-      <c r="DA25" s="108" t="inlineStr"/>
-      <c r="DB25" s="108" t="inlineStr"/>
-      <c r="DC25" s="108" t="inlineStr"/>
-      <c r="DD25" s="108" t="inlineStr"/>
-      <c r="DE25" s="108" t="inlineStr"/>
-      <c r="DF25" s="108" t="inlineStr"/>
-      <c r="DG25" s="108" t="inlineStr"/>
-      <c r="DH25" s="108" t="inlineStr"/>
-      <c r="DI25" s="108" t="inlineStr"/>
-      <c r="DJ25" s="108" t="inlineStr"/>
-      <c r="DK25" s="108" t="inlineStr"/>
-      <c r="DL25" s="108" t="inlineStr"/>
-      <c r="DM25" s="108" t="inlineStr"/>
-      <c r="DN25" s="108" t="inlineStr"/>
-      <c r="DO25" s="108" t="inlineStr"/>
-      <c r="DP25" s="108" t="inlineStr"/>
-      <c r="DQ25" s="108" t="inlineStr"/>
-      <c r="DR25" s="108" t="inlineStr"/>
-      <c r="DS25" s="108" t="inlineStr"/>
-      <c r="DT25" s="108" t="inlineStr"/>
-      <c r="DU25" s="108" t="inlineStr"/>
-      <c r="DV25" s="108" t="inlineStr"/>
-      <c r="DW25" s="108" t="inlineStr"/>
-      <c r="DX25" s="108" t="inlineStr"/>
-      <c r="DY25" s="108" t="inlineStr"/>
-      <c r="DZ25" s="108" t="inlineStr"/>
-      <c r="EA25" s="108" t="inlineStr"/>
-      <c r="EB25" s="108" t="inlineStr"/>
-      <c r="EC25" s="108" t="inlineStr"/>
-      <c r="ED25" s="108" t="inlineStr"/>
-      <c r="EE25" s="108" t="inlineStr"/>
-      <c r="EF25" s="108" t="inlineStr"/>
-      <c r="EG25" s="108" t="inlineStr"/>
-      <c r="EH25" s="108" t="inlineStr"/>
-      <c r="EI25" s="108" t="inlineStr"/>
-      <c r="EJ25" s="108" t="inlineStr"/>
-      <c r="EK25" s="108" t="inlineStr"/>
-      <c r="EL25" s="108" t="inlineStr"/>
-      <c r="EM25" s="108" t="inlineStr"/>
-      <c r="EN25" s="108" t="inlineStr"/>
-      <c r="EO25" s="108" t="inlineStr"/>
-      <c r="EP25" s="108" t="inlineStr"/>
-      <c r="EQ25" s="108" t="inlineStr"/>
-      <c r="ER25" s="108" t="inlineStr"/>
-      <c r="ES25" s="108" t="inlineStr"/>
-      <c r="ET25" s="108" t="inlineStr"/>
-      <c r="EU25" s="108" t="inlineStr"/>
-      <c r="EV25" s="108" t="inlineStr"/>
-      <c r="EW25" s="108" t="inlineStr"/>
-      <c r="EX25" s="108" t="inlineStr"/>
-      <c r="EY25" s="108" t="inlineStr"/>
-      <c r="EZ25" s="108" t="inlineStr"/>
-      <c r="FA25" s="108" t="inlineStr"/>
-      <c r="FB25" s="108" t="inlineStr"/>
-      <c r="FC25" s="108" t="inlineStr"/>
-      <c r="FD25" s="108" t="inlineStr"/>
-      <c r="FE25" s="108" t="inlineStr"/>
-      <c r="FF25" s="108" t="inlineStr"/>
-      <c r="FG25" s="108" t="inlineStr"/>
-      <c r="FH25" s="108" t="inlineStr"/>
-      <c r="FI25" s="108" t="inlineStr"/>
-      <c r="FJ25" s="108" t="inlineStr"/>
-      <c r="FK25" s="108" t="inlineStr"/>
-      <c r="FL25" s="108" t="inlineStr"/>
-      <c r="FM25" s="108" t="inlineStr"/>
-      <c r="FN25" s="108" t="inlineStr"/>
-      <c r="FO25" s="108" t="inlineStr"/>
-      <c r="FP25" s="108" t="inlineStr"/>
-      <c r="FQ25" s="108" t="inlineStr"/>
-      <c r="FR25" s="108" t="inlineStr"/>
-      <c r="FS25" s="108" t="inlineStr"/>
-      <c r="FT25" s="108" t="inlineStr"/>
-      <c r="FU25" s="108" t="inlineStr"/>
-      <c r="FV25" s="108" t="inlineStr"/>
-      <c r="FW25" s="108" t="inlineStr"/>
-      <c r="FX25" s="108" t="inlineStr"/>
-      <c r="FY25" s="108" t="inlineStr"/>
-      <c r="FZ25" s="108" t="inlineStr"/>
-      <c r="GA25" s="108" t="inlineStr"/>
-      <c r="GB25" s="108" t="inlineStr"/>
-      <c r="GC25" s="108" t="inlineStr"/>
-      <c r="GD25" s="108" t="inlineStr"/>
-      <c r="GE25" s="108" t="inlineStr"/>
-      <c r="GF25" s="108" t="inlineStr"/>
-      <c r="GG25" s="108" t="inlineStr"/>
-      <c r="GH25" s="108" t="inlineStr"/>
-      <c r="GI25" s="108" t="inlineStr"/>
-      <c r="GJ25" s="108" t="inlineStr"/>
-      <c r="GK25" s="108" t="inlineStr"/>
-      <c r="GL25" s="108" t="inlineStr"/>
-      <c r="GM25" s="108" t="inlineStr"/>
-      <c r="GN25" s="108" t="inlineStr"/>
-      <c r="GO25" s="108" t="inlineStr"/>
-      <c r="GP25" s="108" t="inlineStr"/>
-      <c r="GQ25" s="108" t="inlineStr"/>
-      <c r="GR25" s="108" t="inlineStr"/>
-      <c r="GS25" s="108" t="inlineStr"/>
-      <c r="GT25" s="108" t="inlineStr"/>
-      <c r="GU25" s="108" t="inlineStr"/>
-      <c r="GV25" s="108" t="inlineStr"/>
-      <c r="GW25" s="108" t="inlineStr"/>
-      <c r="GX25" s="108" t="inlineStr"/>
-      <c r="GY25" s="108" t="inlineStr"/>
-      <c r="GZ25" s="108" t="inlineStr"/>
-      <c r="HA25" s="108" t="inlineStr"/>
-      <c r="HB25" s="108" t="inlineStr"/>
-      <c r="HC25" s="108" t="inlineStr"/>
-      <c r="HD25" s="108" t="inlineStr"/>
-      <c r="HE25" s="108" t="inlineStr"/>
-      <c r="HF25" s="108" t="inlineStr"/>
-      <c r="HG25" s="108" t="inlineStr"/>
-      <c r="HH25" s="108" t="inlineStr"/>
-      <c r="HI25" s="108" t="inlineStr"/>
-      <c r="HJ25" s="108" t="inlineStr"/>
-      <c r="HK25" s="108" t="inlineStr"/>
-      <c r="HL25" s="108" t="inlineStr"/>
-      <c r="HM25" s="108" t="inlineStr"/>
-      <c r="HN25" s="108" t="inlineStr"/>
-      <c r="HO25" s="108" t="inlineStr"/>
-      <c r="HP25" s="108" t="inlineStr"/>
-      <c r="HQ25" s="108" t="inlineStr"/>
-      <c r="HR25" s="108" t="inlineStr"/>
-      <c r="HS25" s="108" t="inlineStr"/>
-      <c r="HT25" s="108" t="inlineStr"/>
-      <c r="HU25" s="108" t="inlineStr"/>
-      <c r="HV25" s="108" t="inlineStr"/>
-      <c r="HW25" s="108" t="inlineStr"/>
-      <c r="HX25" s="108" t="inlineStr"/>
-      <c r="HY25" s="108" t="inlineStr"/>
-      <c r="HZ25" s="108" t="inlineStr"/>
-      <c r="IA25" s="108" t="inlineStr"/>
-      <c r="IB25" s="108" t="inlineStr"/>
-      <c r="IC25" s="108" t="inlineStr"/>
-      <c r="ID25" s="108" t="inlineStr"/>
-      <c r="IE25" s="108" t="inlineStr"/>
-      <c r="IF25" s="108" t="inlineStr"/>
-      <c r="IG25" s="108" t="inlineStr"/>
-      <c r="IH25" s="108" t="inlineStr"/>
-      <c r="II25" s="108" t="inlineStr"/>
-      <c r="IJ25" s="108" t="inlineStr"/>
-      <c r="IK25" s="108" t="inlineStr"/>
-      <c r="IL25" s="108" t="inlineStr"/>
-      <c r="IM25" s="108" t="inlineStr"/>
-      <c r="IN25" s="108" t="inlineStr"/>
-      <c r="IO25" s="108" t="inlineStr"/>
-      <c r="IP25" s="108" t="inlineStr"/>
-      <c r="IQ25" s="108" t="inlineStr"/>
-      <c r="IR25" s="108" t="inlineStr"/>
-      <c r="IS25" s="108" t="inlineStr"/>
-      <c r="IT25" s="108" t="inlineStr"/>
-      <c r="IU25" s="108" t="inlineStr"/>
-      <c r="IV25" s="108" t="inlineStr"/>
-      <c r="IW25" s="108" t="inlineStr"/>
-      <c r="IX25" s="108" t="inlineStr"/>
-      <c r="IY25" s="108" t="inlineStr"/>
-      <c r="IZ25" s="108" t="inlineStr"/>
-      <c r="JA25" s="108" t="inlineStr"/>
-      <c r="JB25" s="108" t="inlineStr"/>
-      <c r="JC25" s="108" t="inlineStr"/>
-      <c r="JD25" s="108" t="inlineStr"/>
-      <c r="JE25" s="108" t="inlineStr"/>
-      <c r="JF25" s="108" t="inlineStr"/>
-      <c r="JG25" s="108" t="inlineStr"/>
-      <c r="JH25" s="108" t="inlineStr"/>
-      <c r="JI25" s="108" t="inlineStr"/>
-      <c r="JJ25" s="108" t="inlineStr"/>
-      <c r="JK25" s="108" t="inlineStr"/>
-      <c r="JL25" s="108" t="inlineStr"/>
-      <c r="JM25" s="108" t="inlineStr"/>
-      <c r="JN25" s="108" t="inlineStr"/>
-      <c r="JO25" s="108" t="inlineStr"/>
-      <c r="JP25" s="108" t="inlineStr"/>
-      <c r="JQ25" s="108" t="inlineStr"/>
-      <c r="JR25" s="108" t="inlineStr"/>
-      <c r="JS25" s="108" t="inlineStr"/>
-      <c r="JT25" s="108" t="inlineStr"/>
-      <c r="JU25" s="108" t="inlineStr"/>
-      <c r="JV25" s="108" t="inlineStr"/>
-      <c r="JW25" s="108" t="inlineStr"/>
-      <c r="JX25" s="108" t="inlineStr"/>
-      <c r="JY25" s="108" t="inlineStr"/>
-      <c r="JZ25" s="108" t="inlineStr"/>
-      <c r="KA25" s="108" t="inlineStr"/>
-      <c r="KB25" s="108" t="inlineStr"/>
-      <c r="KC25" s="108" t="inlineStr"/>
-      <c r="KD25" s="108" t="inlineStr"/>
-      <c r="KE25" s="108" t="inlineStr"/>
-      <c r="KF25" s="108" t="inlineStr"/>
-      <c r="KG25" s="108" t="inlineStr"/>
-      <c r="KH25" s="108" t="inlineStr"/>
-      <c r="KI25" s="108" t="inlineStr"/>
-      <c r="KJ25" s="108" t="inlineStr"/>
-      <c r="KK25" s="108" t="inlineStr"/>
-      <c r="KL25" s="108" t="inlineStr"/>
-      <c r="KM25" s="108" t="inlineStr"/>
-      <c r="KN25" s="108" t="inlineStr"/>
-      <c r="KO25" s="108" t="inlineStr"/>
-      <c r="KP25" s="108" t="inlineStr"/>
-      <c r="KQ25" s="108" t="inlineStr"/>
-      <c r="KR25" s="108" t="inlineStr"/>
-      <c r="KS25" s="108" t="inlineStr"/>
-      <c r="KT25" s="108" t="inlineStr"/>
-      <c r="KU25" s="108" t="inlineStr"/>
-      <c r="KV25" s="108" t="inlineStr"/>
-      <c r="KW25" s="108" t="inlineStr"/>
-      <c r="KX25" s="108" t="inlineStr"/>
-      <c r="KY25" s="108" t="inlineStr"/>
-      <c r="KZ25" s="108" t="inlineStr"/>
-      <c r="LA25" s="108" t="inlineStr"/>
-      <c r="LB25" s="108" t="inlineStr"/>
-      <c r="LC25" s="108" t="inlineStr"/>
-      <c r="LD25" s="108" t="inlineStr"/>
-      <c r="LE25" s="108" t="inlineStr"/>
-      <c r="LF25" s="108" t="inlineStr"/>
-      <c r="LG25" s="108" t="inlineStr"/>
-      <c r="LH25" s="108" t="inlineStr"/>
-      <c r="LI25" s="108" t="inlineStr"/>
-      <c r="LJ25" s="108" t="inlineStr"/>
-      <c r="LK25" s="108" t="inlineStr"/>
-      <c r="LL25" s="108" t="inlineStr"/>
-      <c r="LM25" s="108" t="inlineStr"/>
-      <c r="LN25" s="108" t="inlineStr"/>
-      <c r="LO25" s="108" t="inlineStr"/>
-      <c r="LP25" s="108" t="inlineStr"/>
-      <c r="LQ25" s="108" t="inlineStr"/>
-      <c r="LR25" s="108" t="inlineStr"/>
-      <c r="LS25" s="108" t="inlineStr"/>
-      <c r="LT25" s="108" t="inlineStr"/>
-      <c r="LU25" s="108" t="inlineStr"/>
-      <c r="LV25" s="108" t="inlineStr"/>
-      <c r="LW25" s="108" t="inlineStr"/>
-      <c r="LX25" s="108" t="inlineStr"/>
-      <c r="LY25" s="108" t="inlineStr"/>
-      <c r="LZ25" s="108" t="inlineStr"/>
-      <c r="MA25" s="108" t="inlineStr"/>
-      <c r="MB25" s="108" t="inlineStr"/>
-      <c r="MC25" s="108" t="inlineStr"/>
-      <c r="MD25" s="108" t="inlineStr"/>
-      <c r="ME25" s="108" t="inlineStr"/>
-      <c r="MF25" s="108" t="inlineStr"/>
-      <c r="MG25" s="108" t="inlineStr"/>
-      <c r="MH25" s="108" t="inlineStr"/>
-      <c r="MI25" s="108" t="inlineStr"/>
-      <c r="MJ25" s="108" t="inlineStr"/>
-      <c r="MK25" s="108" t="inlineStr"/>
-      <c r="ML25" s="108" t="inlineStr"/>
-      <c r="MM25" s="108" t="inlineStr"/>
-      <c r="MN25" s="108" t="inlineStr"/>
-      <c r="MO25" s="108" t="inlineStr"/>
-      <c r="MP25" s="108" t="inlineStr"/>
-      <c r="MQ25" s="108" t="inlineStr"/>
-      <c r="MR25" s="108" t="inlineStr"/>
-      <c r="MS25" s="108" t="inlineStr"/>
-      <c r="MT25" s="108" t="inlineStr"/>
-      <c r="MU25" s="108" t="inlineStr"/>
-      <c r="MV25" s="108" t="inlineStr"/>
-      <c r="MW25" s="108" t="inlineStr"/>
-      <c r="MX25" s="108" t="inlineStr"/>
-      <c r="MY25" s="108" t="inlineStr"/>
-      <c r="MZ25" s="108" t="inlineStr"/>
-      <c r="NA25" s="108" t="inlineStr"/>
-      <c r="NB25" s="108" t="inlineStr"/>
-      <c r="NC25" s="108" t="inlineStr"/>
-      <c r="ND25" s="108" t="inlineStr"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="110">
-      <c r="A26" s="108" t="inlineStr"/>
       <c r="B26" s="216" t="inlineStr">
         <is>
           <t>5. Jobs on hold</t>
         </is>
       </c>
-      <c r="C26" s="108" t="inlineStr"/>
-      <c r="D26" s="108" t="inlineStr"/>
-      <c r="E26" s="108" t="inlineStr"/>
-      <c r="F26" s="108" t="inlineStr"/>
-      <c r="G26" s="108" t="inlineStr"/>
-      <c r="H26" s="108" t="inlineStr"/>
-      <c r="I26" s="108" t="inlineStr"/>
-      <c r="J26" s="108" t="inlineStr"/>
-      <c r="K26" s="108" t="inlineStr"/>
-      <c r="L26" s="108" t="inlineStr"/>
-      <c r="M26" s="108" t="inlineStr"/>
-      <c r="N26" s="108" t="inlineStr"/>
-      <c r="O26" s="108" t="inlineStr"/>
-      <c r="P26" s="108" t="inlineStr"/>
-      <c r="Q26" s="108" t="inlineStr"/>
-      <c r="R26" s="108" t="inlineStr"/>
-      <c r="S26" s="108" t="inlineStr"/>
-      <c r="T26" s="108" t="inlineStr"/>
-      <c r="U26" s="108" t="inlineStr"/>
-      <c r="V26" s="108" t="inlineStr"/>
-      <c r="W26" s="108" t="inlineStr"/>
-      <c r="X26" s="108" t="inlineStr"/>
-      <c r="Y26" s="108" t="inlineStr"/>
-      <c r="Z26" s="108" t="inlineStr"/>
-      <c r="AA26" s="108" t="inlineStr"/>
-      <c r="AB26" s="108" t="inlineStr"/>
-      <c r="AC26" s="108" t="inlineStr"/>
-      <c r="AD26" s="108" t="inlineStr"/>
-      <c r="AE26" s="108" t="inlineStr"/>
-      <c r="AF26" s="108" t="inlineStr"/>
-      <c r="AG26" s="108" t="inlineStr"/>
-      <c r="AH26" s="108" t="inlineStr"/>
-      <c r="AI26" s="108" t="inlineStr"/>
-      <c r="AJ26" s="108" t="inlineStr"/>
-      <c r="AK26" s="108" t="inlineStr"/>
-      <c r="AL26" s="108" t="inlineStr"/>
-      <c r="AM26" s="108" t="inlineStr"/>
-      <c r="AN26" s="108" t="inlineStr"/>
-      <c r="AO26" s="108" t="inlineStr"/>
-      <c r="AP26" s="108" t="inlineStr"/>
-      <c r="AQ26" s="108" t="inlineStr"/>
-      <c r="AR26" s="108" t="inlineStr"/>
-      <c r="AS26" s="108" t="inlineStr"/>
-      <c r="AT26" s="108" t="inlineStr"/>
-      <c r="AU26" s="108" t="inlineStr"/>
-      <c r="AV26" s="108" t="inlineStr"/>
-      <c r="AW26" s="108" t="inlineStr"/>
-      <c r="AX26" s="108" t="inlineStr"/>
-      <c r="AY26" s="108" t="inlineStr"/>
-      <c r="AZ26" s="108" t="inlineStr"/>
-      <c r="BA26" s="108" t="inlineStr"/>
-      <c r="BB26" s="108" t="inlineStr"/>
-      <c r="BC26" s="108" t="inlineStr"/>
-      <c r="BD26" s="108" t="inlineStr"/>
-      <c r="BE26" s="108" t="inlineStr"/>
-      <c r="BF26" s="108" t="inlineStr"/>
-      <c r="BG26" s="108" t="inlineStr"/>
-      <c r="BH26" s="108" t="inlineStr"/>
-      <c r="BI26" s="108" t="inlineStr"/>
-      <c r="BJ26" s="108" t="inlineStr"/>
-      <c r="BK26" s="108" t="inlineStr"/>
-      <c r="BL26" s="108" t="inlineStr"/>
-      <c r="BM26" s="108" t="inlineStr"/>
-      <c r="BN26" s="108" t="inlineStr"/>
-      <c r="BO26" s="108" t="inlineStr"/>
-      <c r="BP26" s="108" t="inlineStr"/>
-      <c r="BQ26" s="108" t="inlineStr"/>
-      <c r="BR26" s="108" t="inlineStr"/>
-      <c r="BS26" s="108" t="inlineStr"/>
-      <c r="BT26" s="108" t="inlineStr"/>
-      <c r="BU26" s="108" t="inlineStr"/>
-      <c r="BV26" s="108" t="inlineStr"/>
-      <c r="BW26" s="108" t="inlineStr"/>
-      <c r="BX26" s="108" t="inlineStr"/>
-      <c r="BY26" s="108" t="inlineStr"/>
-      <c r="BZ26" s="108" t="inlineStr"/>
-      <c r="CA26" s="108" t="inlineStr"/>
-      <c r="CB26" s="108" t="inlineStr"/>
-      <c r="CC26" s="108" t="inlineStr"/>
-      <c r="CD26" s="108" t="inlineStr"/>
-      <c r="CE26" s="108" t="inlineStr"/>
-      <c r="CF26" s="108" t="inlineStr"/>
-      <c r="CG26" s="108" t="inlineStr"/>
-      <c r="CH26" s="108" t="inlineStr"/>
-      <c r="CI26" s="108" t="inlineStr"/>
-      <c r="CJ26" s="108" t="inlineStr"/>
-      <c r="CK26" s="108" t="inlineStr"/>
-      <c r="CL26" s="108" t="inlineStr"/>
-      <c r="CM26" s="108" t="inlineStr"/>
-      <c r="CN26" s="108" t="inlineStr"/>
-      <c r="CO26" s="108" t="inlineStr"/>
-      <c r="CP26" s="108" t="inlineStr"/>
-      <c r="CQ26" s="108" t="inlineStr"/>
-      <c r="CR26" s="108" t="inlineStr"/>
-      <c r="CS26" s="108" t="inlineStr"/>
-      <c r="CT26" s="108" t="inlineStr"/>
-      <c r="CU26" s="108" t="inlineStr"/>
-      <c r="CV26" s="108" t="inlineStr"/>
-      <c r="CW26" s="108" t="inlineStr"/>
-      <c r="CX26" s="108" t="inlineStr"/>
-      <c r="CY26" s="108" t="inlineStr"/>
-      <c r="CZ26" s="108" t="inlineStr"/>
-      <c r="DA26" s="108" t="inlineStr"/>
-      <c r="DB26" s="108" t="inlineStr"/>
-      <c r="DC26" s="108" t="inlineStr"/>
-      <c r="DD26" s="108" t="inlineStr"/>
-      <c r="DE26" s="108" t="inlineStr"/>
-      <c r="DF26" s="108" t="inlineStr"/>
-      <c r="DG26" s="108" t="inlineStr"/>
-      <c r="DH26" s="108" t="inlineStr"/>
-      <c r="DI26" s="108" t="inlineStr"/>
-      <c r="DJ26" s="108" t="inlineStr"/>
-      <c r="DK26" s="108" t="inlineStr"/>
-      <c r="DL26" s="108" t="inlineStr"/>
-      <c r="DM26" s="108" t="inlineStr"/>
-      <c r="DN26" s="108" t="inlineStr"/>
-      <c r="DO26" s="108" t="inlineStr"/>
-      <c r="DP26" s="108" t="inlineStr"/>
-      <c r="DQ26" s="108" t="inlineStr"/>
-      <c r="DR26" s="108" t="inlineStr"/>
-      <c r="DS26" s="108" t="inlineStr"/>
-      <c r="DT26" s="108" t="inlineStr"/>
-      <c r="DU26" s="108" t="inlineStr"/>
-      <c r="DV26" s="108" t="inlineStr"/>
-      <c r="DW26" s="108" t="inlineStr"/>
-      <c r="DX26" s="108" t="inlineStr"/>
-      <c r="DY26" s="108" t="inlineStr"/>
-      <c r="DZ26" s="108" t="inlineStr"/>
-      <c r="EA26" s="108" t="inlineStr"/>
-      <c r="EB26" s="108" t="inlineStr"/>
-      <c r="EC26" s="108" t="inlineStr"/>
-      <c r="ED26" s="108" t="inlineStr"/>
-      <c r="EE26" s="108" t="inlineStr"/>
-      <c r="EF26" s="108" t="inlineStr"/>
-      <c r="EG26" s="108" t="inlineStr"/>
-      <c r="EH26" s="108" t="inlineStr"/>
-      <c r="EI26" s="108" t="inlineStr"/>
-      <c r="EJ26" s="108" t="inlineStr"/>
-      <c r="EK26" s="108" t="inlineStr"/>
-      <c r="EL26" s="108" t="inlineStr"/>
-      <c r="EM26" s="108" t="inlineStr"/>
-      <c r="EN26" s="108" t="inlineStr"/>
-      <c r="EO26" s="108" t="inlineStr"/>
-      <c r="EP26" s="108" t="inlineStr"/>
-      <c r="EQ26" s="108" t="inlineStr"/>
-      <c r="ER26" s="108" t="inlineStr"/>
-      <c r="ES26" s="108" t="inlineStr"/>
-      <c r="ET26" s="108" t="inlineStr"/>
-      <c r="EU26" s="108" t="inlineStr"/>
-      <c r="EV26" s="108" t="inlineStr"/>
-      <c r="EW26" s="108" t="inlineStr"/>
-      <c r="EX26" s="108" t="inlineStr"/>
-      <c r="EY26" s="108" t="inlineStr"/>
-      <c r="EZ26" s="108" t="inlineStr"/>
-      <c r="FA26" s="108" t="inlineStr"/>
-      <c r="FB26" s="108" t="inlineStr"/>
-      <c r="FC26" s="108" t="inlineStr"/>
-      <c r="FD26" s="108" t="inlineStr"/>
-      <c r="FE26" s="108" t="inlineStr"/>
-      <c r="FF26" s="108" t="inlineStr"/>
-      <c r="FG26" s="108" t="inlineStr"/>
-      <c r="FH26" s="108" t="inlineStr"/>
-      <c r="FI26" s="108" t="inlineStr"/>
-      <c r="FJ26" s="108" t="inlineStr"/>
-      <c r="FK26" s="108" t="inlineStr"/>
-      <c r="FL26" s="108" t="inlineStr"/>
-      <c r="FM26" s="108" t="inlineStr"/>
-      <c r="FN26" s="108" t="inlineStr"/>
-      <c r="FO26" s="108" t="inlineStr"/>
-      <c r="FP26" s="108" t="inlineStr"/>
-      <c r="FQ26" s="108" t="inlineStr"/>
-      <c r="FR26" s="108" t="inlineStr"/>
-      <c r="FS26" s="108" t="inlineStr"/>
-      <c r="FT26" s="108" t="inlineStr"/>
-      <c r="FU26" s="108" t="inlineStr"/>
-      <c r="FV26" s="108" t="inlineStr"/>
-      <c r="FW26" s="108" t="inlineStr"/>
-      <c r="FX26" s="108" t="inlineStr"/>
-      <c r="FY26" s="108" t="inlineStr"/>
-      <c r="FZ26" s="108" t="inlineStr"/>
-      <c r="GA26" s="108" t="inlineStr"/>
-      <c r="GB26" s="108" t="inlineStr"/>
-      <c r="GC26" s="108" t="inlineStr"/>
-      <c r="GD26" s="108" t="inlineStr"/>
-      <c r="GE26" s="108" t="inlineStr"/>
-      <c r="GF26" s="108" t="inlineStr"/>
-      <c r="GG26" s="108" t="inlineStr"/>
-      <c r="GH26" s="108" t="inlineStr"/>
-      <c r="GI26" s="108" t="inlineStr"/>
-      <c r="GJ26" s="108" t="inlineStr"/>
-      <c r="GK26" s="108" t="inlineStr"/>
-      <c r="GL26" s="108" t="inlineStr"/>
-      <c r="GM26" s="108" t="inlineStr"/>
-      <c r="GN26" s="108" t="inlineStr"/>
-      <c r="GO26" s="108" t="inlineStr"/>
-      <c r="GP26" s="108" t="inlineStr"/>
-      <c r="GQ26" s="108" t="inlineStr"/>
-      <c r="GR26" s="108" t="inlineStr"/>
-      <c r="GS26" s="108" t="inlineStr"/>
-      <c r="GT26" s="108" t="inlineStr"/>
-      <c r="GU26" s="108" t="inlineStr"/>
-      <c r="GV26" s="108" t="inlineStr"/>
-      <c r="GW26" s="108" t="inlineStr"/>
-      <c r="GX26" s="108" t="inlineStr"/>
-      <c r="GY26" s="108" t="inlineStr"/>
-      <c r="GZ26" s="108" t="inlineStr"/>
-      <c r="HA26" s="108" t="inlineStr"/>
-      <c r="HB26" s="108" t="inlineStr"/>
-      <c r="HC26" s="108" t="inlineStr"/>
-      <c r="HD26" s="108" t="inlineStr"/>
-      <c r="HE26" s="108" t="inlineStr"/>
-      <c r="HF26" s="108" t="inlineStr"/>
-      <c r="HG26" s="108" t="inlineStr"/>
-      <c r="HH26" s="108" t="inlineStr"/>
-      <c r="HI26" s="108" t="inlineStr"/>
-      <c r="HJ26" s="108" t="inlineStr"/>
-      <c r="HK26" s="108" t="inlineStr"/>
-      <c r="HL26" s="108" t="inlineStr"/>
-      <c r="HM26" s="108" t="inlineStr"/>
-      <c r="HN26" s="108" t="inlineStr"/>
-      <c r="HO26" s="108" t="inlineStr"/>
-      <c r="HP26" s="108" t="inlineStr"/>
-      <c r="HQ26" s="108" t="inlineStr"/>
-      <c r="HR26" s="108" t="inlineStr"/>
-      <c r="HS26" s="108" t="inlineStr"/>
-      <c r="HT26" s="108" t="inlineStr"/>
-      <c r="HU26" s="108" t="inlineStr"/>
-      <c r="HV26" s="108" t="inlineStr"/>
-      <c r="HW26" s="108" t="inlineStr"/>
-      <c r="HX26" s="108" t="inlineStr"/>
-      <c r="HY26" s="108" t="inlineStr"/>
-      <c r="HZ26" s="108" t="inlineStr"/>
-      <c r="IA26" s="108" t="inlineStr"/>
-      <c r="IB26" s="108" t="inlineStr"/>
-      <c r="IC26" s="108" t="inlineStr"/>
-      <c r="ID26" s="108" t="inlineStr"/>
-      <c r="IE26" s="108" t="inlineStr"/>
-      <c r="IF26" s="108" t="inlineStr"/>
-      <c r="IG26" s="108" t="inlineStr"/>
-      <c r="IH26" s="108" t="inlineStr"/>
-      <c r="II26" s="108" t="inlineStr"/>
-      <c r="IJ26" s="108" t="inlineStr"/>
-      <c r="IK26" s="108" t="inlineStr"/>
-      <c r="IL26" s="108" t="inlineStr"/>
-      <c r="IM26" s="108" t="inlineStr"/>
-      <c r="IN26" s="108" t="inlineStr"/>
-      <c r="IO26" s="108" t="inlineStr"/>
-      <c r="IP26" s="108" t="inlineStr"/>
-      <c r="IQ26" s="108" t="inlineStr"/>
-      <c r="IR26" s="108" t="inlineStr"/>
-      <c r="IS26" s="108" t="inlineStr"/>
-      <c r="IT26" s="108" t="inlineStr"/>
-      <c r="IU26" s="108" t="inlineStr"/>
-      <c r="IV26" s="108" t="inlineStr"/>
-      <c r="IW26" s="108" t="inlineStr"/>
-      <c r="IX26" s="108" t="inlineStr"/>
-      <c r="IY26" s="108" t="inlineStr"/>
-      <c r="IZ26" s="108" t="inlineStr"/>
-      <c r="JA26" s="108" t="inlineStr"/>
-      <c r="JB26" s="108" t="inlineStr"/>
-      <c r="JC26" s="108" t="inlineStr"/>
-      <c r="JD26" s="108" t="inlineStr"/>
-      <c r="JE26" s="108" t="inlineStr"/>
-      <c r="JF26" s="108" t="inlineStr"/>
-      <c r="JG26" s="108" t="inlineStr"/>
-      <c r="JH26" s="108" t="inlineStr"/>
-      <c r="JI26" s="108" t="inlineStr"/>
-      <c r="JJ26" s="108" t="inlineStr"/>
-      <c r="JK26" s="108" t="inlineStr"/>
-      <c r="JL26" s="108" t="inlineStr"/>
-      <c r="JM26" s="108" t="inlineStr"/>
-      <c r="JN26" s="108" t="inlineStr"/>
-      <c r="JO26" s="108" t="inlineStr"/>
-      <c r="JP26" s="108" t="inlineStr"/>
-      <c r="JQ26" s="108" t="inlineStr"/>
-      <c r="JR26" s="108" t="inlineStr"/>
-      <c r="JS26" s="108" t="inlineStr"/>
-      <c r="JT26" s="108" t="inlineStr"/>
-      <c r="JU26" s="108" t="inlineStr"/>
-      <c r="JV26" s="108" t="inlineStr"/>
-      <c r="JW26" s="108" t="inlineStr"/>
-      <c r="JX26" s="108" t="inlineStr"/>
-      <c r="JY26" s="108" t="inlineStr"/>
-      <c r="JZ26" s="108" t="inlineStr"/>
-      <c r="KA26" s="108" t="inlineStr"/>
-      <c r="KB26" s="108" t="inlineStr"/>
-      <c r="KC26" s="108" t="inlineStr"/>
-      <c r="KD26" s="108" t="inlineStr"/>
-      <c r="KE26" s="108" t="inlineStr"/>
-      <c r="KF26" s="108" t="inlineStr"/>
-      <c r="KG26" s="108" t="inlineStr"/>
-      <c r="KH26" s="108" t="inlineStr"/>
-      <c r="KI26" s="108" t="inlineStr"/>
-      <c r="KJ26" s="108" t="inlineStr"/>
-      <c r="KK26" s="108" t="inlineStr"/>
-      <c r="KL26" s="108" t="inlineStr"/>
-      <c r="KM26" s="108" t="inlineStr"/>
-      <c r="KN26" s="108" t="inlineStr"/>
-      <c r="KO26" s="108" t="inlineStr"/>
-      <c r="KP26" s="108" t="inlineStr"/>
-      <c r="KQ26" s="108" t="inlineStr"/>
-      <c r="KR26" s="108" t="inlineStr"/>
-      <c r="KS26" s="108" t="inlineStr"/>
-      <c r="KT26" s="108" t="inlineStr"/>
-      <c r="KU26" s="108" t="inlineStr"/>
-      <c r="KV26" s="108" t="inlineStr"/>
-      <c r="KW26" s="108" t="inlineStr"/>
-      <c r="KX26" s="108" t="inlineStr"/>
-      <c r="KY26" s="108" t="inlineStr"/>
-      <c r="KZ26" s="108" t="inlineStr"/>
-      <c r="LA26" s="108" t="inlineStr"/>
-      <c r="LB26" s="108" t="inlineStr"/>
-      <c r="LC26" s="108" t="inlineStr"/>
-      <c r="LD26" s="108" t="inlineStr"/>
-      <c r="LE26" s="108" t="inlineStr"/>
-      <c r="LF26" s="108" t="inlineStr"/>
-      <c r="LG26" s="108" t="inlineStr"/>
-      <c r="LH26" s="108" t="inlineStr"/>
-      <c r="LI26" s="108" t="inlineStr"/>
-      <c r="LJ26" s="108" t="inlineStr"/>
-      <c r="LK26" s="108" t="inlineStr"/>
-      <c r="LL26" s="108" t="inlineStr"/>
-      <c r="LM26" s="108" t="inlineStr"/>
-      <c r="LN26" s="108" t="inlineStr"/>
-      <c r="LO26" s="108" t="inlineStr"/>
-      <c r="LP26" s="108" t="inlineStr"/>
-      <c r="LQ26" s="108" t="inlineStr"/>
-      <c r="LR26" s="108" t="inlineStr"/>
-      <c r="LS26" s="108" t="inlineStr"/>
-      <c r="LT26" s="108" t="inlineStr"/>
-      <c r="LU26" s="108" t="inlineStr"/>
-      <c r="LV26" s="108" t="inlineStr"/>
-      <c r="LW26" s="108" t="inlineStr"/>
-      <c r="LX26" s="108" t="inlineStr"/>
-      <c r="LY26" s="108" t="inlineStr"/>
-      <c r="LZ26" s="108" t="inlineStr"/>
-      <c r="MA26" s="108" t="inlineStr"/>
-      <c r="MB26" s="108" t="inlineStr"/>
-      <c r="MC26" s="108" t="inlineStr"/>
-      <c r="MD26" s="108" t="inlineStr"/>
-      <c r="ME26" s="108" t="inlineStr"/>
-      <c r="MF26" s="108" t="inlineStr"/>
-      <c r="MG26" s="108" t="inlineStr"/>
-      <c r="MH26" s="108" t="inlineStr"/>
-      <c r="MI26" s="108" t="inlineStr"/>
-      <c r="MJ26" s="108" t="inlineStr"/>
-      <c r="MK26" s="108" t="inlineStr"/>
-      <c r="ML26" s="108" t="inlineStr"/>
-      <c r="MM26" s="108" t="inlineStr"/>
-      <c r="MN26" s="108" t="inlineStr"/>
-      <c r="MO26" s="108" t="inlineStr"/>
-      <c r="MP26" s="108" t="inlineStr"/>
-      <c r="MQ26" s="108" t="inlineStr"/>
-      <c r="MR26" s="108" t="inlineStr"/>
-      <c r="MS26" s="108" t="inlineStr"/>
-      <c r="MT26" s="108" t="inlineStr"/>
-      <c r="MU26" s="108" t="inlineStr"/>
-      <c r="MV26" s="108" t="inlineStr"/>
-      <c r="MW26" s="108" t="inlineStr"/>
-      <c r="MX26" s="108" t="inlineStr"/>
-      <c r="MY26" s="108" t="inlineStr"/>
-      <c r="MZ26" s="108" t="inlineStr"/>
-      <c r="NA26" s="108" t="inlineStr"/>
-      <c r="NB26" s="108" t="inlineStr"/>
-      <c r="NC26" s="108" t="inlineStr"/>
-      <c r="ND26" s="108" t="inlineStr"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="110">
-      <c r="A27" s="108" t="inlineStr"/>
       <c r="B27" s="108" t="inlineStr">
         <is>
           <t>6. Truck schedules/shipments</t>
         </is>
       </c>
-      <c r="C27" s="108" t="inlineStr"/>
-      <c r="D27" s="108" t="inlineStr"/>
-      <c r="E27" s="108" t="inlineStr"/>
-      <c r="F27" s="108" t="inlineStr"/>
-      <c r="G27" s="108" t="inlineStr"/>
-      <c r="H27" s="108" t="inlineStr"/>
-      <c r="I27" s="108" t="inlineStr"/>
-      <c r="J27" s="108" t="inlineStr"/>
-      <c r="K27" s="108" t="inlineStr"/>
-      <c r="L27" s="108" t="inlineStr"/>
-      <c r="M27" s="108" t="inlineStr"/>
-      <c r="N27" s="108" t="inlineStr"/>
-      <c r="O27" s="108" t="inlineStr"/>
-      <c r="P27" s="108" t="inlineStr"/>
-      <c r="Q27" s="108" t="inlineStr"/>
-      <c r="R27" s="108" t="inlineStr"/>
-      <c r="S27" s="108" t="inlineStr"/>
-      <c r="T27" s="108" t="inlineStr"/>
-      <c r="U27" s="108" t="inlineStr"/>
-      <c r="V27" s="108" t="inlineStr"/>
-      <c r="W27" s="108" t="inlineStr"/>
-      <c r="X27" s="108" t="inlineStr"/>
-      <c r="Y27" s="108" t="inlineStr"/>
-      <c r="Z27" s="108" t="inlineStr"/>
-      <c r="AA27" s="108" t="inlineStr"/>
-      <c r="AB27" s="108" t="inlineStr"/>
-      <c r="AC27" s="108" t="inlineStr"/>
-      <c r="AD27" s="108" t="inlineStr"/>
-      <c r="AE27" s="108" t="inlineStr"/>
-      <c r="AF27" s="108" t="inlineStr"/>
-      <c r="AG27" s="108" t="inlineStr"/>
-      <c r="AH27" s="108" t="inlineStr"/>
-      <c r="AI27" s="108" t="inlineStr"/>
-      <c r="AJ27" s="108" t="inlineStr"/>
-      <c r="AK27" s="108" t="inlineStr"/>
-      <c r="AL27" s="108" t="inlineStr"/>
-      <c r="AM27" s="108" t="inlineStr"/>
-      <c r="AN27" s="108" t="inlineStr"/>
-      <c r="AO27" s="108" t="inlineStr"/>
-      <c r="AP27" s="108" t="inlineStr"/>
-      <c r="AQ27" s="108" t="inlineStr"/>
-      <c r="AR27" s="108" t="inlineStr"/>
-      <c r="AS27" s="108" t="inlineStr"/>
-      <c r="AT27" s="108" t="inlineStr"/>
-      <c r="AU27" s="108" t="inlineStr"/>
-      <c r="AV27" s="108" t="inlineStr"/>
-      <c r="AW27" s="108" t="inlineStr"/>
-      <c r="AX27" s="108" t="inlineStr"/>
-      <c r="AY27" s="108" t="inlineStr"/>
-      <c r="AZ27" s="108" t="inlineStr"/>
-      <c r="BA27" s="108" t="inlineStr"/>
-      <c r="BB27" s="108" t="inlineStr"/>
-      <c r="BC27" s="108" t="inlineStr"/>
-      <c r="BD27" s="108" t="inlineStr"/>
-      <c r="BE27" s="108" t="inlineStr"/>
-      <c r="BF27" s="108" t="inlineStr"/>
-      <c r="BG27" s="108" t="inlineStr"/>
-      <c r="BH27" s="108" t="inlineStr"/>
-      <c r="BI27" s="108" t="inlineStr"/>
-      <c r="BJ27" s="108" t="inlineStr"/>
-      <c r="BK27" s="108" t="inlineStr"/>
-      <c r="BL27" s="108" t="inlineStr"/>
-      <c r="BM27" s="108" t="inlineStr"/>
-      <c r="BN27" s="108" t="inlineStr"/>
-      <c r="BO27" s="108" t="inlineStr"/>
-      <c r="BP27" s="108" t="inlineStr"/>
-      <c r="BQ27" s="108" t="inlineStr"/>
-      <c r="BR27" s="108" t="inlineStr"/>
-      <c r="BS27" s="108" t="inlineStr"/>
-      <c r="BT27" s="108" t="inlineStr"/>
-      <c r="BU27" s="108" t="inlineStr"/>
-      <c r="BV27" s="108" t="inlineStr"/>
-      <c r="BW27" s="108" t="inlineStr"/>
-      <c r="BX27" s="108" t="inlineStr"/>
-      <c r="BY27" s="108" t="inlineStr"/>
-      <c r="BZ27" s="108" t="inlineStr"/>
-      <c r="CA27" s="108" t="inlineStr"/>
-      <c r="CB27" s="108" t="inlineStr"/>
-      <c r="CC27" s="108" t="inlineStr"/>
-      <c r="CD27" s="108" t="inlineStr"/>
-      <c r="CE27" s="108" t="inlineStr"/>
-      <c r="CF27" s="108" t="inlineStr"/>
-      <c r="CG27" s="108" t="inlineStr"/>
-      <c r="CH27" s="108" t="inlineStr"/>
-      <c r="CI27" s="108" t="inlineStr"/>
-      <c r="CJ27" s="108" t="inlineStr"/>
-      <c r="CK27" s="108" t="inlineStr"/>
-      <c r="CL27" s="108" t="inlineStr"/>
-      <c r="CM27" s="108" t="inlineStr"/>
-      <c r="CN27" s="108" t="inlineStr"/>
-      <c r="CO27" s="108" t="inlineStr"/>
-      <c r="CP27" s="108" t="inlineStr"/>
-      <c r="CQ27" s="108" t="inlineStr"/>
-      <c r="CR27" s="108" t="inlineStr"/>
-      <c r="CS27" s="108" t="inlineStr"/>
-      <c r="CT27" s="108" t="inlineStr"/>
-      <c r="CU27" s="108" t="inlineStr"/>
-      <c r="CV27" s="108" t="inlineStr"/>
-      <c r="CW27" s="108" t="inlineStr"/>
-      <c r="CX27" s="108" t="inlineStr"/>
-      <c r="CY27" s="108" t="inlineStr"/>
-      <c r="CZ27" s="108" t="inlineStr"/>
-      <c r="DA27" s="108" t="inlineStr"/>
-      <c r="DB27" s="108" t="inlineStr"/>
-      <c r="DC27" s="108" t="inlineStr"/>
-      <c r="DD27" s="108" t="inlineStr"/>
-      <c r="DE27" s="108" t="inlineStr"/>
-      <c r="DF27" s="108" t="inlineStr"/>
-      <c r="DG27" s="108" t="inlineStr"/>
-      <c r="DH27" s="108" t="inlineStr"/>
-      <c r="DI27" s="108" t="inlineStr"/>
-      <c r="DJ27" s="108" t="inlineStr"/>
-      <c r="DK27" s="108" t="inlineStr"/>
-      <c r="DL27" s="108" t="inlineStr"/>
-      <c r="DM27" s="108" t="inlineStr"/>
-      <c r="DN27" s="108" t="inlineStr"/>
-      <c r="DO27" s="108" t="inlineStr"/>
-      <c r="DP27" s="108" t="inlineStr"/>
-      <c r="DQ27" s="108" t="inlineStr"/>
-      <c r="DR27" s="108" t="inlineStr"/>
-      <c r="DS27" s="108" t="inlineStr"/>
-      <c r="DT27" s="108" t="inlineStr"/>
-      <c r="DU27" s="108" t="inlineStr"/>
-      <c r="DV27" s="108" t="inlineStr"/>
-      <c r="DW27" s="108" t="inlineStr"/>
-      <c r="DX27" s="108" t="inlineStr"/>
-      <c r="DY27" s="108" t="inlineStr"/>
-      <c r="DZ27" s="108" t="inlineStr"/>
-      <c r="EA27" s="108" t="inlineStr"/>
-      <c r="EB27" s="108" t="inlineStr"/>
-      <c r="EC27" s="108" t="inlineStr"/>
-      <c r="ED27" s="108" t="inlineStr"/>
-      <c r="EE27" s="108" t="inlineStr"/>
-      <c r="EF27" s="108" t="inlineStr"/>
-      <c r="EG27" s="108" t="inlineStr"/>
-      <c r="EH27" s="108" t="inlineStr"/>
-      <c r="EI27" s="108" t="inlineStr"/>
-      <c r="EJ27" s="108" t="inlineStr"/>
-      <c r="EK27" s="108" t="inlineStr"/>
-      <c r="EL27" s="108" t="inlineStr"/>
-      <c r="EM27" s="108" t="inlineStr"/>
-      <c r="EN27" s="108" t="inlineStr"/>
-      <c r="EO27" s="108" t="inlineStr"/>
-      <c r="EP27" s="108" t="inlineStr"/>
-      <c r="EQ27" s="108" t="inlineStr"/>
-      <c r="ER27" s="108" t="inlineStr"/>
-      <c r="ES27" s="108" t="inlineStr"/>
-      <c r="ET27" s="108" t="inlineStr"/>
-      <c r="EU27" s="108" t="inlineStr"/>
-      <c r="EV27" s="108" t="inlineStr"/>
-      <c r="EW27" s="108" t="inlineStr"/>
-      <c r="EX27" s="108" t="inlineStr"/>
-      <c r="EY27" s="108" t="inlineStr"/>
-      <c r="EZ27" s="108" t="inlineStr"/>
-      <c r="FA27" s="108" t="inlineStr"/>
-      <c r="FB27" s="108" t="inlineStr"/>
-      <c r="FC27" s="108" t="inlineStr"/>
-      <c r="FD27" s="108" t="inlineStr"/>
-      <c r="FE27" s="108" t="inlineStr"/>
-      <c r="FF27" s="108" t="inlineStr"/>
-      <c r="FG27" s="108" t="inlineStr"/>
-      <c r="FH27" s="108" t="inlineStr"/>
-      <c r="FI27" s="108" t="inlineStr"/>
-      <c r="FJ27" s="108" t="inlineStr"/>
-      <c r="FK27" s="108" t="inlineStr"/>
-      <c r="FL27" s="108" t="inlineStr"/>
-      <c r="FM27" s="108" t="inlineStr"/>
-      <c r="FN27" s="108" t="inlineStr"/>
-      <c r="FO27" s="108" t="inlineStr"/>
-      <c r="FP27" s="108" t="inlineStr"/>
-      <c r="FQ27" s="108" t="inlineStr"/>
-      <c r="FR27" s="108" t="inlineStr"/>
-      <c r="FS27" s="108" t="inlineStr"/>
-      <c r="FT27" s="108" t="inlineStr"/>
-      <c r="FU27" s="108" t="inlineStr"/>
-      <c r="FV27" s="108" t="inlineStr"/>
-      <c r="FW27" s="108" t="inlineStr"/>
-      <c r="FX27" s="108" t="inlineStr"/>
-      <c r="FY27" s="108" t="inlineStr"/>
-      <c r="FZ27" s="108" t="inlineStr"/>
-      <c r="GA27" s="108" t="inlineStr"/>
-      <c r="GB27" s="108" t="inlineStr"/>
-      <c r="GC27" s="108" t="inlineStr"/>
-      <c r="GD27" s="108" t="inlineStr"/>
-      <c r="GE27" s="108" t="inlineStr"/>
-      <c r="GF27" s="108" t="inlineStr"/>
-      <c r="GG27" s="108" t="inlineStr"/>
-      <c r="GH27" s="108" t="inlineStr"/>
-      <c r="GI27" s="108" t="inlineStr"/>
-      <c r="GJ27" s="108" t="inlineStr"/>
-      <c r="GK27" s="108" t="inlineStr"/>
-      <c r="GL27" s="108" t="inlineStr"/>
-      <c r="GM27" s="108" t="inlineStr"/>
-      <c r="GN27" s="108" t="inlineStr"/>
-      <c r="GO27" s="108" t="inlineStr"/>
-      <c r="GP27" s="108" t="inlineStr"/>
-      <c r="GQ27" s="108" t="inlineStr"/>
-      <c r="GR27" s="108" t="inlineStr"/>
-      <c r="GS27" s="108" t="inlineStr"/>
-      <c r="GT27" s="108" t="inlineStr"/>
-      <c r="GU27" s="108" t="inlineStr"/>
-      <c r="GV27" s="108" t="inlineStr"/>
-      <c r="GW27" s="108" t="inlineStr"/>
-      <c r="GX27" s="108" t="inlineStr"/>
-      <c r="GY27" s="108" t="inlineStr"/>
-      <c r="GZ27" s="108" t="inlineStr"/>
-      <c r="HA27" s="108" t="inlineStr"/>
-      <c r="HB27" s="108" t="inlineStr"/>
-      <c r="HC27" s="108" t="inlineStr"/>
-      <c r="HD27" s="108" t="inlineStr"/>
-      <c r="HE27" s="108" t="inlineStr"/>
-      <c r="HF27" s="108" t="inlineStr"/>
-      <c r="HG27" s="108" t="inlineStr"/>
-      <c r="HH27" s="108" t="inlineStr"/>
-      <c r="HI27" s="108" t="inlineStr"/>
-      <c r="HJ27" s="108" t="inlineStr"/>
-      <c r="HK27" s="108" t="inlineStr"/>
-      <c r="HL27" s="108" t="inlineStr"/>
-      <c r="HM27" s="108" t="inlineStr"/>
-      <c r="HN27" s="108" t="inlineStr"/>
-      <c r="HO27" s="108" t="inlineStr"/>
-      <c r="HP27" s="108" t="inlineStr"/>
-      <c r="HQ27" s="108" t="inlineStr"/>
-      <c r="HR27" s="108" t="inlineStr"/>
-      <c r="HS27" s="108" t="inlineStr"/>
-      <c r="HT27" s="108" t="inlineStr"/>
-      <c r="HU27" s="108" t="inlineStr"/>
-      <c r="HV27" s="108" t="inlineStr"/>
-      <c r="HW27" s="108" t="inlineStr"/>
-      <c r="HX27" s="108" t="inlineStr"/>
-      <c r="HY27" s="108" t="inlineStr"/>
-      <c r="HZ27" s="108" t="inlineStr"/>
-      <c r="IA27" s="108" t="inlineStr"/>
-      <c r="IB27" s="108" t="inlineStr"/>
-      <c r="IC27" s="108" t="inlineStr"/>
-      <c r="ID27" s="108" t="inlineStr"/>
-      <c r="IE27" s="108" t="inlineStr"/>
-      <c r="IF27" s="108" t="inlineStr"/>
-      <c r="IG27" s="108" t="inlineStr"/>
-      <c r="IH27" s="108" t="inlineStr"/>
-      <c r="II27" s="108" t="inlineStr"/>
-      <c r="IJ27" s="108" t="inlineStr"/>
-      <c r="IK27" s="108" t="inlineStr"/>
-      <c r="IL27" s="108" t="inlineStr"/>
-      <c r="IM27" s="108" t="inlineStr"/>
-      <c r="IN27" s="108" t="inlineStr"/>
-      <c r="IO27" s="108" t="inlineStr"/>
-      <c r="IP27" s="108" t="inlineStr"/>
-      <c r="IQ27" s="108" t="inlineStr"/>
-      <c r="IR27" s="108" t="inlineStr"/>
-      <c r="IS27" s="108" t="inlineStr"/>
-      <c r="IT27" s="108" t="inlineStr"/>
-      <c r="IU27" s="108" t="inlineStr"/>
-      <c r="IV27" s="108" t="inlineStr"/>
-      <c r="IW27" s="108" t="inlineStr"/>
-      <c r="IX27" s="108" t="inlineStr"/>
-      <c r="IY27" s="108" t="inlineStr"/>
-      <c r="IZ27" s="108" t="inlineStr"/>
-      <c r="JA27" s="108" t="inlineStr"/>
-      <c r="JB27" s="108" t="inlineStr"/>
-      <c r="JC27" s="108" t="inlineStr"/>
-      <c r="JD27" s="108" t="inlineStr"/>
-      <c r="JE27" s="108" t="inlineStr"/>
-      <c r="JF27" s="108" t="inlineStr"/>
-      <c r="JG27" s="108" t="inlineStr"/>
-      <c r="JH27" s="108" t="inlineStr"/>
-      <c r="JI27" s="108" t="inlineStr"/>
-      <c r="JJ27" s="108" t="inlineStr"/>
-      <c r="JK27" s="108" t="inlineStr"/>
-      <c r="JL27" s="108" t="inlineStr"/>
-      <c r="JM27" s="108" t="inlineStr"/>
-      <c r="JN27" s="108" t="inlineStr"/>
-      <c r="JO27" s="108" t="inlineStr"/>
-      <c r="JP27" s="108" t="inlineStr"/>
-      <c r="JQ27" s="108" t="inlineStr"/>
-      <c r="JR27" s="108" t="inlineStr"/>
-      <c r="JS27" s="108" t="inlineStr"/>
-      <c r="JT27" s="108" t="inlineStr"/>
-      <c r="JU27" s="108" t="inlineStr"/>
-      <c r="JV27" s="108" t="inlineStr"/>
-      <c r="JW27" s="108" t="inlineStr"/>
-      <c r="JX27" s="108" t="inlineStr"/>
-      <c r="JY27" s="108" t="inlineStr"/>
-      <c r="JZ27" s="108" t="inlineStr"/>
-      <c r="KA27" s="108" t="inlineStr"/>
-      <c r="KB27" s="108" t="inlineStr"/>
-      <c r="KC27" s="108" t="inlineStr"/>
-      <c r="KD27" s="108" t="inlineStr"/>
-      <c r="KE27" s="108" t="inlineStr"/>
-      <c r="KF27" s="108" t="inlineStr"/>
-      <c r="KG27" s="108" t="inlineStr"/>
-      <c r="KH27" s="108" t="inlineStr"/>
-      <c r="KI27" s="108" t="inlineStr"/>
-      <c r="KJ27" s="108" t="inlineStr"/>
-      <c r="KK27" s="108" t="inlineStr"/>
-      <c r="KL27" s="108" t="inlineStr"/>
-      <c r="KM27" s="108" t="inlineStr"/>
-      <c r="KN27" s="108" t="inlineStr"/>
-      <c r="KO27" s="108" t="inlineStr"/>
-      <c r="KP27" s="108" t="inlineStr"/>
-      <c r="KQ27" s="108" t="inlineStr"/>
-      <c r="KR27" s="108" t="inlineStr"/>
-      <c r="KS27" s="108" t="inlineStr"/>
-      <c r="KT27" s="108" t="inlineStr"/>
-      <c r="KU27" s="108" t="inlineStr"/>
-      <c r="KV27" s="108" t="inlineStr"/>
-      <c r="KW27" s="108" t="inlineStr"/>
-      <c r="KX27" s="108" t="inlineStr"/>
-      <c r="KY27" s="108" t="inlineStr"/>
-      <c r="KZ27" s="108" t="inlineStr"/>
-      <c r="LA27" s="108" t="inlineStr"/>
-      <c r="LB27" s="108" t="inlineStr"/>
-      <c r="LC27" s="108" t="inlineStr"/>
-      <c r="LD27" s="108" t="inlineStr"/>
-      <c r="LE27" s="108" t="inlineStr"/>
-      <c r="LF27" s="108" t="inlineStr"/>
-      <c r="LG27" s="108" t="inlineStr"/>
-      <c r="LH27" s="108" t="inlineStr"/>
-      <c r="LI27" s="108" t="inlineStr"/>
-      <c r="LJ27" s="108" t="inlineStr"/>
-      <c r="LK27" s="108" t="inlineStr"/>
-      <c r="LL27" s="108" t="inlineStr"/>
-      <c r="LM27" s="108" t="inlineStr"/>
-      <c r="LN27" s="108" t="inlineStr"/>
-      <c r="LO27" s="108" t="inlineStr"/>
-      <c r="LP27" s="108" t="inlineStr"/>
-      <c r="LQ27" s="108" t="inlineStr"/>
-      <c r="LR27" s="108" t="inlineStr"/>
-      <c r="LS27" s="108" t="inlineStr"/>
-      <c r="LT27" s="108" t="inlineStr"/>
-      <c r="LU27" s="108" t="inlineStr"/>
-      <c r="LV27" s="108" t="inlineStr"/>
-      <c r="LW27" s="108" t="inlineStr"/>
-      <c r="LX27" s="108" t="inlineStr"/>
-      <c r="LY27" s="108" t="inlineStr"/>
-      <c r="LZ27" s="108" t="inlineStr"/>
-      <c r="MA27" s="108" t="inlineStr"/>
-      <c r="MB27" s="108" t="inlineStr"/>
-      <c r="MC27" s="108" t="inlineStr"/>
-      <c r="MD27" s="108" t="inlineStr"/>
-      <c r="ME27" s="108" t="inlineStr"/>
-      <c r="MF27" s="108" t="inlineStr"/>
-      <c r="MG27" s="108" t="inlineStr"/>
-      <c r="MH27" s="108" t="inlineStr"/>
-      <c r="MI27" s="108" t="inlineStr"/>
-      <c r="MJ27" s="108" t="inlineStr"/>
-      <c r="MK27" s="108" t="inlineStr"/>
-      <c r="ML27" s="108" t="inlineStr"/>
-      <c r="MM27" s="108" t="inlineStr"/>
-      <c r="MN27" s="108" t="inlineStr"/>
-      <c r="MO27" s="108" t="inlineStr"/>
-      <c r="MP27" s="108" t="inlineStr"/>
-      <c r="MQ27" s="108" t="inlineStr"/>
-      <c r="MR27" s="108" t="inlineStr"/>
-      <c r="MS27" s="108" t="inlineStr"/>
-      <c r="MT27" s="108" t="inlineStr"/>
-      <c r="MU27" s="108" t="inlineStr"/>
-      <c r="MV27" s="108" t="inlineStr"/>
-      <c r="MW27" s="108" t="inlineStr"/>
-      <c r="MX27" s="108" t="inlineStr"/>
-      <c r="MY27" s="108" t="inlineStr"/>
-      <c r="MZ27" s="108" t="inlineStr"/>
-      <c r="NA27" s="108" t="inlineStr"/>
-      <c r="NB27" s="108" t="inlineStr"/>
-      <c r="NC27" s="108" t="inlineStr"/>
-      <c r="ND27" s="108" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -10219,10 +10219,8 @@
       <c r="FO13" s="199" t="n">
         <v>0.9</v>
       </c>
-      <c r="FP13" s="199" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="FP13" s="199" t="n">
+        <v>0.9615384615384616</v>
       </c>
       <c r="FQ13" s="199" t="inlineStr"/>
       <c r="FR13" s="199" t="inlineStr"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -2687,9 +2687,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="H19:Q19"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -1710,10 +1710,7 @@
       <c r="Q3" s="115" t="n"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" s="106">
-      <c r="B4" s="116">
-        <f>TODAY()</f>
-        <v/>
-      </c>
+      <c r="B4" s="116" t="inlineStr"/>
       <c r="D4" s="117" t="inlineStr">
         <is>
           <t>Days Without Incident</t>
@@ -2687,9 +2684,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -2913,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -4652,7 +4649,7 @@
           <t>Haz ID's</t>
         </is>
       </c>
-      <c r="C3" s="104" t="n"/>
+      <c r="C3" s="104" t="inlineStr"/>
       <c r="D3" s="104" t="n"/>
       <c r="E3" s="104" t="n"/>
       <c r="F3" s="104" t="n"/>
@@ -5212,7 +5209,7 @@
           <t>Safety Gemba Walk</t>
         </is>
       </c>
-      <c r="C4" s="104" t="n"/>
+      <c r="C4" s="104" t="inlineStr"/>
       <c r="D4" s="104" t="n"/>
       <c r="E4" s="104" t="n"/>
       <c r="F4" s="104" t="n"/>
@@ -5768,7 +5765,7 @@
           <t>7S (Zone 26)</t>
         </is>
       </c>
-      <c r="C5" s="104" t="n"/>
+      <c r="C5" s="104" t="inlineStr"/>
       <c r="D5" s="104" t="n"/>
       <c r="E5" s="104" t="n"/>
       <c r="F5" s="104" t="n"/>
@@ -6302,7 +6299,7 @@
           <t>7S (Zone 51)</t>
         </is>
       </c>
-      <c r="C6" s="104" t="n"/>
+      <c r="C6" s="104" t="inlineStr"/>
       <c r="D6" s="104" t="n"/>
       <c r="E6" s="104" t="n"/>
       <c r="F6" s="104" t="n"/>
@@ -12493,7 +12490,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -12526,17 +12523,22 @@
     <row r="2" ht="15" customHeight="1" s="106">
       <c r="A2" s="104" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" s="104" t="inlineStr">
         <is>
-          <t>Nyman</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" s="104" t="inlineStr">
         <is>
-          <t>Helping to keep both areas clean and organized</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="104" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -12656,7 +12658,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -12901,7 +12903,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14602,7 +14604,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -2910,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -12490,7 +12490,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -12521,26 +12521,10 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="106">
-      <c r="A2" s="104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" s="104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" s="104" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="A2" s="104" t="inlineStr"/>
+      <c r="B2" s="104" t="inlineStr"/>
+      <c r="C2" s="104" t="inlineStr"/>
+      <c r="D2" s="104" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="106">
       <c r="A3" s="104" t="inlineStr">
@@ -12658,7 +12642,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -12903,7 +12887,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14604,7 +14588,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -1710,7 +1710,11 @@
       <c r="Q3" s="115" t="n"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" s="106">
-      <c r="B4" s="116" t="inlineStr"/>
+      <c r="B4" s="116" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="D4" s="117" t="inlineStr">
         <is>
           <t>Days Without Incident</t>
@@ -2684,9 +2688,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="H19:Q19"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -2910,7 +2914,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -4649,7 +4653,11 @@
           <t>Haz ID's</t>
         </is>
       </c>
-      <c r="C3" s="104" t="inlineStr"/>
+      <c r="C3" s="104" t="inlineStr">
+        <is>
+          <t>yygi</t>
+        </is>
+      </c>
       <c r="D3" s="104" t="n"/>
       <c r="E3" s="104" t="n"/>
       <c r="F3" s="104" t="n"/>
@@ -5209,7 +5217,11 @@
           <t>Safety Gemba Walk</t>
         </is>
       </c>
-      <c r="C4" s="104" t="inlineStr"/>
+      <c r="C4" s="104" t="inlineStr">
+        <is>
+          <t>iu</t>
+        </is>
+      </c>
       <c r="D4" s="104" t="n"/>
       <c r="E4" s="104" t="n"/>
       <c r="F4" s="104" t="n"/>
@@ -5765,7 +5777,11 @@
           <t>7S (Zone 26)</t>
         </is>
       </c>
-      <c r="C5" s="104" t="inlineStr"/>
+      <c r="C5" s="104" t="inlineStr">
+        <is>
+          <t>iug</t>
+        </is>
+      </c>
       <c r="D5" s="104" t="n"/>
       <c r="E5" s="104" t="n"/>
       <c r="F5" s="104" t="n"/>
@@ -6299,7 +6315,11 @@
           <t>7S (Zone 51)</t>
         </is>
       </c>
-      <c r="C6" s="104" t="inlineStr"/>
+      <c r="C6" s="104" t="inlineStr">
+        <is>
+          <t>iug</t>
+        </is>
+      </c>
       <c r="D6" s="104" t="n"/>
       <c r="E6" s="104" t="n"/>
       <c r="F6" s="104" t="n"/>
@@ -12484,13 +12504,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -12521,10 +12541,26 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="106">
-      <c r="A2" s="104" t="inlineStr"/>
-      <c r="B2" s="104" t="inlineStr"/>
-      <c r="C2" s="104" t="inlineStr"/>
-      <c r="D2" s="104" t="inlineStr"/>
+      <c r="A2" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="B2" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="C2" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="D2" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="106">
       <c r="A3" s="104" t="inlineStr">
@@ -12620,6 +12656,182 @@
       <c r="D7" s="210" t="inlineStr">
         <is>
           <t>21-May-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="B8" s="104" t="inlineStr">
+        <is>
+          <t>pee</t>
+        </is>
+      </c>
+      <c r="C8" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="D8" s="104" t="inlineStr">
+        <is>
+          <t>pee</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="B9" s="104" t="inlineStr">
+        <is>
+          <t>pee</t>
+        </is>
+      </c>
+      <c r="C9" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="D9" s="104" t="inlineStr">
+        <is>
+          <t>pee</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="B10" s="104" t="inlineStr">
+        <is>
+          <t>pee</t>
+        </is>
+      </c>
+      <c r="C10" s="104" t="inlineStr">
+        <is>
+          <t>poo</t>
+        </is>
+      </c>
+      <c r="D10" s="104" t="inlineStr">
+        <is>
+          <t>pee</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="C11" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="D11" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B12" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="C12" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="D12" s="104" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="104" t="inlineStr">
+        <is>
+          <t>popa</t>
+        </is>
+      </c>
+      <c r="B13" s="104" t="inlineStr">
+        <is>
+          <t>popa</t>
+        </is>
+      </c>
+      <c r="C13" s="104" t="inlineStr">
+        <is>
+          <t>popa</t>
+        </is>
+      </c>
+      <c r="D13" s="104" t="inlineStr">
+        <is>
+          <t>popa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="104" t="inlineStr">
+        <is>
+          <t>papa</t>
+        </is>
+      </c>
+      <c r="B14" s="104" t="inlineStr">
+        <is>
+          <t>popo</t>
+        </is>
+      </c>
+      <c r="C14" s="104" t="inlineStr">
+        <is>
+          <t>pupu</t>
+        </is>
+      </c>
+      <c r="D14" s="104" t="inlineStr">
+        <is>
+          <t>pepe</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>oo</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12854,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -12887,7 +13099,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14588,7 +14800,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1710,11 +1710,7 @@
       <c r="Q3" s="115" t="n"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" s="106">
-      <c r="B4" s="116" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="B4" s="116" t="inlineStr"/>
       <c r="D4" s="117" t="inlineStr">
         <is>
           <t>Days Without Incident</t>
@@ -4653,11 +4649,7 @@
           <t>Haz ID's</t>
         </is>
       </c>
-      <c r="C3" s="104" t="inlineStr">
-        <is>
-          <t>yygi</t>
-        </is>
-      </c>
+      <c r="C3" s="104" t="inlineStr"/>
       <c r="D3" s="104" t="n"/>
       <c r="E3" s="104" t="n"/>
       <c r="F3" s="104" t="n"/>
@@ -5217,11 +5209,7 @@
           <t>Safety Gemba Walk</t>
         </is>
       </c>
-      <c r="C4" s="104" t="inlineStr">
-        <is>
-          <t>iu</t>
-        </is>
-      </c>
+      <c r="C4" s="104" t="inlineStr"/>
       <c r="D4" s="104" t="n"/>
       <c r="E4" s="104" t="n"/>
       <c r="F4" s="104" t="n"/>
@@ -5777,11 +5765,7 @@
           <t>7S (Zone 26)</t>
         </is>
       </c>
-      <c r="C5" s="104" t="inlineStr">
-        <is>
-          <t>iug</t>
-        </is>
-      </c>
+      <c r="C5" s="104" t="inlineStr"/>
       <c r="D5" s="104" t="n"/>
       <c r="E5" s="104" t="n"/>
       <c r="F5" s="104" t="n"/>
@@ -6315,11 +6299,7 @@
           <t>7S (Zone 51)</t>
         </is>
       </c>
-      <c r="C6" s="104" t="inlineStr">
-        <is>
-          <t>iug</t>
-        </is>
-      </c>
+      <c r="C6" s="104" t="inlineStr"/>
       <c r="D6" s="104" t="n"/>
       <c r="E6" s="104" t="n"/>
       <c r="F6" s="104" t="n"/>
@@ -12504,7 +12484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
@@ -12814,24 +12794,90 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="104" t="inlineStr">
         <is>
           <t>oo</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="104" t="inlineStr">
         <is>
           <t>oo</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="104" t="inlineStr">
         <is>
           <t>oo</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="104" t="inlineStr">
         <is>
           <t>oo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="B16" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="C16" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="D16" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="B17" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="C17" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="D17" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="B18" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="C18" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="D18" s="104" t="inlineStr">
+        <is>
+          <t>op</t>
         </is>
       </c>
     </row>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -2684,9 +2684,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -2910,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -12484,13 +12484,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -12878,6 +12878,28 @@
       <c r="D18" s="104" t="inlineStr">
         <is>
           <t>op</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fart</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>poopy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Today</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12922,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -13145,7 +13167,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14846,7 +14868,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -2684,9 +2684,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="H19:Q19"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -2910,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -4604,8 +4604,16 @@
       <c r="LQ2" s="104" t="n"/>
       <c r="LR2" s="104" t="n"/>
       <c r="LS2" s="104" t="n"/>
-      <c r="LT2" s="104" t="n"/>
-      <c r="LU2" s="104" t="n"/>
+      <c r="LT2" s="104" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+      <c r="LU2" s="104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="LV2" s="104" t="n"/>
       <c r="LW2" s="104" t="n"/>
       <c r="LX2" s="104" t="n"/>
@@ -5164,8 +5172,12 @@
       <c r="LQ3" s="104" t="n"/>
       <c r="LR3" s="104" t="n"/>
       <c r="LS3" s="104" t="n"/>
-      <c r="LT3" s="104" t="n"/>
-      <c r="LU3" s="104" t="n"/>
+      <c r="LT3" s="104" t="inlineStr">
+        <is>
+          <t>oppo</t>
+        </is>
+      </c>
+      <c r="LU3" s="104" t="inlineStr"/>
       <c r="LV3" s="104" t="n"/>
       <c r="LW3" s="104" t="n"/>
       <c r="LX3" s="104" t="n"/>
@@ -5720,8 +5732,12 @@
       <c r="LQ4" s="104" t="n"/>
       <c r="LR4" s="104" t="n"/>
       <c r="LS4" s="104" t="n"/>
-      <c r="LT4" s="104" t="n"/>
-      <c r="LU4" s="104" t="n"/>
+      <c r="LT4" s="104" t="inlineStr">
+        <is>
+          <t>popo</t>
+        </is>
+      </c>
+      <c r="LU4" s="104" t="inlineStr"/>
       <c r="LV4" s="104" t="n"/>
       <c r="LW4" s="104" t="n"/>
       <c r="LX4" s="104" t="n"/>
@@ -6254,8 +6270,12 @@
       <c r="LQ5" s="104" t="n"/>
       <c r="LR5" s="104" t="n"/>
       <c r="LS5" s="104" t="n"/>
-      <c r="LT5" s="104" t="n"/>
-      <c r="LU5" s="104" t="n"/>
+      <c r="LT5" s="104" t="inlineStr">
+        <is>
+          <t>opop</t>
+        </is>
+      </c>
+      <c r="LU5" s="104" t="inlineStr"/>
       <c r="LV5" s="104" t="n"/>
       <c r="LW5" s="104" t="n"/>
       <c r="LX5" s="104" t="n"/>
@@ -6782,8 +6802,12 @@
       <c r="LQ6" s="104" t="n"/>
       <c r="LR6" s="104" t="n"/>
       <c r="LS6" s="104" t="n"/>
-      <c r="LT6" s="104" t="n"/>
-      <c r="LU6" s="104" t="n"/>
+      <c r="LT6" s="104" t="inlineStr">
+        <is>
+          <t>ooop</t>
+        </is>
+      </c>
+      <c r="LU6" s="104" t="inlineStr"/>
       <c r="LV6" s="104" t="n"/>
       <c r="LW6" s="104" t="n"/>
       <c r="LX6" s="104" t="n"/>
@@ -7135,6 +7159,7 @@
           <t>bii</t>
         </is>
       </c>
+      <c r="LU7" s="104" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="106">
       <c r="A8" s="104" t="n"/>
@@ -7665,7 +7690,7 @@
       <c r="LR8" s="104" t="n"/>
       <c r="LS8" s="104" t="n"/>
       <c r="LT8" s="104" t="n"/>
-      <c r="LU8" s="104" t="n"/>
+      <c r="LU8" s="104" t="inlineStr"/>
       <c r="LV8" s="104" t="n"/>
       <c r="LW8" s="104" t="n"/>
       <c r="LX8" s="104" t="n"/>
@@ -7819,6 +7844,7 @@
           <t>h</t>
         </is>
       </c>
+      <c r="LU9" s="104" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="106">
       <c r="A10" s="199" t="n"/>
@@ -8215,7 +8241,7 @@
       <c r="LR10" s="199" t="n"/>
       <c r="LS10" s="199" t="n"/>
       <c r="LT10" s="199" t="n"/>
-      <c r="LU10" s="199" t="n"/>
+      <c r="LU10" s="199" t="inlineStr"/>
       <c r="LV10" s="199" t="n"/>
       <c r="LW10" s="199" t="n"/>
       <c r="LX10" s="199" t="n"/>
@@ -8743,7 +8769,7 @@
       <c r="LR11" s="199" t="n"/>
       <c r="LS11" s="199" t="n"/>
       <c r="LT11" s="199" t="n"/>
-      <c r="LU11" s="199" t="n"/>
+      <c r="LU11" s="199" t="inlineStr"/>
       <c r="LV11" s="199" t="n"/>
       <c r="LW11" s="199" t="n"/>
       <c r="LX11" s="199" t="n"/>
@@ -9287,7 +9313,7 @@
       <c r="LR12" s="104" t="n"/>
       <c r="LS12" s="104" t="n"/>
       <c r="LT12" s="104" t="n"/>
-      <c r="LU12" s="104" t="n"/>
+      <c r="LU12" s="104" t="inlineStr"/>
       <c r="LV12" s="104" t="n"/>
       <c r="LW12" s="104" t="n"/>
       <c r="LX12" s="104" t="n"/>
@@ -9805,7 +9831,7 @@
       <c r="LR13" s="199" t="n"/>
       <c r="LS13" s="199" t="n"/>
       <c r="LT13" s="199" t="n"/>
-      <c r="LU13" s="199" t="n"/>
+      <c r="LU13" s="199" t="inlineStr"/>
       <c r="LV13" s="199" t="n"/>
       <c r="LW13" s="199" t="n"/>
       <c r="LX13" s="199" t="n"/>
@@ -10253,7 +10279,7 @@
       <c r="LR14" s="104" t="n"/>
       <c r="LS14" s="104" t="n"/>
       <c r="LT14" s="104" t="n"/>
-      <c r="LU14" s="104" t="n"/>
+      <c r="LU14" s="104" t="inlineStr"/>
       <c r="LV14" s="104" t="n"/>
       <c r="LW14" s="104" t="n"/>
       <c r="LX14" s="104" t="n"/>
@@ -10815,7 +10841,7 @@
       <c r="LR15" s="199" t="n"/>
       <c r="LS15" s="199" t="n"/>
       <c r="LT15" s="199" t="n"/>
-      <c r="LU15" s="199" t="n"/>
+      <c r="LU15" s="199" t="inlineStr"/>
       <c r="LV15" s="199" t="n"/>
       <c r="LW15" s="199" t="n"/>
       <c r="LX15" s="199" t="n"/>
@@ -11265,7 +11291,7 @@
       <c r="LR16" s="104" t="n"/>
       <c r="LS16" s="104" t="n"/>
       <c r="LT16" s="104" t="n"/>
-      <c r="LU16" s="104" t="n"/>
+      <c r="LU16" s="104" t="inlineStr"/>
       <c r="LV16" s="104" t="n"/>
       <c r="LW16" s="104" t="n"/>
       <c r="LX16" s="104" t="n"/>
@@ -11821,7 +11847,7 @@
       <c r="LR17" s="104" t="n"/>
       <c r="LS17" s="104" t="n"/>
       <c r="LT17" s="104" t="n"/>
-      <c r="LU17" s="104" t="n"/>
+      <c r="LU17" s="104" t="inlineStr"/>
       <c r="LV17" s="104" t="n"/>
       <c r="LW17" s="104" t="n"/>
       <c r="LX17" s="104" t="n"/>
@@ -12377,7 +12403,7 @@
       <c r="LR18" s="104" t="n"/>
       <c r="LS18" s="104" t="n"/>
       <c r="LT18" s="104" t="n"/>
-      <c r="LU18" s="104" t="n"/>
+      <c r="LU18" s="104" t="inlineStr"/>
       <c r="LV18" s="104" t="n"/>
       <c r="LW18" s="104" t="n"/>
       <c r="LX18" s="104" t="n"/>
@@ -12484,13 +12510,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -12882,24 +12908,46 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="104" t="inlineStr">
         <is>
           <t>Fart</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="104" t="inlineStr">
         <is>
           <t>poopy</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="104" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="104" t="inlineStr">
         <is>
           <t>Today</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="104" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C20" s="104" t="inlineStr">
+        <is>
+          <t>89874</t>
+        </is>
+      </c>
+      <c r="D20" s="104" t="inlineStr">
+        <is>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -12922,7 +12970,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -13167,7 +13215,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14868,7 +14916,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -5177,7 +5177,11 @@
           <t>oppo</t>
         </is>
       </c>
-      <c r="LU3" s="104" t="inlineStr"/>
+      <c r="LU3" s="104" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
       <c r="LV3" s="104" t="n"/>
       <c r="LW3" s="104" t="n"/>
       <c r="LX3" s="104" t="n"/>
@@ -5737,7 +5741,11 @@
           <t>popo</t>
         </is>
       </c>
-      <c r="LU4" s="104" t="inlineStr"/>
+      <c r="LU4" s="104" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="LV4" s="104" t="n"/>
       <c r="LW4" s="104" t="n"/>
       <c r="LX4" s="104" t="n"/>
@@ -6275,7 +6283,11 @@
           <t>opop</t>
         </is>
       </c>
-      <c r="LU5" s="104" t="inlineStr"/>
+      <c r="LU5" s="104" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
       <c r="LV5" s="104" t="n"/>
       <c r="LW5" s="104" t="n"/>
       <c r="LX5" s="104" t="n"/>
@@ -6807,7 +6819,11 @@
           <t>ooop</t>
         </is>
       </c>
-      <c r="LU6" s="104" t="inlineStr"/>
+      <c r="LU6" s="104" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="LV6" s="104" t="n"/>
       <c r="LW6" s="104" t="n"/>
       <c r="LX6" s="104" t="n"/>
@@ -7159,7 +7175,11 @@
           <t>bii</t>
         </is>
       </c>
-      <c r="LU7" s="104" t="inlineStr"/>
+      <c r="LU7" s="104" t="inlineStr">
+        <is>
+          <t>76485486</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="106">
       <c r="A8" s="104" t="n"/>
@@ -7690,7 +7710,11 @@
       <c r="LR8" s="104" t="n"/>
       <c r="LS8" s="104" t="n"/>
       <c r="LT8" s="104" t="n"/>
-      <c r="LU8" s="104" t="inlineStr"/>
+      <c r="LU8" s="104" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
       <c r="LV8" s="104" t="n"/>
       <c r="LW8" s="104" t="n"/>
       <c r="LX8" s="104" t="n"/>
@@ -7844,7 +7868,11 @@
           <t>h</t>
         </is>
       </c>
-      <c r="LU9" s="104" t="inlineStr"/>
+      <c r="LU9" s="104" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="106">
       <c r="A10" s="199" t="n"/>
@@ -8241,7 +8269,11 @@
       <c r="LR10" s="199" t="n"/>
       <c r="LS10" s="199" t="n"/>
       <c r="LT10" s="199" t="n"/>
-      <c r="LU10" s="199" t="inlineStr"/>
+      <c r="LU10" s="199" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
       <c r="LV10" s="199" t="n"/>
       <c r="LW10" s="199" t="n"/>
       <c r="LX10" s="199" t="n"/>
@@ -8769,7 +8801,11 @@
       <c r="LR11" s="199" t="n"/>
       <c r="LS11" s="199" t="n"/>
       <c r="LT11" s="199" t="n"/>
-      <c r="LU11" s="199" t="inlineStr"/>
+      <c r="LU11" s="199" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
       <c r="LV11" s="199" t="n"/>
       <c r="LW11" s="199" t="n"/>
       <c r="LX11" s="199" t="n"/>
@@ -9313,7 +9349,11 @@
       <c r="LR12" s="104" t="n"/>
       <c r="LS12" s="104" t="n"/>
       <c r="LT12" s="104" t="n"/>
-      <c r="LU12" s="104" t="inlineStr"/>
+      <c r="LU12" s="104" t="inlineStr">
+        <is>
+          <t>8668</t>
+        </is>
+      </c>
       <c r="LV12" s="104" t="n"/>
       <c r="LW12" s="104" t="n"/>
       <c r="LX12" s="104" t="n"/>
@@ -9831,7 +9871,11 @@
       <c r="LR13" s="199" t="n"/>
       <c r="LS13" s="199" t="n"/>
       <c r="LT13" s="199" t="n"/>
-      <c r="LU13" s="199" t="inlineStr"/>
+      <c r="LU13" s="199" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
       <c r="LV13" s="199" t="n"/>
       <c r="LW13" s="199" t="n"/>
       <c r="LX13" s="199" t="n"/>
@@ -10279,7 +10323,11 @@
       <c r="LR14" s="104" t="n"/>
       <c r="LS14" s="104" t="n"/>
       <c r="LT14" s="104" t="n"/>
-      <c r="LU14" s="104" t="inlineStr"/>
+      <c r="LU14" s="104" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
       <c r="LV14" s="104" t="n"/>
       <c r="LW14" s="104" t="n"/>
       <c r="LX14" s="104" t="n"/>
@@ -10841,7 +10889,11 @@
       <c r="LR15" s="199" t="n"/>
       <c r="LS15" s="199" t="n"/>
       <c r="LT15" s="199" t="n"/>
-      <c r="LU15" s="199" t="inlineStr"/>
+      <c r="LU15" s="199" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
       <c r="LV15" s="199" t="n"/>
       <c r="LW15" s="199" t="n"/>
       <c r="LX15" s="199" t="n"/>
@@ -11291,7 +11343,11 @@
       <c r="LR16" s="104" t="n"/>
       <c r="LS16" s="104" t="n"/>
       <c r="LT16" s="104" t="n"/>
-      <c r="LU16" s="104" t="inlineStr"/>
+      <c r="LU16" s="104" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
       <c r="LV16" s="104" t="n"/>
       <c r="LW16" s="104" t="n"/>
       <c r="LX16" s="104" t="n"/>
@@ -11847,7 +11903,11 @@
       <c r="LR17" s="104" t="n"/>
       <c r="LS17" s="104" t="n"/>
       <c r="LT17" s="104" t="n"/>
-      <c r="LU17" s="104" t="inlineStr"/>
+      <c r="LU17" s="104" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
       <c r="LV17" s="104" t="n"/>
       <c r="LW17" s="104" t="n"/>
       <c r="LX17" s="104" t="n"/>
@@ -12403,7 +12463,11 @@
       <c r="LR18" s="104" t="n"/>
       <c r="LS18" s="104" t="n"/>
       <c r="LT18" s="104" t="n"/>
-      <c r="LU18" s="104" t="inlineStr"/>
+      <c r="LU18" s="104" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
       <c r="LV18" s="104" t="n"/>
       <c r="LW18" s="104" t="n"/>
       <c r="LX18" s="104" t="n"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -2910,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -4611,10 +4611,14 @@
       </c>
       <c r="LU2" s="104" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="LV2" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV2" s="104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="LW2" s="104" t="n"/>
       <c r="LX2" s="104" t="n"/>
       <c r="LY2" s="104" t="n"/>
@@ -5179,10 +5183,14 @@
       </c>
       <c r="LU3" s="104" t="inlineStr">
         <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="LV3" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV3" s="104" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="LW3" s="104" t="n"/>
       <c r="LX3" s="104" t="n"/>
       <c r="LY3" s="104" t="n"/>
@@ -5743,10 +5751,14 @@
       </c>
       <c r="LU4" s="104" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="LV4" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV4" s="104" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="LW4" s="104" t="n"/>
       <c r="LX4" s="104" t="n"/>
       <c r="LY4" s="104" t="n"/>
@@ -6285,10 +6297,14 @@
       </c>
       <c r="LU5" s="104" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="LV5" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV5" s="104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="LW5" s="104" t="n"/>
       <c r="LX5" s="104" t="n"/>
       <c r="LY5" s="104" t="n"/>
@@ -6821,10 +6837,14 @@
       </c>
       <c r="LU6" s="104" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="LV6" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV6" s="104" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="LW6" s="104" t="n"/>
       <c r="LX6" s="104" t="n"/>
       <c r="LY6" s="104" t="n"/>
@@ -7177,7 +7197,12 @@
       </c>
       <c r="LU7" s="104" t="inlineStr">
         <is>
-          <t>76485486</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV7" s="104" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7712,10 +7737,14 @@
       <c r="LT8" s="104" t="n"/>
       <c r="LU8" s="104" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="LV8" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV8" s="104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="LW8" s="104" t="n"/>
       <c r="LX8" s="104" t="n"/>
       <c r="LY8" s="104" t="n"/>
@@ -7870,7 +7899,12 @@
       </c>
       <c r="LU9" s="104" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV9" s="104" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8271,10 +8305,14 @@
       <c r="LT10" s="199" t="n"/>
       <c r="LU10" s="199" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="LV10" s="199" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV10" s="199" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="LW10" s="199" t="n"/>
       <c r="LX10" s="199" t="n"/>
       <c r="LY10" s="199" t="n"/>
@@ -8803,10 +8841,14 @@
       <c r="LT11" s="199" t="n"/>
       <c r="LU11" s="199" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="LV11" s="199" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV11" s="199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="LW11" s="199" t="n"/>
       <c r="LX11" s="199" t="n"/>
       <c r="LY11" s="199" t="n"/>
@@ -9351,10 +9393,14 @@
       <c r="LT12" s="104" t="n"/>
       <c r="LU12" s="104" t="inlineStr">
         <is>
-          <t>8668</t>
-        </is>
-      </c>
-      <c r="LV12" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV12" s="104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="LW12" s="104" t="n"/>
       <c r="LX12" s="104" t="n"/>
       <c r="LY12" s="104" t="n"/>
@@ -9873,10 +9919,14 @@
       <c r="LT13" s="199" t="n"/>
       <c r="LU13" s="199" t="inlineStr">
         <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="LV13" s="199" t="n"/>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="LV13" s="199" t="inlineStr">
+        <is>
+          <t>7.6923076923076925</t>
+        </is>
+      </c>
       <c r="LW13" s="199" t="n"/>
       <c r="LX13" s="199" t="n"/>
       <c r="LY13" s="199" t="n"/>
@@ -10325,10 +10375,14 @@
       <c r="LT14" s="104" t="n"/>
       <c r="LU14" s="104" t="inlineStr">
         <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="LV14" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV14" s="104" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="LW14" s="104" t="n"/>
       <c r="LX14" s="104" t="n"/>
       <c r="LY14" s="104" t="n"/>
@@ -10891,10 +10945,14 @@
       <c r="LT15" s="199" t="n"/>
       <c r="LU15" s="199" t="inlineStr">
         <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="LV15" s="199" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV15" s="199" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="LW15" s="199" t="n"/>
       <c r="LX15" s="199" t="n"/>
       <c r="LY15" s="199" t="n"/>
@@ -11345,10 +11403,14 @@
       <c r="LT16" s="104" t="n"/>
       <c r="LU16" s="104" t="inlineStr">
         <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="LV16" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV16" s="104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="LW16" s="104" t="n"/>
       <c r="LX16" s="104" t="n"/>
       <c r="LY16" s="104" t="n"/>
@@ -11905,10 +11967,14 @@
       <c r="LT17" s="104" t="n"/>
       <c r="LU17" s="104" t="inlineStr">
         <is>
-          <t>864</t>
-        </is>
-      </c>
-      <c r="LV17" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV17" s="104" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="LW17" s="104" t="n"/>
       <c r="LX17" s="104" t="n"/>
       <c r="LY17" s="104" t="n"/>
@@ -12465,10 +12531,14 @@
       <c r="LT18" s="104" t="n"/>
       <c r="LU18" s="104" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="LV18" s="104" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="LV18" s="104" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="LW18" s="104" t="n"/>
       <c r="LX18" s="104" t="n"/>
       <c r="LY18" s="104" t="n"/>
@@ -12580,7 +12650,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -13034,7 +13104,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -13279,7 +13349,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14980,7 +15050,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -2684,9 +2684,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -2910,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -5177,7 +5177,11 @@
           <t>oppo</t>
         </is>
       </c>
-      <c r="LU3" s="104" t="inlineStr"/>
+      <c r="LU3" s="104" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
       <c r="LV3" s="104" t="n"/>
       <c r="LW3" s="104" t="n"/>
       <c r="LX3" s="104" t="n"/>
@@ -5737,7 +5741,11 @@
           <t>popo</t>
         </is>
       </c>
-      <c r="LU4" s="104" t="inlineStr"/>
+      <c r="LU4" s="104" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
       <c r="LV4" s="104" t="n"/>
       <c r="LW4" s="104" t="n"/>
       <c r="LX4" s="104" t="n"/>
@@ -6275,7 +6283,11 @@
           <t>opop</t>
         </is>
       </c>
-      <c r="LU5" s="104" t="inlineStr"/>
+      <c r="LU5" s="104" t="inlineStr">
+        <is>
+          <t>ug</t>
+        </is>
+      </c>
       <c r="LV5" s="104" t="n"/>
       <c r="LW5" s="104" t="n"/>
       <c r="LX5" s="104" t="n"/>
@@ -6807,7 +6819,11 @@
           <t>ooop</t>
         </is>
       </c>
-      <c r="LU6" s="104" t="inlineStr"/>
+      <c r="LU6" s="104" t="inlineStr">
+        <is>
+          <t>iu</t>
+        </is>
+      </c>
       <c r="LV6" s="104" t="n"/>
       <c r="LW6" s="104" t="n"/>
       <c r="LX6" s="104" t="n"/>
@@ -7159,7 +7175,11 @@
           <t>bii</t>
         </is>
       </c>
-      <c r="LU7" s="104" t="inlineStr"/>
+      <c r="LU7" s="104" t="inlineStr">
+        <is>
+          <t>gui</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="106">
       <c r="A8" s="104" t="n"/>
@@ -7690,7 +7710,11 @@
       <c r="LR8" s="104" t="n"/>
       <c r="LS8" s="104" t="n"/>
       <c r="LT8" s="104" t="n"/>
-      <c r="LU8" s="104" t="inlineStr"/>
+      <c r="LU8" s="104" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
       <c r="LV8" s="104" t="n"/>
       <c r="LW8" s="104" t="n"/>
       <c r="LX8" s="104" t="n"/>
@@ -7844,7 +7868,11 @@
           <t>h</t>
         </is>
       </c>
-      <c r="LU9" s="104" t="inlineStr"/>
+      <c r="LU9" s="104" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="106">
       <c r="A10" s="199" t="n"/>
@@ -8241,7 +8269,11 @@
       <c r="LR10" s="199" t="n"/>
       <c r="LS10" s="199" t="n"/>
       <c r="LT10" s="199" t="n"/>
-      <c r="LU10" s="199" t="inlineStr"/>
+      <c r="LU10" s="199" t="inlineStr">
+        <is>
+          <t>lg</t>
+        </is>
+      </c>
       <c r="LV10" s="199" t="n"/>
       <c r="LW10" s="199" t="n"/>
       <c r="LX10" s="199" t="n"/>
@@ -8769,7 +8801,11 @@
       <c r="LR11" s="199" t="n"/>
       <c r="LS11" s="199" t="n"/>
       <c r="LT11" s="199" t="n"/>
-      <c r="LU11" s="199" t="inlineStr"/>
+      <c r="LU11" s="199" t="inlineStr">
+        <is>
+          <t>iu</t>
+        </is>
+      </c>
       <c r="LV11" s="199" t="n"/>
       <c r="LW11" s="199" t="n"/>
       <c r="LX11" s="199" t="n"/>
@@ -9313,7 +9349,11 @@
       <c r="LR12" s="104" t="n"/>
       <c r="LS12" s="104" t="n"/>
       <c r="LT12" s="104" t="n"/>
-      <c r="LU12" s="104" t="inlineStr"/>
+      <c r="LU12" s="104" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
       <c r="LV12" s="104" t="n"/>
       <c r="LW12" s="104" t="n"/>
       <c r="LX12" s="104" t="n"/>
@@ -9831,7 +9871,11 @@
       <c r="LR13" s="199" t="n"/>
       <c r="LS13" s="199" t="n"/>
       <c r="LT13" s="199" t="n"/>
-      <c r="LU13" s="199" t="inlineStr"/>
+      <c r="LU13" s="199" t="inlineStr">
+        <is>
+          <t>iuy</t>
+        </is>
+      </c>
       <c r="LV13" s="199" t="n"/>
       <c r="LW13" s="199" t="n"/>
       <c r="LX13" s="199" t="n"/>
@@ -10279,7 +10323,11 @@
       <c r="LR14" s="104" t="n"/>
       <c r="LS14" s="104" t="n"/>
       <c r="LT14" s="104" t="n"/>
-      <c r="LU14" s="104" t="inlineStr"/>
+      <c r="LU14" s="104" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
       <c r="LV14" s="104" t="n"/>
       <c r="LW14" s="104" t="n"/>
       <c r="LX14" s="104" t="n"/>
@@ -10841,7 +10889,11 @@
       <c r="LR15" s="199" t="n"/>
       <c r="LS15" s="199" t="n"/>
       <c r="LT15" s="199" t="n"/>
-      <c r="LU15" s="199" t="inlineStr"/>
+      <c r="LU15" s="199" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
+      </c>
       <c r="LV15" s="199" t="n"/>
       <c r="LW15" s="199" t="n"/>
       <c r="LX15" s="199" t="n"/>
@@ -11291,7 +11343,11 @@
       <c r="LR16" s="104" t="n"/>
       <c r="LS16" s="104" t="n"/>
       <c r="LT16" s="104" t="n"/>
-      <c r="LU16" s="104" t="inlineStr"/>
+      <c r="LU16" s="104" t="inlineStr">
+        <is>
+          <t>giu</t>
+        </is>
+      </c>
       <c r="LV16" s="104" t="n"/>
       <c r="LW16" s="104" t="n"/>
       <c r="LX16" s="104" t="n"/>
@@ -11847,7 +11903,11 @@
       <c r="LR17" s="104" t="n"/>
       <c r="LS17" s="104" t="n"/>
       <c r="LT17" s="104" t="n"/>
-      <c r="LU17" s="104" t="inlineStr"/>
+      <c r="LU17" s="104" t="inlineStr">
+        <is>
+          <t>gjk</t>
+        </is>
+      </c>
       <c r="LV17" s="104" t="n"/>
       <c r="LW17" s="104" t="n"/>
       <c r="LX17" s="104" t="n"/>
@@ -12403,7 +12463,11 @@
       <c r="LR18" s="104" t="n"/>
       <c r="LS18" s="104" t="n"/>
       <c r="LT18" s="104" t="n"/>
-      <c r="LU18" s="104" t="inlineStr"/>
+      <c r="LU18" s="104" t="inlineStr">
+        <is>
+          <t>kjhg</t>
+        </is>
+      </c>
       <c r="LV18" s="104" t="n"/>
       <c r="LW18" s="104" t="n"/>
       <c r="LX18" s="104" t="n"/>
@@ -12516,7 +12580,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -12970,7 +13034,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -13215,7 +13279,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14916,7 +14980,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -1644,7 +1644,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="104" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="104" min="2" max="2"/>
@@ -2684,9 +2684,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="H19:Q19"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -2895,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -2910,7 +2910,7 @@
       <selection pane="bottomRight" activeCell="FQ2" activeCellId="0" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="104" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="104" min="135" max="139"/>
@@ -4029,7 +4029,11 @@
           <t>Days without Incident</t>
         </is>
       </c>
-      <c r="C2" s="104" t="n"/>
+      <c r="C2" s="104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="D2" s="104" t="n"/>
       <c r="E2" s="104" t="n"/>
       <c r="F2" s="104" t="n"/>
@@ -4657,7 +4661,11 @@
           <t>Haz ID's</t>
         </is>
       </c>
-      <c r="C3" s="104" t="inlineStr"/>
+      <c r="C3" s="104" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="D3" s="104" t="n"/>
       <c r="E3" s="104" t="n"/>
       <c r="F3" s="104" t="n"/>
@@ -5225,7 +5233,11 @@
           <t>Safety Gemba Walk</t>
         </is>
       </c>
-      <c r="C4" s="104" t="inlineStr"/>
+      <c r="C4" s="104" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="D4" s="104" t="n"/>
       <c r="E4" s="104" t="n"/>
       <c r="F4" s="104" t="n"/>
@@ -5789,7 +5801,11 @@
           <t>7S (Zone 26)</t>
         </is>
       </c>
-      <c r="C5" s="104" t="inlineStr"/>
+      <c r="C5" s="104" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
       <c r="D5" s="104" t="n"/>
       <c r="E5" s="104" t="n"/>
       <c r="F5" s="104" t="n"/>
@@ -6331,7 +6347,11 @@
           <t>7S (Zone 51)</t>
         </is>
       </c>
-      <c r="C6" s="104" t="inlineStr"/>
+      <c r="C6" s="104" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
       <c r="D6" s="104" t="n"/>
       <c r="E6" s="104" t="n"/>
       <c r="F6" s="104" t="n"/>
@@ -6867,7 +6887,11 @@
           <t>Errors</t>
         </is>
       </c>
-      <c r="C7" s="199" t="n"/>
+      <c r="C7" s="199" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="D7" s="199" t="n"/>
       <c r="E7" s="199" t="n"/>
       <c r="F7" s="199" t="n"/>
@@ -7188,7 +7212,11 @@
           <t>PCD Returns</t>
         </is>
       </c>
-      <c r="C8" s="104" t="n"/>
+      <c r="C8" s="104" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
       <c r="D8" s="104" t="n"/>
       <c r="E8" s="104" t="n"/>
       <c r="F8" s="104" t="n"/>
@@ -7757,6 +7785,11 @@
           <t>Jobs on Hold</t>
         </is>
       </c>
+      <c r="C9" s="104" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
       <c r="DC9" s="104" t="n">
         <v>0</v>
       </c>
@@ -7881,7 +7914,11 @@
           <t>Productivity</t>
         </is>
       </c>
-      <c r="C10" s="199" t="n"/>
+      <c r="C10" s="199" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="D10" s="199" t="n"/>
       <c r="E10" s="199" t="n"/>
       <c r="F10" s="199" t="n"/>
@@ -8317,7 +8354,11 @@
           <t>OTIF %</t>
         </is>
       </c>
-      <c r="C11" s="199" t="n"/>
+      <c r="C11" s="199" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
       <c r="D11" s="199" t="n"/>
       <c r="E11" s="199" t="n"/>
       <c r="F11" s="199" t="n"/>
@@ -8849,7 +8890,11 @@
           <t>Huddles</t>
         </is>
       </c>
-      <c r="C12" s="104" t="n"/>
+      <c r="C12" s="104" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="D12" s="104" t="n"/>
       <c r="E12" s="104" t="n"/>
       <c r="F12" s="104" t="n"/>
@@ -9397,7 +9442,11 @@
           <t>Truck Fill %</t>
         </is>
       </c>
-      <c r="C13" s="199" t="n"/>
+      <c r="C13" s="199" t="inlineStr">
+        <is>
+          <t>19.23%</t>
+        </is>
+      </c>
       <c r="D13" s="199" t="n"/>
       <c r="E13" s="199" t="n"/>
       <c r="F13" s="199" t="n"/>
@@ -9919,7 +9968,11 @@
           <t>Recognitions</t>
         </is>
       </c>
-      <c r="C14" s="104" t="n"/>
+      <c r="C14" s="104" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
       <c r="D14" s="104" t="n"/>
       <c r="E14" s="104" t="n"/>
       <c r="F14" s="104" t="n"/>
@@ -10371,7 +10424,11 @@
           <t>MC Compliance</t>
         </is>
       </c>
-      <c r="C15" s="199" t="n"/>
+      <c r="C15" s="199" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
       <c r="D15" s="199" t="n"/>
       <c r="E15" s="199" t="n"/>
       <c r="F15" s="199" t="n"/>
@@ -10937,7 +10994,11 @@
           <t>Cost Savings</t>
         </is>
       </c>
-      <c r="C16" s="104" t="n"/>
+      <c r="C16" s="104" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
       <c r="D16" s="104" t="n"/>
       <c r="E16" s="104" t="n"/>
       <c r="F16" s="104" t="n"/>
@@ -11391,7 +11452,11 @@
           <t>Rever's</t>
         </is>
       </c>
-      <c r="C17" s="104" t="n"/>
+      <c r="C17" s="104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D17" s="104" t="n"/>
       <c r="E17" s="104" t="n"/>
       <c r="F17" s="104" t="n"/>
@@ -11951,7 +12016,11 @@
           <t>Project's</t>
         </is>
       </c>
-      <c r="C18" s="104" t="n"/>
+      <c r="C18" s="104" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
       <c r="D18" s="104" t="n"/>
       <c r="E18" s="104" t="n"/>
       <c r="F18" s="104" t="n"/>
@@ -12564,7 +12633,7 @@
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -12580,7 +12649,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="104" min="1" max="1"/>
     <col width="17" customWidth="1" style="104" min="2" max="2"/>
@@ -13034,7 +13103,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="211" min="1" max="1"/>
     <col width="11" customWidth="1" style="211" min="2" max="2"/>
@@ -13279,7 +13348,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="217" min="2" max="2"/>
     <col width="12" customWidth="1" style="217" min="3" max="3"/>
@@ -14980,7 +15049,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="217" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="217" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -3269,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:NL27"/>
+  <dimension ref="A1:NJ27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="FH2" activePane="bottomRight" state="frozen"/>
@@ -4408,14 +4408,6 @@
       <c r="NJ1" s="240" t="n">
         <v>45663</v>
       </c>
-      <c r="NK1" s="240" t="n">
-        <v>45663</v>
-      </c>
-      <c r="NL1" s="108" t="inlineStr">
-        <is>
-          <t>01/06/2025</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="110">
       <c r="B2" s="204" t="inlineStr">
@@ -4908,7 +4900,7 @@
       <c r="FX2" s="108" t="n">
         <v>60</v>
       </c>
-      <c r="NL2" s="108" t="inlineStr">
+      <c r="NJ2" s="108" t="inlineStr">
         <is>
           <t>41</t>
         </is>
@@ -5181,11 +5173,7 @@
       <c r="FO3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="NL3" s="108" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
+      <c r="NJ3" s="108" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="110">
       <c r="B4" s="204" t="inlineStr">
@@ -5448,11 +5436,7 @@
       <c r="FO4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="NL4" s="108" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
-      </c>
+      <c r="NJ4" s="108" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B5" s="206" t="inlineStr">
@@ -5734,11 +5718,7 @@
       <c r="FO5" s="205" t="n">
         <v>4.03</v>
       </c>
-      <c r="NL5" s="108" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
+      <c r="NJ5" s="108" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B6" s="206" t="inlineStr">
@@ -6011,11 +5991,7 @@
       <c r="FO6" s="205" t="n">
         <v>3.1</v>
       </c>
-      <c r="NL6" s="108" t="inlineStr">
-        <is>
-          <t>416</t>
-        </is>
-      </c>
+      <c r="NJ6" s="108" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="A7" s="208" t="n"/>
@@ -6322,11 +6298,7 @@
       <c r="FO7" s="207" t="n">
         <v>1</v>
       </c>
-      <c r="NL7" s="108" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
+      <c r="NJ7" s="108" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="110">
       <c r="B8" s="210" t="inlineStr">
@@ -6604,11 +6576,7 @@
       <c r="FO8" s="207" t="n">
         <v>1</v>
       </c>
-      <c r="NL8" s="108" t="inlineStr">
-        <is>
-          <t>8569</t>
-        </is>
-      </c>
+      <c r="NJ8" s="108" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="B9" s="211" t="inlineStr">
@@ -6712,11 +6680,7 @@
       <c r="FO9" s="207" t="n">
         <v>0</v>
       </c>
-      <c r="NL9" s="108" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
+      <c r="NJ9" s="108" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="110">
       <c r="A10" s="208" t="n"/>
@@ -7357,11 +7321,7 @@
       <c r="NB10" s="208" t="n"/>
       <c r="NC10" s="208" t="n"/>
       <c r="ND10" s="208" t="n"/>
-      <c r="NL10" s="108" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
+      <c r="NJ10" s="108" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="110">
       <c r="A11" s="208" t="n"/>
@@ -7878,11 +7838,7 @@
       <c r="NB11" s="208" t="n"/>
       <c r="NC11" s="208" t="n"/>
       <c r="ND11" s="208" t="n"/>
-      <c r="NL11" s="108" t="inlineStr">
-        <is>
-          <t>516</t>
-        </is>
-      </c>
+      <c r="NJ11" s="108" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="110">
       <c r="A12" s="207" t="n"/>
@@ -8431,11 +8387,7 @@
       <c r="NB12" s="207" t="n"/>
       <c r="NC12" s="207" t="n"/>
       <c r="ND12" s="207" t="n"/>
-      <c r="NL12" s="108" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
+      <c r="NJ12" s="108" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="110">
       <c r="A13" s="208" t="n"/>
@@ -9002,9 +8954,9 @@
       <c r="NB13" s="208" t="n"/>
       <c r="NC13" s="208" t="n"/>
       <c r="ND13" s="208" t="n"/>
-      <c r="NL13" s="108" t="inlineStr">
-        <is>
-          <t>65</t>
+      <c r="NJ13" s="108" t="inlineStr">
+        <is>
+          <t>15.38%</t>
         </is>
       </c>
     </row>
@@ -9107,11 +9059,7 @@
       <c r="FO14" s="207" t="n">
         <v>0</v>
       </c>
-      <c r="NL14" s="108" t="inlineStr">
-        <is>
-          <t>6581</t>
-        </is>
-      </c>
+      <c r="NJ14" s="108" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="110">
       <c r="A15" s="208" t="n"/>
@@ -9662,11 +9610,7 @@
       <c r="NB15" s="208" t="n"/>
       <c r="NC15" s="208" t="n"/>
       <c r="ND15" s="208" t="n"/>
-      <c r="NL15" s="108" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
+      <c r="NJ15" s="108" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="110">
       <c r="B16" s="215" t="inlineStr">
@@ -9770,11 +9714,7 @@
       <c r="FO16" s="216" t="n">
         <v>1735.5</v>
       </c>
-      <c r="NL16" s="108" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
+      <c r="NJ16" s="108" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="110">
       <c r="B17" s="215" t="inlineStr">
@@ -10037,11 +9977,7 @@
       <c r="FO17" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="NL17" s="108" t="inlineStr">
-        <is>
-          <t>56561</t>
-        </is>
-      </c>
+      <c r="NJ17" s="108" t="inlineStr"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="110">
       <c r="B18" s="215" t="inlineStr">
@@ -10304,11 +10240,7 @@
       <c r="FO18" s="108" t="n">
         <v>5</v>
       </c>
-      <c r="NL18" s="108" t="inlineStr">
-        <is>
-          <t>4156</t>
-        </is>
-      </c>
+      <c r="NJ18" s="108" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="110">
       <c r="B19" s="108" t="inlineStr">

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -3053,9 +3053,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -3269,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:NJ27"/>
+  <dimension ref="A1:NP27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="FH2" activePane="bottomRight" state="frozen"/>
@@ -4408,6 +4408,24 @@
       <c r="NJ1" s="240" t="n">
         <v>45663</v>
       </c>
+      <c r="NK1" s="240" t="n">
+        <v>45664</v>
+      </c>
+      <c r="NL1" s="240" t="n">
+        <v>45665</v>
+      </c>
+      <c r="NM1" s="240" t="n">
+        <v>45666</v>
+      </c>
+      <c r="NN1" s="240" t="n">
+        <v>45667</v>
+      </c>
+      <c r="NO1" s="240" t="n">
+        <v>45668</v>
+      </c>
+      <c r="NP1" s="240" t="n">
+        <v>45669</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="110">
       <c r="B2" s="204" t="inlineStr">
@@ -4905,6 +4923,21 @@
           <t>41</t>
         </is>
       </c>
+      <c r="NN2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="NO2" s="108" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="NP2" s="108" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="110">
       <c r="B3" s="204" t="inlineStr">
@@ -5174,6 +5207,9 @@
         <v>0</v>
       </c>
       <c r="NJ3" s="108" t="inlineStr"/>
+      <c r="NN3" t="inlineStr"/>
+      <c r="NO3" s="108" t="inlineStr"/>
+      <c r="NP3" s="108" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="110">
       <c r="B4" s="204" t="inlineStr">
@@ -5437,6 +5473,9 @@
         <v>1</v>
       </c>
       <c r="NJ4" s="108" t="inlineStr"/>
+      <c r="NN4" t="inlineStr"/>
+      <c r="NO4" s="108" t="inlineStr"/>
+      <c r="NP4" s="108" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B5" s="206" t="inlineStr">
@@ -5719,6 +5758,9 @@
         <v>4.03</v>
       </c>
       <c r="NJ5" s="108" t="inlineStr"/>
+      <c r="NN5" t="inlineStr"/>
+      <c r="NO5" s="108" t="inlineStr"/>
+      <c r="NP5" s="108" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B6" s="206" t="inlineStr">
@@ -5992,6 +6034,9 @@
         <v>3.1</v>
       </c>
       <c r="NJ6" s="108" t="inlineStr"/>
+      <c r="NN6" t="inlineStr"/>
+      <c r="NO6" s="108" t="inlineStr"/>
+      <c r="NP6" s="108" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="A7" s="208" t="n"/>
@@ -6299,6 +6344,9 @@
         <v>1</v>
       </c>
       <c r="NJ7" s="108" t="inlineStr"/>
+      <c r="NN7" t="inlineStr"/>
+      <c r="NO7" s="108" t="inlineStr"/>
+      <c r="NP7" s="108" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="110">
       <c r="B8" s="210" t="inlineStr">
@@ -6577,6 +6625,9 @@
         <v>1</v>
       </c>
       <c r="NJ8" s="108" t="inlineStr"/>
+      <c r="NN8" t="inlineStr"/>
+      <c r="NO8" s="108" t="inlineStr"/>
+      <c r="NP8" s="108" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="B9" s="211" t="inlineStr">
@@ -6681,6 +6732,9 @@
         <v>0</v>
       </c>
       <c r="NJ9" s="108" t="inlineStr"/>
+      <c r="NN9" t="inlineStr"/>
+      <c r="NO9" s="108" t="inlineStr"/>
+      <c r="NP9" s="108" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="110">
       <c r="A10" s="208" t="n"/>
@@ -7322,6 +7376,9 @@
       <c r="NC10" s="208" t="n"/>
       <c r="ND10" s="208" t="n"/>
       <c r="NJ10" s="108" t="inlineStr"/>
+      <c r="NN10" t="inlineStr"/>
+      <c r="NO10" s="108" t="inlineStr"/>
+      <c r="NP10" s="108" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="110">
       <c r="A11" s="208" t="n"/>
@@ -7839,6 +7896,9 @@
       <c r="NC11" s="208" t="n"/>
       <c r="ND11" s="208" t="n"/>
       <c r="NJ11" s="108" t="inlineStr"/>
+      <c r="NN11" t="inlineStr"/>
+      <c r="NO11" s="108" t="inlineStr"/>
+      <c r="NP11" s="108" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="110">
       <c r="A12" s="207" t="n"/>
@@ -8388,6 +8448,9 @@
       <c r="NC12" s="207" t="n"/>
       <c r="ND12" s="207" t="n"/>
       <c r="NJ12" s="108" t="inlineStr"/>
+      <c r="NN12" t="inlineStr"/>
+      <c r="NO12" s="108" t="inlineStr"/>
+      <c r="NP12" s="108" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="110">
       <c r="A13" s="208" t="n"/>
@@ -8959,6 +9022,21 @@
           <t>15.38%</t>
         </is>
       </c>
+      <c r="NN13" t="inlineStr">
+        <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="NO13" s="108" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="NP13" s="108" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="110">
       <c r="B14" s="213" t="inlineStr">
@@ -9060,6 +9138,9 @@
         <v>0</v>
       </c>
       <c r="NJ14" s="108" t="inlineStr"/>
+      <c r="NN14" t="inlineStr"/>
+      <c r="NO14" s="108" t="inlineStr"/>
+      <c r="NP14" s="108" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="110">
       <c r="A15" s="208" t="n"/>
@@ -9611,6 +9692,9 @@
       <c r="NC15" s="208" t="n"/>
       <c r="ND15" s="208" t="n"/>
       <c r="NJ15" s="108" t="inlineStr"/>
+      <c r="NN15" t="inlineStr"/>
+      <c r="NO15" s="108" t="inlineStr"/>
+      <c r="NP15" s="108" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="110">
       <c r="B16" s="215" t="inlineStr">
@@ -9715,6 +9799,9 @@
         <v>1735.5</v>
       </c>
       <c r="NJ16" s="108" t="inlineStr"/>
+      <c r="NN16" t="inlineStr"/>
+      <c r="NO16" s="108" t="inlineStr"/>
+      <c r="NP16" s="108" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="110">
       <c r="B17" s="215" t="inlineStr">
@@ -9978,6 +10065,9 @@
         <v>0</v>
       </c>
       <c r="NJ17" s="108" t="inlineStr"/>
+      <c r="NN17" t="inlineStr"/>
+      <c r="NO17" s="108" t="inlineStr"/>
+      <c r="NP17" s="108" t="inlineStr"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="110">
       <c r="B18" s="215" t="inlineStr">
@@ -10241,6 +10331,9 @@
         <v>5</v>
       </c>
       <c r="NJ18" s="108" t="inlineStr"/>
+      <c r="NN18" t="inlineStr"/>
+      <c r="NO18" s="108" t="inlineStr"/>
+      <c r="NP18" s="108" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="110">
       <c r="B19" s="108" t="inlineStr">

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -4923,7 +4923,7 @@
           <t>41</t>
         </is>
       </c>
-      <c r="NN2" t="inlineStr">
+      <c r="NN2" s="108" t="inlineStr">
         <is>
           <t>45</t>
         </is>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="NP2" s="108" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>dsfg</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="NJ3" s="108" t="inlineStr"/>
-      <c r="NN3" t="inlineStr"/>
+      <c r="NN3" s="108" t="inlineStr"/>
       <c r="NO3" s="108" t="inlineStr"/>
       <c r="NP3" s="108" t="inlineStr"/>
     </row>
@@ -5473,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="NJ4" s="108" t="inlineStr"/>
-      <c r="NN4" t="inlineStr"/>
+      <c r="NN4" s="108" t="inlineStr"/>
       <c r="NO4" s="108" t="inlineStr"/>
       <c r="NP4" s="108" t="inlineStr"/>
     </row>
@@ -5758,7 +5758,7 @@
         <v>4.03</v>
       </c>
       <c r="NJ5" s="108" t="inlineStr"/>
-      <c r="NN5" t="inlineStr"/>
+      <c r="NN5" s="108" t="inlineStr"/>
       <c r="NO5" s="108" t="inlineStr"/>
       <c r="NP5" s="108" t="inlineStr"/>
     </row>
@@ -6034,7 +6034,7 @@
         <v>3.1</v>
       </c>
       <c r="NJ6" s="108" t="inlineStr"/>
-      <c r="NN6" t="inlineStr"/>
+      <c r="NN6" s="108" t="inlineStr"/>
       <c r="NO6" s="108" t="inlineStr"/>
       <c r="NP6" s="108" t="inlineStr"/>
     </row>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="NJ7" s="108" t="inlineStr"/>
-      <c r="NN7" t="inlineStr"/>
+      <c r="NN7" s="108" t="inlineStr"/>
       <c r="NO7" s="108" t="inlineStr"/>
       <c r="NP7" s="108" t="inlineStr"/>
     </row>
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="NJ8" s="108" t="inlineStr"/>
-      <c r="NN8" t="inlineStr"/>
+      <c r="NN8" s="108" t="inlineStr"/>
       <c r="NO8" s="108" t="inlineStr"/>
       <c r="NP8" s="108" t="inlineStr"/>
     </row>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="NJ9" s="108" t="inlineStr"/>
-      <c r="NN9" t="inlineStr"/>
+      <c r="NN9" s="108" t="inlineStr"/>
       <c r="NO9" s="108" t="inlineStr"/>
       <c r="NP9" s="108" t="inlineStr"/>
     </row>
@@ -7376,7 +7376,7 @@
       <c r="NC10" s="208" t="n"/>
       <c r="ND10" s="208" t="n"/>
       <c r="NJ10" s="108" t="inlineStr"/>
-      <c r="NN10" t="inlineStr"/>
+      <c r="NN10" s="108" t="inlineStr"/>
       <c r="NO10" s="108" t="inlineStr"/>
       <c r="NP10" s="108" t="inlineStr"/>
     </row>
@@ -7896,7 +7896,7 @@
       <c r="NC11" s="208" t="n"/>
       <c r="ND11" s="208" t="n"/>
       <c r="NJ11" s="108" t="inlineStr"/>
-      <c r="NN11" t="inlineStr"/>
+      <c r="NN11" s="108" t="inlineStr"/>
       <c r="NO11" s="108" t="inlineStr"/>
       <c r="NP11" s="108" t="inlineStr"/>
     </row>
@@ -8448,7 +8448,7 @@
       <c r="NC12" s="207" t="n"/>
       <c r="ND12" s="207" t="n"/>
       <c r="NJ12" s="108" t="inlineStr"/>
-      <c r="NN12" t="inlineStr"/>
+      <c r="NN12" s="108" t="inlineStr"/>
       <c r="NO12" s="108" t="inlineStr"/>
       <c r="NP12" s="108" t="inlineStr"/>
     </row>
@@ -9022,7 +9022,7 @@
           <t>15.38%</t>
         </is>
       </c>
-      <c r="NN13" t="inlineStr">
+      <c r="NN13" s="108" t="inlineStr">
         <is>
           <t>46.15%</t>
         </is>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="NP13" s="108" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>88.46%</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="NJ14" s="108" t="inlineStr"/>
-      <c r="NN14" t="inlineStr"/>
+      <c r="NN14" s="108" t="inlineStr"/>
       <c r="NO14" s="108" t="inlineStr"/>
       <c r="NP14" s="108" t="inlineStr"/>
     </row>
@@ -9692,7 +9692,7 @@
       <c r="NC15" s="208" t="n"/>
       <c r="ND15" s="208" t="n"/>
       <c r="NJ15" s="108" t="inlineStr"/>
-      <c r="NN15" t="inlineStr"/>
+      <c r="NN15" s="108" t="inlineStr"/>
       <c r="NO15" s="108" t="inlineStr"/>
       <c r="NP15" s="108" t="inlineStr"/>
     </row>
@@ -9799,7 +9799,7 @@
         <v>1735.5</v>
       </c>
       <c r="NJ16" s="108" t="inlineStr"/>
-      <c r="NN16" t="inlineStr"/>
+      <c r="NN16" s="108" t="inlineStr"/>
       <c r="NO16" s="108" t="inlineStr"/>
       <c r="NP16" s="108" t="inlineStr"/>
     </row>
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="NJ17" s="108" t="inlineStr"/>
-      <c r="NN17" t="inlineStr"/>
+      <c r="NN17" s="108" t="inlineStr"/>
       <c r="NO17" s="108" t="inlineStr"/>
       <c r="NP17" s="108" t="inlineStr"/>
     </row>
@@ -10331,7 +10331,7 @@
         <v>5</v>
       </c>
       <c r="NJ18" s="108" t="inlineStr"/>
-      <c r="NN18" t="inlineStr"/>
+      <c r="NN18" s="108" t="inlineStr"/>
       <c r="NO18" s="108" t="inlineStr"/>
       <c r="NP18" s="108" t="inlineStr"/>
     </row>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -3053,9 +3053,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="H19:Q19"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="NP2" s="108" t="inlineStr">
         <is>
-          <t>dsfg</t>
+          <t>4535</t>
         </is>
       </c>
     </row>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="NP13" s="108" t="inlineStr">
         <is>
-          <t>88.46%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -3269,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:NP27"/>
+  <dimension ref="A1:NE27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="FH2" activePane="bottomRight" state="frozen"/>
@@ -4391,39 +4391,6 @@
         <v>45657</v>
       </c>
       <c r="NE1" s="240" t="n">
-        <v>45658</v>
-      </c>
-      <c r="NF1" s="240" t="n">
-        <v>45659</v>
-      </c>
-      <c r="NG1" s="240" t="n">
-        <v>45660</v>
-      </c>
-      <c r="NH1" s="240" t="n">
-        <v>45661</v>
-      </c>
-      <c r="NI1" s="240" t="n">
-        <v>45662</v>
-      </c>
-      <c r="NJ1" s="240" t="n">
-        <v>45663</v>
-      </c>
-      <c r="NK1" s="240" t="n">
-        <v>45664</v>
-      </c>
-      <c r="NL1" s="240" t="n">
-        <v>45665</v>
-      </c>
-      <c r="NM1" s="240" t="n">
-        <v>45666</v>
-      </c>
-      <c r="NN1" s="240" t="n">
-        <v>45667</v>
-      </c>
-      <c r="NO1" s="240" t="n">
-        <v>45668</v>
-      </c>
-      <c r="NP1" s="240" t="n">
         <v>45669</v>
       </c>
     </row>
@@ -4918,24 +4885,9 @@
       <c r="FX2" s="108" t="n">
         <v>60</v>
       </c>
-      <c r="NJ2" s="108" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="NN2" s="108" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="NO2" s="108" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="NP2" s="108" t="inlineStr">
-        <is>
-          <t>4535</t>
+      <c r="NE2" s="108" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5206,10 +5158,7 @@
       <c r="FO3" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="NJ3" s="108" t="inlineStr"/>
-      <c r="NN3" s="108" t="inlineStr"/>
-      <c r="NO3" s="108" t="inlineStr"/>
-      <c r="NP3" s="108" t="inlineStr"/>
+      <c r="NE3" s="108" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="110">
       <c r="B4" s="204" t="inlineStr">
@@ -5472,10 +5421,7 @@
       <c r="FO4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="NJ4" s="108" t="inlineStr"/>
-      <c r="NN4" s="108" t="inlineStr"/>
-      <c r="NO4" s="108" t="inlineStr"/>
-      <c r="NP4" s="108" t="inlineStr"/>
+      <c r="NE4" s="108" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B5" s="206" t="inlineStr">
@@ -5757,10 +5703,7 @@
       <c r="FO5" s="205" t="n">
         <v>4.03</v>
       </c>
-      <c r="NJ5" s="108" t="inlineStr"/>
-      <c r="NN5" s="108" t="inlineStr"/>
-      <c r="NO5" s="108" t="inlineStr"/>
-      <c r="NP5" s="108" t="inlineStr"/>
+      <c r="NE5" s="108" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B6" s="206" t="inlineStr">
@@ -6033,10 +5976,7 @@
       <c r="FO6" s="205" t="n">
         <v>3.1</v>
       </c>
-      <c r="NJ6" s="108" t="inlineStr"/>
-      <c r="NN6" s="108" t="inlineStr"/>
-      <c r="NO6" s="108" t="inlineStr"/>
-      <c r="NP6" s="108" t="inlineStr"/>
+      <c r="NE6" s="108" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="A7" s="208" t="n"/>
@@ -6343,10 +6283,7 @@
       <c r="FO7" s="207" t="n">
         <v>1</v>
       </c>
-      <c r="NJ7" s="108" t="inlineStr"/>
-      <c r="NN7" s="108" t="inlineStr"/>
-      <c r="NO7" s="108" t="inlineStr"/>
-      <c r="NP7" s="108" t="inlineStr"/>
+      <c r="NE7" s="108" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="110">
       <c r="B8" s="210" t="inlineStr">
@@ -6624,10 +6561,7 @@
       <c r="FO8" s="207" t="n">
         <v>1</v>
       </c>
-      <c r="NJ8" s="108" t="inlineStr"/>
-      <c r="NN8" s="108" t="inlineStr"/>
-      <c r="NO8" s="108" t="inlineStr"/>
-      <c r="NP8" s="108" t="inlineStr"/>
+      <c r="NE8" s="108" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="B9" s="211" t="inlineStr">
@@ -6731,10 +6665,7 @@
       <c r="FO9" s="207" t="n">
         <v>0</v>
       </c>
-      <c r="NJ9" s="108" t="inlineStr"/>
-      <c r="NN9" s="108" t="inlineStr"/>
-      <c r="NO9" s="108" t="inlineStr"/>
-      <c r="NP9" s="108" t="inlineStr"/>
+      <c r="NE9" s="108" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="110">
       <c r="A10" s="208" t="n"/>
@@ -7375,10 +7306,7 @@
       <c r="NB10" s="208" t="n"/>
       <c r="NC10" s="208" t="n"/>
       <c r="ND10" s="208" t="n"/>
-      <c r="NJ10" s="108" t="inlineStr"/>
-      <c r="NN10" s="108" t="inlineStr"/>
-      <c r="NO10" s="108" t="inlineStr"/>
-      <c r="NP10" s="108" t="inlineStr"/>
+      <c r="NE10" s="108" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="110">
       <c r="A11" s="208" t="n"/>
@@ -7895,10 +7823,7 @@
       <c r="NB11" s="208" t="n"/>
       <c r="NC11" s="208" t="n"/>
       <c r="ND11" s="208" t="n"/>
-      <c r="NJ11" s="108" t="inlineStr"/>
-      <c r="NN11" s="108" t="inlineStr"/>
-      <c r="NO11" s="108" t="inlineStr"/>
-      <c r="NP11" s="108" t="inlineStr"/>
+      <c r="NE11" s="108" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="110">
       <c r="A12" s="207" t="n"/>
@@ -8447,10 +8372,7 @@
       <c r="NB12" s="207" t="n"/>
       <c r="NC12" s="207" t="n"/>
       <c r="ND12" s="207" t="n"/>
-      <c r="NJ12" s="108" t="inlineStr"/>
-      <c r="NN12" s="108" t="inlineStr"/>
-      <c r="NO12" s="108" t="inlineStr"/>
-      <c r="NP12" s="108" t="inlineStr"/>
+      <c r="NE12" s="108" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="110">
       <c r="A13" s="208" t="n"/>
@@ -9017,24 +8939,9 @@
       <c r="NB13" s="208" t="n"/>
       <c r="NC13" s="208" t="n"/>
       <c r="ND13" s="208" t="n"/>
-      <c r="NJ13" s="108" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
-      <c r="NN13" s="108" t="inlineStr">
-        <is>
-          <t>46.15%</t>
-        </is>
-      </c>
-      <c r="NO13" s="108" t="inlineStr">
-        <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="NP13" s="108" t="inlineStr">
-        <is>
-          <t>76.92%</t>
+      <c r="NE13" s="108" t="inlineStr">
+        <is>
+          <t>19.23%</t>
         </is>
       </c>
     </row>
@@ -9137,10 +9044,7 @@
       <c r="FO14" s="207" t="n">
         <v>0</v>
       </c>
-      <c r="NJ14" s="108" t="inlineStr"/>
-      <c r="NN14" s="108" t="inlineStr"/>
-      <c r="NO14" s="108" t="inlineStr"/>
-      <c r="NP14" s="108" t="inlineStr"/>
+      <c r="NE14" s="108" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="110">
       <c r="A15" s="208" t="n"/>
@@ -9691,10 +9595,7 @@
       <c r="NB15" s="208" t="n"/>
       <c r="NC15" s="208" t="n"/>
       <c r="ND15" s="208" t="n"/>
-      <c r="NJ15" s="108" t="inlineStr"/>
-      <c r="NN15" s="108" t="inlineStr"/>
-      <c r="NO15" s="108" t="inlineStr"/>
-      <c r="NP15" s="108" t="inlineStr"/>
+      <c r="NE15" s="108" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="110">
       <c r="B16" s="215" t="inlineStr">
@@ -9798,10 +9699,7 @@
       <c r="FO16" s="216" t="n">
         <v>1735.5</v>
       </c>
-      <c r="NJ16" s="108" t="inlineStr"/>
-      <c r="NN16" s="108" t="inlineStr"/>
-      <c r="NO16" s="108" t="inlineStr"/>
-      <c r="NP16" s="108" t="inlineStr"/>
+      <c r="NE16" s="108" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="110">
       <c r="B17" s="215" t="inlineStr">
@@ -10064,10 +9962,7 @@
       <c r="FO17" s="108" t="n">
         <v>0</v>
       </c>
-      <c r="NJ17" s="108" t="inlineStr"/>
-      <c r="NN17" s="108" t="inlineStr"/>
-      <c r="NO17" s="108" t="inlineStr"/>
-      <c r="NP17" s="108" t="inlineStr"/>
+      <c r="NE17" s="108" t="inlineStr"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="110">
       <c r="B18" s="215" t="inlineStr">
@@ -10330,10 +10225,7 @@
       <c r="FO18" s="108" t="n">
         <v>5</v>
       </c>
-      <c r="NJ18" s="108" t="inlineStr"/>
-      <c r="NN18" s="108" t="inlineStr"/>
-      <c r="NO18" s="108" t="inlineStr"/>
-      <c r="NP18" s="108" t="inlineStr"/>
+      <c r="NE18" s="108" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="110">
       <c r="B19" s="108" t="inlineStr">

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -2010,7 +2010,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="2.71" customWidth="1" style="108" min="1" max="1"/>
     <col width="15.14" customWidth="1" style="108" min="2" max="2"/>
@@ -3053,9 +3053,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -3279,7 +3279,7 @@
       <selection pane="bottomRight" activeCell="FM10" activeCellId="0" sqref="FM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="108" min="2" max="2"/>
     <col width="10.57" customWidth="1" style="108" min="135" max="139"/>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="NE2" s="108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>814</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       <c r="ND13" s="208" t="n"/>
       <c r="NE13" s="108" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -10303,7 +10303,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="108" min="1" max="1"/>
     <col width="17" customWidth="1" style="108" min="2" max="2"/>
@@ -10444,7 +10444,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="219" min="1" max="1"/>
     <col width="11" customWidth="1" style="219" min="2" max="2"/>
@@ -10657,7 +10657,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.85" customWidth="1" style="225" min="2" max="2"/>
     <col width="12" customWidth="1" style="225" min="3" max="3"/>
@@ -12358,7 +12358,7 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="225" min="1" max="4"/>
     <col width="10.14" customWidth="1" style="225" min="5" max="5"/>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -3053,9 +3053,9 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="H19:Q19"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K28:Q28"/>
@@ -4885,11 +4885,7 @@
       <c r="FX2" s="108" t="n">
         <v>60</v>
       </c>
-      <c r="NE2" s="108" t="inlineStr">
-        <is>
-          <t>814</t>
-        </is>
-      </c>
+      <c r="NE2" s="108" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="110">
       <c r="B3" s="204" t="inlineStr">
@@ -8941,7 +8937,7 @@
       <c r="ND13" s="208" t="n"/>
       <c r="NE13" s="108" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>46.15%</t>
         </is>
       </c>
     </row>

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -25,13 +25,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="d\-mmm"/>
     <numFmt numFmtId="167" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="DD-MMM"/>
+    <numFmt numFmtId="170" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -3269,7 +3270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:PO27"/>
+  <dimension ref="A1:PP27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="FH2" activePane="bottomRight" state="frozen"/>
@@ -3289,69 +3290,6 @@
     <col width="10.57" customWidth="1" style="108" min="164" max="165"/>
     <col width="10.57" customWidth="1" style="108" min="167" max="167"/>
     <col width="10.57" customWidth="1" style="108" min="171" max="171"/>
-    <col width="12" customWidth="1" style="110" min="369" max="369"/>
-    <col width="12" customWidth="1" style="110" min="370" max="370"/>
-    <col width="12" customWidth="1" style="110" min="371" max="371"/>
-    <col width="12" customWidth="1" style="110" min="372" max="372"/>
-    <col width="12" customWidth="1" style="110" min="373" max="373"/>
-    <col width="12" customWidth="1" style="110" min="374" max="374"/>
-    <col width="12" customWidth="1" style="110" min="375" max="375"/>
-    <col width="12" customWidth="1" style="110" min="376" max="376"/>
-    <col width="12" customWidth="1" style="110" min="377" max="377"/>
-    <col width="12" customWidth="1" style="110" min="378" max="378"/>
-    <col width="12" customWidth="1" style="110" min="379" max="379"/>
-    <col width="12" customWidth="1" style="110" min="380" max="380"/>
-    <col width="12" customWidth="1" style="110" min="381" max="381"/>
-    <col width="12" customWidth="1" style="110" min="382" max="382"/>
-    <col width="12" customWidth="1" style="110" min="383" max="383"/>
-    <col width="12" customWidth="1" style="110" min="384" max="384"/>
-    <col width="12" customWidth="1" style="110" min="385" max="385"/>
-    <col width="12" customWidth="1" style="110" min="386" max="386"/>
-    <col width="12" customWidth="1" style="110" min="387" max="387"/>
-    <col width="12" customWidth="1" style="110" min="388" max="388"/>
-    <col width="12" customWidth="1" style="110" min="389" max="389"/>
-    <col width="12" customWidth="1" style="110" min="390" max="390"/>
-    <col width="12" customWidth="1" style="110" min="391" max="391"/>
-    <col width="12" customWidth="1" style="110" min="392" max="392"/>
-    <col width="12" customWidth="1" style="110" min="393" max="393"/>
-    <col width="12" customWidth="1" style="110" min="394" max="394"/>
-    <col width="12" customWidth="1" style="110" min="395" max="395"/>
-    <col width="12" customWidth="1" style="110" min="396" max="396"/>
-    <col width="12" customWidth="1" style="110" min="397" max="397"/>
-    <col width="12" customWidth="1" style="110" min="398" max="398"/>
-    <col width="12" customWidth="1" style="110" min="399" max="399"/>
-    <col width="12" customWidth="1" style="110" min="400" max="400"/>
-    <col width="12" customWidth="1" style="110" min="401" max="401"/>
-    <col width="12" customWidth="1" style="110" min="402" max="402"/>
-    <col width="12" customWidth="1" style="110" min="403" max="403"/>
-    <col width="12" customWidth="1" style="110" min="404" max="404"/>
-    <col width="12" customWidth="1" style="110" min="405" max="405"/>
-    <col width="12" customWidth="1" style="110" min="406" max="406"/>
-    <col width="12" customWidth="1" style="110" min="407" max="407"/>
-    <col width="12" customWidth="1" style="110" min="408" max="408"/>
-    <col width="12" customWidth="1" style="110" min="409" max="409"/>
-    <col width="12" customWidth="1" style="110" min="410" max="410"/>
-    <col width="12" customWidth="1" style="110" min="411" max="411"/>
-    <col width="12" customWidth="1" style="110" min="412" max="412"/>
-    <col width="12" customWidth="1" style="110" min="413" max="413"/>
-    <col width="12" customWidth="1" style="110" min="414" max="414"/>
-    <col width="12" customWidth="1" style="110" min="415" max="415"/>
-    <col width="12" customWidth="1" style="110" min="416" max="416"/>
-    <col width="12" customWidth="1" style="110" min="417" max="417"/>
-    <col width="12" customWidth="1" style="110" min="418" max="418"/>
-    <col width="12" customWidth="1" style="110" min="419" max="419"/>
-    <col width="12" customWidth="1" style="110" min="420" max="420"/>
-    <col width="12" customWidth="1" style="110" min="421" max="421"/>
-    <col width="12" customWidth="1" style="110" min="422" max="422"/>
-    <col width="12" customWidth="1" style="110" min="423" max="423"/>
-    <col width="12" customWidth="1" style="110" min="424" max="424"/>
-    <col width="12" customWidth="1" style="110" min="425" max="425"/>
-    <col width="12" customWidth="1" style="110" min="426" max="426"/>
-    <col width="12" customWidth="1" style="110" min="427" max="427"/>
-    <col width="12" customWidth="1" style="110" min="428" max="428"/>
-    <col width="12" customWidth="1" style="110" min="429" max="429"/>
-    <col width="12" customWidth="1" style="110" min="430" max="430"/>
-    <col width="12" customWidth="1" style="110" min="431" max="431"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="110">
@@ -4642,6 +4580,9 @@
       <c r="PO1" s="240" t="n">
         <v>45720</v>
       </c>
+      <c r="PP1" s="240" t="n">
+        <v>45721</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="110">
       <c r="B2" s="204" t="inlineStr">
@@ -5135,6 +5076,11 @@
       <c r="FX2" s="108" t="n">
         <v>60</v>
       </c>
+      <c r="PO2" s="108" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="110">
       <c r="B3" s="204" t="inlineStr">
@@ -5237,7 +5183,7 @@
       </c>
       <c r="BN3" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT3" s="108" t="n">
@@ -5408,6 +5354,11 @@
       <c r="FO3" s="108" t="n">
         <v>0</v>
       </c>
+      <c r="PO3" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="110">
       <c r="B4" s="204" t="inlineStr">
@@ -5504,7 +5455,7 @@
       </c>
       <c r="BN4" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT4" s="108" t="n">
@@ -5675,6 +5626,11 @@
       <c r="FO4" s="108" t="n">
         <v>1</v>
       </c>
+      <c r="PO4" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B5" s="206" t="inlineStr">
@@ -5777,7 +5733,7 @@
       </c>
       <c r="BN5" s="108" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT5" s="205" t="n">
@@ -5961,6 +5917,11 @@
       <c r="FO5" s="205" t="n">
         <v>4.03</v>
       </c>
+      <c r="PO5" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B6" s="206" t="inlineStr">
@@ -6054,7 +6015,7 @@
       </c>
       <c r="BN6" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT6" s="205" t="n">
@@ -6237,6 +6198,11 @@
       </c>
       <c r="FO6" s="205" t="n">
         <v>3.1</v>
+      </c>
+      <c r="PO6" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="207">
@@ -6373,7 +6339,7 @@
       </c>
       <c r="BN7" s="208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BO7" s="208" t="n"/>
@@ -6546,6 +6512,11 @@
       <c r="FO7" s="207" t="n">
         <v>1</v>
       </c>
+      <c r="PO7" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="110">
       <c r="B8" s="210" t="inlineStr">
@@ -6657,7 +6628,7 @@
       </c>
       <c r="BN8" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT8" s="108" t="n">
@@ -6825,6 +6796,11 @@
       <c r="FO8" s="207" t="n">
         <v>1</v>
       </c>
+      <c r="PO8" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="B9" s="211" t="inlineStr">
@@ -6834,7 +6810,7 @@
       </c>
       <c r="BN9" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="DC9" s="207" t="n">
@@ -6932,6 +6908,11 @@
       </c>
       <c r="FO9" s="207" t="n">
         <v>0</v>
+      </c>
+      <c r="PO9" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="110">
@@ -7052,7 +7033,7 @@
       </c>
       <c r="BN10" s="208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BO10" s="208" t="n"/>
@@ -7577,6 +7558,11 @@
       <c r="NB10" s="208" t="n"/>
       <c r="NC10" s="208" t="n"/>
       <c r="ND10" s="208" t="n"/>
+      <c r="PO10" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="110">
       <c r="A11" s="208" t="n"/>
@@ -7692,7 +7678,7 @@
       </c>
       <c r="BN11" s="208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BO11" s="208" t="n"/>
@@ -8097,6 +8083,11 @@
       <c r="NB11" s="208" t="n"/>
       <c r="NC11" s="208" t="n"/>
       <c r="ND11" s="208" t="n"/>
+      <c r="PO11" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="110">
       <c r="A12" s="207" t="n"/>
@@ -8228,7 +8219,7 @@
       </c>
       <c r="BN12" s="207" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BO12" s="207" t="n"/>
@@ -8649,6 +8640,11 @@
       <c r="NB12" s="207" t="n"/>
       <c r="NC12" s="207" t="n"/>
       <c r="ND12" s="207" t="n"/>
+      <c r="PO12" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="110">
       <c r="A13" s="208" t="n"/>
@@ -8786,7 +8782,7 @@
       </c>
       <c r="BN13" s="208" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>76.92%</t>
         </is>
       </c>
       <c r="BO13" s="208" t="n"/>
@@ -9219,6 +9215,11 @@
       <c r="NB13" s="208" t="n"/>
       <c r="NC13" s="208" t="n"/>
       <c r="ND13" s="208" t="n"/>
+      <c r="PO13" s="108" t="inlineStr">
+        <is>
+          <t>61.54%</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="110">
       <c r="B14" s="213" t="inlineStr">
@@ -9228,7 +9229,7 @@
       </c>
       <c r="BN14" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="DD14" s="207" t="n">
@@ -9323,6 +9324,11 @@
       </c>
       <c r="FO14" s="207" t="n">
         <v>0</v>
+      </c>
+      <c r="PO14" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="110">
@@ -9463,7 +9469,7 @@
       </c>
       <c r="BN15" s="208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BO15" s="208" t="n"/>
@@ -9876,6 +9882,11 @@
       <c r="NB15" s="208" t="n"/>
       <c r="NC15" s="208" t="n"/>
       <c r="ND15" s="208" t="n"/>
+      <c r="PO15" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="110">
       <c r="B16" s="215" t="inlineStr">
@@ -9885,7 +9896,7 @@
       </c>
       <c r="BN16" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="DC16" s="216" t="n">
@@ -9984,6 +9995,11 @@
       <c r="FO16" s="216" t="n">
         <v>1735.5</v>
       </c>
+      <c r="PO16" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="110">
       <c r="B17" s="215" t="inlineStr">
@@ -10086,7 +10102,7 @@
       </c>
       <c r="BN17" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT17" s="207" t="n">
@@ -10251,6 +10267,11 @@
       <c r="FO17" s="108" t="n">
         <v>0</v>
       </c>
+      <c r="PO17" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="110">
       <c r="B18" s="215" t="inlineStr">
@@ -10353,7 +10374,7 @@
       </c>
       <c r="BN18" s="108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="BT18" s="207" t="n">
@@ -10517,6 +10538,11 @@
       </c>
       <c r="FO18" s="108" t="n">
         <v>5</v>
+      </c>
+      <c r="PO18" s="108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="110">

--- a/myenv/Excel_UI/Boxing Tier.xlsx
+++ b/myenv/Excel_UI/Boxing Tier.xlsx
@@ -3269,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:QL27"/>
+  <dimension ref="A1:SH27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="FH2" activePane="bottomRight" state="frozen"/>
@@ -4648,6 +4648,150 @@
       <c r="QL1" s="240" t="n">
         <v>45743</v>
       </c>
+      <c r="QM1" s="240" t="n">
+        <v>45744</v>
+      </c>
+      <c r="QN1" s="240" t="n">
+        <v>45745</v>
+      </c>
+      <c r="QO1" s="240" t="n">
+        <v>45746</v>
+      </c>
+      <c r="QP1" s="240" t="n">
+        <v>45747</v>
+      </c>
+      <c r="QQ1" s="240" t="n">
+        <v>45748</v>
+      </c>
+      <c r="QR1" s="240" t="n">
+        <v>45749</v>
+      </c>
+      <c r="QS1" s="240" t="n">
+        <v>45750</v>
+      </c>
+      <c r="QT1" s="240" t="n">
+        <v>45751</v>
+      </c>
+      <c r="QU1" s="240" t="n">
+        <v>45752</v>
+      </c>
+      <c r="QV1" s="240" t="n">
+        <v>45753</v>
+      </c>
+      <c r="QW1" s="240" t="n">
+        <v>45754</v>
+      </c>
+      <c r="QX1" s="240" t="n">
+        <v>45755</v>
+      </c>
+      <c r="QY1" s="240" t="n">
+        <v>45756</v>
+      </c>
+      <c r="QZ1" s="240" t="n">
+        <v>45757</v>
+      </c>
+      <c r="RA1" s="240" t="n">
+        <v>45758</v>
+      </c>
+      <c r="RB1" s="240" t="n">
+        <v>45759</v>
+      </c>
+      <c r="RC1" s="240" t="n">
+        <v>45760</v>
+      </c>
+      <c r="RD1" s="240" t="n">
+        <v>45761</v>
+      </c>
+      <c r="RE1" s="240" t="n">
+        <v>45762</v>
+      </c>
+      <c r="RF1" s="240" t="n">
+        <v>45763</v>
+      </c>
+      <c r="RG1" s="240" t="n">
+        <v>45764</v>
+      </c>
+      <c r="RH1" s="240" t="n">
+        <v>45765</v>
+      </c>
+      <c r="RI1" s="240" t="n">
+        <v>45766</v>
+      </c>
+      <c r="RJ1" s="240" t="n">
+        <v>45767</v>
+      </c>
+      <c r="RK1" s="240" t="n">
+        <v>45768</v>
+      </c>
+      <c r="RL1" s="240" t="n">
+        <v>45769</v>
+      </c>
+      <c r="RM1" s="240" t="n">
+        <v>45770</v>
+      </c>
+      <c r="RN1" s="240" t="n">
+        <v>45771</v>
+      </c>
+      <c r="RO1" s="240" t="n">
+        <v>45772</v>
+      </c>
+      <c r="RP1" s="240" t="n">
+        <v>45773</v>
+      </c>
+      <c r="RQ1" s="240" t="n">
+        <v>45774</v>
+      </c>
+      <c r="RR1" s="240" t="n">
+        <v>45775</v>
+      </c>
+      <c r="RS1" s="240" t="n">
+        <v>45776</v>
+      </c>
+      <c r="RT1" s="240" t="n">
+        <v>45777</v>
+      </c>
+      <c r="RU1" s="240" t="n">
+        <v>45778</v>
+      </c>
+      <c r="RV1" s="240" t="n">
+        <v>45779</v>
+      </c>
+      <c r="RW1" s="240" t="n">
+        <v>45780</v>
+      </c>
+      <c r="RX1" s="240" t="n">
+        <v>45781</v>
+      </c>
+      <c r="RY1" s="240" t="n">
+        <v>45782</v>
+      </c>
+      <c r="RZ1" s="240" t="n">
+        <v>45783</v>
+      </c>
+      <c r="SA1" s="240" t="n">
+        <v>45784</v>
+      </c>
+      <c r="SB1" s="240" t="n">
+        <v>45785</v>
+      </c>
+      <c r="SC1" s="240" t="n">
+        <v>45786</v>
+      </c>
+      <c r="SD1" s="240" t="n">
+        <v>45787</v>
+      </c>
+      <c r="SE1" s="240" t="n">
+        <v>45788</v>
+      </c>
+      <c r="SF1" s="240" t="n">
+        <v>45789</v>
+      </c>
+      <c r="SG1" s="240" t="n">
+        <v>45790</v>
+      </c>
+      <c r="SH1" s="240" t="n">
+        <v>45791</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="110">
       <c r="B2" s="204" t="inlineStr">
@@ -5140,6 +5284,11 @@
       <c r="FX2" s="108" t="n">
         <v>60</v>
       </c>
+      <c r="SH2" s="108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="110">
       <c r="B3" s="204" t="inlineStr">
@@ -5408,6 +5557,11 @@
       <c r="FO3" s="108" t="n">
         <v>0</v>
       </c>
+      <c r="SH3" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="110">
       <c r="B4" s="204" t="inlineStr">
@@ -5670,6 +5824,11 @@
       <c r="FO4" s="108" t="n">
         <v>1</v>
       </c>
+      <c r="SH4" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B5" s="206" t="inlineStr">
@@ -5951,6 +6110,11 @@
       <c r="FO5" s="205" t="n">
         <v>4.03</v>
       </c>
+      <c r="SH5" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customFormat="1" customHeight="1" s="205">
       <c r="B6" s="206" t="inlineStr">
@@ -6222,6 +6386,11 @@
       </c>
       <c r="FO6" s="205" t="n">
         <v>3.1</v>
+      </c>
+      <c r="SH6" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="207">
@@ -6529,6 +6698,11 @@
       <c r="FO7" s="207" t="n">
         <v>1</v>
       </c>
+      <c r="SH7" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="110">
       <c r="B8" s="210" t="inlineStr">
@@ -6806,6 +6980,11 @@
       <c r="FO8" s="207" t="n">
         <v>1</v>
       </c>
+      <c r="SH8" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15" customFormat="1" customHeight="1" s="207">
       <c r="B9" s="211" t="inlineStr">
@@ -6908,6 +7087,11 @@
       </c>
       <c r="FO9" s="207" t="n">
         <v>0</v>
+      </c>
+      <c r="SH9" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="110">
@@ -7549,6 +7733,11 @@
       <c r="NB10" s="208" t="n"/>
       <c r="NC10" s="208" t="n"/>
       <c r="ND10" s="208" t="n"/>
+      <c r="SH10" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="110">
       <c r="A11" s="208" t="n"/>
@@ -8065,6 +8254,11 @@
       <c r="NB11" s="208" t="n"/>
       <c r="NC11" s="208" t="n"/>
       <c r="ND11" s="208" t="n"/>
+      <c r="SH11" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="110">
       <c r="A12" s="207" t="n"/>
@@ -8613,6 +8807,11 @@
       <c r="NB12" s="207" t="n"/>
       <c r="NC12" s="207" t="n"/>
       <c r="ND12" s="207" t="n"/>
+      <c r="SH12" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="110">
       <c r="A13" s="208" t="n"/>
@@ -9179,6 +9378,11 @@
       <c r="NB13" s="208" t="n"/>
       <c r="NC13" s="208" t="n"/>
       <c r="ND13" s="208" t="n"/>
+      <c r="SH13" s="108" t="inlineStr">
+        <is>
+          <t>23.08%</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="110">
       <c r="B14" s="213" t="inlineStr">
@@ -9278,6 +9482,11 @@
       </c>
       <c r="FO14" s="207" t="n">
         <v>0</v>
+      </c>
+      <c r="SH14" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="110">
@@ -9829,6 +10038,11 @@
       <c r="NB15" s="208" t="n"/>
       <c r="NC15" s="208" t="n"/>
       <c r="ND15" s="208" t="n"/>
+      <c r="SH15" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="110">
       <c r="B16" s="215" t="inlineStr">
@@ -9932,6 +10146,11 @@
       <c r="FO16" s="216" t="n">
         <v>1735.5</v>
       </c>
+      <c r="SH16" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="110">
       <c r="B17" s="215" t="inlineStr">
@@ -10194,6 +10413,11 @@
       <c r="FO17" s="108" t="n">
         <v>0</v>
       </c>
+      <c r="SH17" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="110">
       <c r="B18" s="215" t="inlineStr">
@@ -10455,6 +10679,11 @@
       </c>
       <c r="FO18" s="108" t="n">
         <v>5</v>
+      </c>
+      <c r="SH18" s="108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="110">
